--- a/Municipio Reyes de Juarez/Paginas.xlsx
+++ b/Municipio Reyes de Juarez/Paginas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IPPI 11\Documents\GitHub\templates\Municipio Reyes de Juarez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\GitHub\templates\Municipio Reyes de Juarez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382F069D-428A-475D-87D5-6B91891FA1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D12559-CC4D-4AB4-811F-5785234FA882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONAC" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="183">
   <si>
     <t>AÑO</t>
   </si>
@@ -262,13 +259,328 @@
   </si>
   <si>
     <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Marzo/13.2_Programas_y_Proyectos_de_Inversion.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/3._Estado_de_Situacion_Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/3.1_Estado_de_Actividades.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/6.1_Flujos_de_Efectivo.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/13.1_Indicadores_de_Resultados.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/4._Estado_de_Variacion_en_la_Hacienda_Publica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/5._Estado_de_Cambios_en_la_Situacion_Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/7.2_Informe_Sobre_Pasivos_Contingentes.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/6._Notas_a_los_Estados_Financieros.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/7._Estado_Analitico_del_Activo.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/7.1_Estado_Analitico_de_la_Deuda_y_Otros_Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/8._Estado_Analitico_de_Ingresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/9._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Administrativa).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/10._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Economica).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/11._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Por_Objeto_del_Gasto).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/12._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Funcional).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/12.1_Endeudamiento_Neto.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/12.2_Intereses_de_la_Deuda.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/13._Gasto_por_Categoria_Programatica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Junio/13.2_Programas_y_Proyectos_de_Inversion.pdf</t>
+  </si>
+  <si>
+    <t>Información Financiera Cuarto Trimestre</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/7.2_Informe_Sobre_Pasivos_Contingentes.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/7.2_Informe_Sobre_Pasivos_Contingentes.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/3._Estado_de_Situacion_Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/3.1_Estado_de_Actividades.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/4._Estado_de_Variacion_en_la_Hacienda_Publica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/5._Estado_de_Cambios_en_la_Situacion_Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/6._Notas_a_los_Estados_Financieros.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/6.1_Flujos_de_Efectivo.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/7._Estado_Analitico_del_Activo.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/7.1_Estado_Analitico_de_la_Deuda_y_Otros_Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/8._Estado_Analitico_de_Ingresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/9._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Administrativa).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/10._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Economica).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/11._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Por_Objeto_del_Gasto).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/12._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Funcional).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/12.1_Endeudamiento_Neto.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/12.2_Intereses_de_la_Deuda.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/13._Gasto_por_Categoria_Programatica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/13.1_Indicadores_de_Resultados.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Septiembre/13.2_Programas_y_Proyectos_de_Inversion.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/3._Estado_de_Situacion_Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/3.1_Estado_de_Actividades.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/4._Estado_de_Variacion_en_la_Hacienda_Publica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/5._Estado_de_Cambios_en_la_Situacion_Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/6._Notas_a_los_Estados_Financieros.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/6.1_Flujos_de_Efectivo.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/7._Estado_Analitico_del_Activo.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/7.1_Estado_Analitico_de_la_Deuda_y_Otros_Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/8._Estado_Analitico_de_Ingresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/9._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Administrativa).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/10._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Economica).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/11._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Por_Objeto_del_Gasto).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/12._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Funcional).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/12.1_Endeudamiento_Neto.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/12.2_Intereses_de_la_Deuda.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/13._Gasto_por_Categoria_Programatica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/13.1_Indicadores_de_Resultados.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Diciembre/13.2_Programas_y_Proyectos_de_Inversion.pdf</t>
+  </si>
+  <si>
+    <t>Cuenta Pública 2017</t>
+  </si>
+  <si>
+    <t>4. Estado de Actividades</t>
+  </si>
+  <si>
+    <t>5. Estado de Variación en la Hacienda Pública</t>
+  </si>
+  <si>
+    <t>6. Estado de Cambios en la Situación Financiera</t>
+  </si>
+  <si>
+    <t>7. Notas a los Estados Financieros</t>
+  </si>
+  <si>
+    <t>8. Estado de Flujos de Efectivo</t>
+  </si>
+  <si>
+    <t>9. Estado Analítico del Activo</t>
+  </si>
+  <si>
+    <t>10. Estado Analítico de la Deuda y Otros Pasivos</t>
+  </si>
+  <si>
+    <t>11. Informe Sobre Pasivos Contingentes</t>
+  </si>
+  <si>
+    <t>12. Estado Analítico de Ingresos</t>
+  </si>
+  <si>
+    <t>13. Estado Analítico del Ejercicio del Presupuesto de Egresos (Administrativa)</t>
+  </si>
+  <si>
+    <t>14. Estado Analítico del Ejercicio del Presupuesto de Egresos (Económica)</t>
+  </si>
+  <si>
+    <t>15. Estado Analítico del Ejercicio del Presupuesto de Egresos (Por Objeto del Gasto)</t>
+  </si>
+  <si>
+    <t>16. Estado Analítico del Ejercicio del Presupuesto de Egresos (Funcional)</t>
+  </si>
+  <si>
+    <t>17. Endeudamiento Neto</t>
+  </si>
+  <si>
+    <t>18. Intereses de la Deuda</t>
+  </si>
+  <si>
+    <t>19. Estado Analítico del Ejercicio del Presupuesto de Egresos (Categoría Programática)</t>
+  </si>
+  <si>
+    <t>20. Indicadores de Resultados</t>
+  </si>
+  <si>
+    <t>21. Programas y Proyectos de Inversión</t>
+  </si>
+  <si>
+    <t>22. Indicadores de Postura Fiscal</t>
+  </si>
+  <si>
+    <t>23. Relación de cuentas bancarias productivas</t>
+  </si>
+  <si>
+    <t>24. Relación de Esquemas Bursátiles y de Coberturas Financieras</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/1._Inventario_de_Bienes_Muebles.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/2._Inventario_de_Bienes_Inmuebles.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/3._Estado_de_Situacion_Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/4._Estado_de_Actividades.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/5._Estado_de_Variacion_en_la_Hacienda_Publica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/6._Estado_de_Cambios_en_la_Situacion_Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/7._Notas_a_los_Estados_Financieros.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/8._Estado_de_Flujos_de_Efectivo.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/9._Estado_Analitico_del_Activo.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/10._Estado_Analitico_de_la_Deuda_y_Otros_Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/11._Informe_Sobre_Pasivos_Contingentes.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/12._Estado_Analitico_de_Ingresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/13._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Administrativa).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/14._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Economica).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/15._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Por_Objeto_del_Gasto).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/16._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Funcional).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/17._Endeudamiento_Neto.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/18._Intereses_de_la_Deuda.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/19._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Categoria_Programatica).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/20._Indicadores_de_Resultados.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/21._Programas_y_Proyectos_de_Inversion.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/22._Indicadores_de_Postura_Fiscal.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/23._Relacion_de_cuentas_bancarias_productivas.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2017/Cuenta_Publica/24._Relacion_de_Esquemas_Bursatiles_y_de_Coberturas_Financieras.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/cuenta-publica/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +592,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -318,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -332,18 +651,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -377,14 +707,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}" name="Tabla1" displayName="Tabla1" ref="A1:E76" totalsRowShown="0">
-  <autoFilter ref="A1:E76" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Información Financiera Primer Trimestre"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}" name="Tabla1" displayName="Tabla1" ref="A1:E123" totalsRowShown="0">
+  <autoFilter ref="A1:E123" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{11D3272D-AD7F-4B41-AF31-4396FEEB1971}" name="AÑO" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{C575CDBE-B8BB-4969-9A92-0BB94A6292A2}" name="SECCION 1" dataDxfId="2"/>
@@ -659,21 +983,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="87.5703125" customWidth="1"/>
-    <col min="4" max="4" width="73.140625" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" customWidth="1"/>
+    <col min="3" max="3" width="73.77734375" customWidth="1"/>
+    <col min="4" max="4" width="73.109375" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -690,8 +1012,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>2018</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -700,15 +1022,15 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>2018</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -717,12 +1039,15 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="E3" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>2018</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -731,12 +1056,15 @@
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="E4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>2018</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -745,12 +1073,15 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="E5" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>2018</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -759,12 +1090,15 @@
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="E6" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>2018</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -773,12 +1107,15 @@
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="E7" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>2018</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -787,12 +1124,15 @@
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="E8" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>2018</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -801,12 +1141,15 @@
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="E9" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>2018</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -815,12 +1158,15 @@
       <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>2018</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -829,12 +1175,15 @@
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>2018</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -843,12 +1192,15 @@
       <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="E12" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>2018</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -857,12 +1209,15 @@
       <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="E13" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>2018</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -871,12 +1226,15 @@
       <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="E14" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>2018</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -885,821 +1243,1586 @@
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="E15" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C42" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D42" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C43" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D43" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D44" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C45" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D45" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C46" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D46" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C47" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D47" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C48" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D48" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D49" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D50" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C51" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D51" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C52" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D52" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C53" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D53" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C54" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D54" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C55" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D55" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C56" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D56" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C57" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D57" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C58" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D58" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C59" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D59" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C60" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D60" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="D63" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="D64" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="D65" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="D66" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="D67" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="D68" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="D69" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="D70" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="D71" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="D73" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="D74" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="D76" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="D77" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="D78" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="D79" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="D80" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="D81" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="D84" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="D85" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="D86" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="D87" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="D88" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="D89" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="D90" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B67" s="2" t="s">
+      <c r="D91" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B68" s="2" t="s">
+      <c r="D92" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="D93" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B70" s="2" t="s">
+      <c r="D94" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B71" s="2" t="s">
+      <c r="D95" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C96" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B72" s="2" t="s">
+      <c r="D97" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="D98" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B74" s="2" t="s">
+      <c r="D99" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="D100" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B76" s="2" t="s">
+      <c r="D101" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D76" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{C8455544-983C-48FE-A4D3-6CC07EEE1270}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{A1A1128C-6AED-413D-9BE2-7094AB63B423}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{B2D189F1-19CC-46B1-AD9B-0D30DD1A978F}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{C833846F-65A7-4A3C-9DF0-9A3F3FFA3544}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{9E427A83-9C7E-4DFC-BA55-B918CDA4B0BA}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{3544439B-CA79-420B-A999-B365FFDA167C}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{81F616BF-41CD-42C0-BB2C-2E75543E00DB}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{CD3F0D7C-C108-4E83-BFEB-C11C130E6F23}"/>
-    <hyperlink ref="D9" r:id="rId9" xr:uid="{33F70E05-5BEC-41E9-A341-C073A62B4DC1}"/>
-    <hyperlink ref="D10" r:id="rId10" xr:uid="{B7CB4FD0-7CAB-4C13-98F1-05F870A4F492}"/>
-    <hyperlink ref="D11" r:id="rId11" xr:uid="{26FD755B-209C-4C5F-9EDB-47A628F4B1C1}"/>
-    <hyperlink ref="D12" r:id="rId12" xr:uid="{BCFCD855-1C90-45F2-B35A-88E021DD1A56}"/>
-    <hyperlink ref="D13" r:id="rId13" xr:uid="{E1E25152-04E4-4838-A6C2-BC778B60A1A1}"/>
-    <hyperlink ref="D14" r:id="rId14" xr:uid="{5E073A77-906A-4C6E-A9C7-2ADD6E726C94}"/>
-    <hyperlink ref="D15" r:id="rId15" xr:uid="{D7218419-B56D-47F7-81AA-5CD36C3A2F7B}"/>
-    <hyperlink ref="D18" r:id="rId16" xr:uid="{EA894887-E293-4F42-A975-1B65729E33B8}"/>
-    <hyperlink ref="D19" r:id="rId17" xr:uid="{C52F682E-275C-45A6-BDE7-4154D0FA89EF}"/>
-    <hyperlink ref="D20" r:id="rId18" xr:uid="{1A95DCD3-5EDE-4AB4-AB47-46E1F126A990}"/>
-    <hyperlink ref="D21" r:id="rId19" xr:uid="{6397CE3A-91C1-4791-91E0-D10E95B0E75F}"/>
-    <hyperlink ref="D22" r:id="rId20" xr:uid="{54D31879-6EBB-4024-89D3-B93969D5CBEC}"/>
-    <hyperlink ref="D23" r:id="rId21" xr:uid="{7131F9BE-46A2-4DF0-8AE9-6E5279754B65}"/>
-    <hyperlink ref="D24" r:id="rId22" xr:uid="{C0127BC3-D7A6-45CC-99E5-CDFA059D975B}"/>
-    <hyperlink ref="D25" r:id="rId23" xr:uid="{EC0D2077-E226-4E55-A336-90F417590A8B}"/>
-    <hyperlink ref="D26" r:id="rId24" xr:uid="{11518791-54A7-42DE-9895-9BD845833D1B}"/>
-    <hyperlink ref="D27" r:id="rId25" xr:uid="{CAF28D61-5F62-4E8F-97FB-AFEF52E76AE1}"/>
-    <hyperlink ref="D28" r:id="rId26" xr:uid="{902172E2-2FC2-42D8-81B5-561DAC408F9C}"/>
-    <hyperlink ref="D29" r:id="rId27" xr:uid="{28C39172-F286-474D-B70D-2BB1979D055E}"/>
-    <hyperlink ref="D30" r:id="rId28" xr:uid="{D850C2BB-2CAB-4F78-BF60-D4CB6E63F727}"/>
-    <hyperlink ref="D31" r:id="rId29" xr:uid="{D597D7DC-33EF-47BD-8C7D-8AEE73C5EECC}"/>
-    <hyperlink ref="D32" r:id="rId30" xr:uid="{49F13CF8-57F6-454C-B308-CA0D15723C00}"/>
-    <hyperlink ref="D33" r:id="rId31" xr:uid="{813BCA71-2A64-4C00-A125-103AF9E085CE}"/>
-    <hyperlink ref="D34" r:id="rId32" xr:uid="{4D48A7D6-4D0A-4917-AB0A-827FF3E66B3A}"/>
-    <hyperlink ref="D35" r:id="rId33" xr:uid="{8BF1952D-DCAD-45DF-8FF6-EA62F539BD41}"/>
-    <hyperlink ref="D36" r:id="rId34" xr:uid="{93A6FC08-2A29-4EC6-B00D-8D4FD9AD4148}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId36"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Municipio Reyes de Juarez/Paginas.xlsx
+++ b/Municipio Reyes de Juarez/Paginas.xlsx
@@ -1,31 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\GitHub\templates\Municipio Reyes de Juarez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IPPI 11\Documents\GitHub\templates\Municipio Reyes de Juarez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D12559-CC4D-4AB4-811F-5785234FA882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B161F1A1-3285-4A5A-B984-C4E366C70A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONAC" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="204">
   <si>
     <t>AÑO</t>
   </si>
@@ -574,6 +578,69 @@
   </si>
   <si>
     <t>https://losreyesdejuarezpuebla.gob.mx/cuenta-publica/</t>
+  </si>
+  <si>
+    <t>Ayudas</t>
+  </si>
+  <si>
+    <t>Formato de programas con recursos federales por orden de gobierno</t>
+  </si>
+  <si>
+    <t>Relación de Cuentas bancarias productivas específicas</t>
+  </si>
+  <si>
+    <t>MIDS</t>
+  </si>
+  <si>
+    <t>SRFT</t>
+  </si>
+  <si>
+    <t>Indicadores</t>
+  </si>
+  <si>
+    <t>Fondo de Aportaciones para la Infraestructura Social (FAIS) </t>
+  </si>
+  <si>
+    <t>FORTAMUN</t>
+  </si>
+  <si>
+    <t>Formatos de obligaciones pagadas o garantizadas con fondos federales</t>
+  </si>
+  <si>
+    <t>Formato del ejercicio y destino de gasto federalizado y reintegros trimestral</t>
+  </si>
+  <si>
+    <t>14. Ayudas</t>
+  </si>
+  <si>
+    <t>15. Formato de programas con recursos federales por orden de gobierno</t>
+  </si>
+  <si>
+    <t>16. Relación de Cuentas bancarias productivas específicas</t>
+  </si>
+  <si>
+    <t>17. MIDS</t>
+  </si>
+  <si>
+    <t>18. SRFT</t>
+  </si>
+  <si>
+    <t>19. Indicadores</t>
+  </si>
+  <si>
+    <t>20. Fondo de Aportaciones para la Infraestructura Social (FAIS) </t>
+  </si>
+  <si>
+    <t>21. FORTAMUN</t>
+  </si>
+  <si>
+    <t>22. Formatos de obligaciones pagadas o garantizadas con fondos federales</t>
+  </si>
+  <si>
+    <t>23. Formato del ejercicio y destino de gasto federalizado y reintegros trimestral</t>
+  </si>
+  <si>
+    <t>20. Fondo de Aportaciones para la Infraestructura Social (FAIS)</t>
   </si>
 </sst>
 </file>
@@ -637,7 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -675,6 +742,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -707,8 +778,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}" name="Tabla1" displayName="Tabla1" ref="A1:E123" totalsRowShown="0">
-  <autoFilter ref="A1:E123" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}" name="Tabla1" displayName="Tabla1" ref="A1:E163" totalsRowShown="0">
+  <autoFilter ref="A1:E163" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{11D3272D-AD7F-4B41-AF31-4396FEEB1971}" name="AÑO" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{C575CDBE-B8BB-4969-9A92-0BB94A6292A2}" name="SECCION 1" dataDxfId="2"/>
@@ -983,19 +1054,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="73.77734375" customWidth="1"/>
-    <col min="4" max="4" width="73.109375" customWidth="1"/>
-    <col min="5" max="5" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="73.7109375" customWidth="1"/>
+    <col min="4" max="4" width="73.140625" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2018</v>
       </c>
@@ -1029,7 +1102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2018</v>
       </c>
@@ -1046,7 +1119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2018</v>
       </c>
@@ -1063,7 +1136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2018</v>
       </c>
@@ -1080,7 +1153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2018</v>
       </c>
@@ -1097,7 +1170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2018</v>
       </c>
@@ -1114,7 +1187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2018</v>
       </c>
@@ -1131,7 +1204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2018</v>
       </c>
@@ -1148,7 +1221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2018</v>
       </c>
@@ -1165,7 +1238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2018</v>
       </c>
@@ -1182,7 +1255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2018</v>
       </c>
@@ -1199,7 +1272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2018</v>
       </c>
@@ -1216,7 +1289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2018</v>
       </c>
@@ -1233,7 +1306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2018</v>
       </c>
@@ -1250,7 +1323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2018</v>
       </c>
@@ -1267,7 +1340,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2018</v>
       </c>
@@ -1284,7 +1357,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2018</v>
       </c>
@@ -1301,7 +1374,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2018</v>
       </c>
@@ -1318,7 +1391,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2018</v>
       </c>
@@ -1335,7 +1408,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2018</v>
       </c>
@@ -1352,7 +1425,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2018</v>
       </c>
@@ -1369,7 +1442,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2018</v>
       </c>
@@ -1386,7 +1459,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2018</v>
       </c>
@@ -1403,7 +1476,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2018</v>
       </c>
@@ -1420,7 +1493,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2018</v>
       </c>
@@ -1437,7 +1510,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>2018</v>
       </c>
@@ -1454,7 +1527,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2018</v>
       </c>
@@ -1471,7 +1544,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>2018</v>
       </c>
@@ -1488,7 +1561,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>2018</v>
       </c>
@@ -1505,7 +1578,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>2018</v>
       </c>
@@ -1522,7 +1595,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>2018</v>
       </c>
@@ -1539,7 +1612,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>2018</v>
       </c>
@@ -1556,7 +1629,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>2018</v>
       </c>
@@ -1573,7 +1646,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>2018</v>
       </c>
@@ -1590,7 +1663,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>2018</v>
       </c>
@@ -1607,7 +1680,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>2018</v>
       </c>
@@ -1624,7 +1697,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2018</v>
       </c>
@@ -1641,7 +1714,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2018</v>
       </c>
@@ -1658,7 +1731,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2018</v>
       </c>
@@ -1670,7 +1743,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>2018</v>
       </c>
@@ -1682,7 +1755,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>2018</v>
       </c>
@@ -1696,7 +1769,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>2018</v>
       </c>
@@ -1710,7 +1783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>2018</v>
       </c>
@@ -1724,7 +1797,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>2018</v>
       </c>
@@ -1738,7 +1811,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>2018</v>
       </c>
@@ -1752,7 +1825,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>2018</v>
       </c>
@@ -1766,7 +1839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>2018</v>
       </c>
@@ -1780,7 +1853,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>2018</v>
       </c>
@@ -1794,7 +1867,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>2018</v>
       </c>
@@ -1804,11 +1877,11 @@
       <c r="C50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>2018</v>
       </c>
@@ -1822,7 +1895,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>2018</v>
       </c>
@@ -1836,7 +1909,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>2018</v>
       </c>
@@ -1850,7 +1923,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>2018</v>
       </c>
@@ -1864,7 +1937,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>2018</v>
       </c>
@@ -1878,7 +1951,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>2018</v>
       </c>
@@ -1892,7 +1965,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>2018</v>
       </c>
@@ -1906,7 +1979,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>2018</v>
       </c>
@@ -1920,7 +1993,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>2018</v>
       </c>
@@ -1934,7 +2007,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>2018</v>
       </c>
@@ -1948,143 +2021,127 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>2018</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>2018</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>2018</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>2018</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>2018</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>2018</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>2018</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>2018</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>2018</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>2018</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>2018</v>
       </c>
@@ -2092,13 +2149,11 @@
         <v>56</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>2018</v>
       </c>
@@ -2106,13 +2161,11 @@
         <v>56</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>2018</v>
       </c>
@@ -2120,13 +2173,13 @@
         <v>56</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>2018</v>
       </c>
@@ -2134,13 +2187,13 @@
         <v>56</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>2018</v>
       </c>
@@ -2148,13 +2201,13 @@
         <v>56</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>2018</v>
       </c>
@@ -2162,13 +2215,13 @@
         <v>56</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>2018</v>
       </c>
@@ -2176,13 +2229,13 @@
         <v>56</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>2018</v>
       </c>
@@ -2190,13 +2243,13 @@
         <v>56</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>2018</v>
       </c>
@@ -2204,13 +2257,13 @@
         <v>56</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>2018</v>
       </c>
@@ -2218,13 +2271,13 @@
         <v>56</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>2018</v>
       </c>
@@ -2232,289 +2285,273 @@
         <v>56</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>2018</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>2018</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>2018</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>2018</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>2018</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>2018</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>2018</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>2018</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>2018</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>2018</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>2018</v>
       </c>
@@ -2522,301 +2559,817 @@
         <v>57</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C103" s="4" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C104" s="4" t="s">
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C105" s="4" t="s">
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C106" s="4" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C107" s="4" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D137" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C108" s="4" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D138" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C109" s="4" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C110" s="4" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C111" s="4" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C112" s="4" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C113" s="4" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D143" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C114" s="4" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C115" s="4" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D145" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C116" s="4" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D146" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C117" s="4" t="s">
+    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C118" s="4" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D148" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C119" s="4" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C120" s="4" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C121" s="4" t="s">
+    <row r="151" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C122" s="4" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C123" s="4" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>135</v>
       </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D163" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2825,4 +3378,133 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D94E77-2E03-4AB6-BE23-514B96125455}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2018</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Municipio Reyes de Juarez/Paginas.xlsx
+++ b/Municipio Reyes de Juarez/Paginas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IPPI 11\Documents\GitHub\templates\Municipio Reyes de Juarez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\GitHub\templates\Municipio Reyes de Juarez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B161F1A1-3285-4A5A-B984-C4E366C70A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5CD0FA-97CF-4175-807A-C4A45F82457E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2016" yWindow="1344" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONAC" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="264">
   <si>
     <t>AÑO</t>
   </si>
@@ -641,6 +638,186 @@
   </si>
   <si>
     <t>20. Fondo de Aportaciones para la Infraestructura Social (FAIS)</t>
+  </si>
+  <si>
+    <t>Disciplina Financiera Primer Trimestre</t>
+  </si>
+  <si>
+    <t>Disciplina Financiera Segundo Trimestre</t>
+  </si>
+  <si>
+    <t>Disciplina Financiera Tercer Trimestre</t>
+  </si>
+  <si>
+    <t>Disciplina Financiera Cuarto Trimestre</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/1er_Trim/1.Estado_de_Situaci%C3%B3n_Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/1er_Trim/2.Informe_Anal%C3%ADtico_de_la_Deuda_P%C3%BAblica_y_Otros_Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/1er_Trim/3.Informe_Anal%C3%ADtico_de_Obligaciones_Diferentes_de_Financiamientos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/1er_Trim/4.Balance_Presupuestario.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/1er_Trim/5.Estado_Anal%C3%ADtico_de_Ingresos_Detallado.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/1er_Trim/6a.Estado_Anal%C3%ADtico_del_Ejercicio_del_Presupuesto_de_Egresos_Detallado_Clasificaci%C3%B3n_por_Objeto_del_Gasto_(Cap%C3%ADtulo_y_Concepto).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/1er_Trim/6b.Estado_Anal%C3%ADtico_del_Ejercicio_del_Presupuesto_de_Egresos_Detallado_Clasificaci%C3%B3n_Administrativa.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/1er_Trim/6c.Estado_Anal%C3%ADtico_del_Ejercicio_del_Presupuesto_de_Egresos_Detallado_Clasificaci%C3%B3n_Funcional_(Finalidad_y_Funci%C3%B3n).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/1er_Trim/6d.Estado_Anal%C3%ADtico_del_Ejercicio_del_Presupuesto_de_Egresos_Detallado_LDF_Clasificaci%C3%B3n_de_Servicios_Personales_por_Categor%C3%ADa.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/1er_Trim/7a.Proyecciones_de_Ingresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/1er_Trim/7b.Proyecciones_de_Egresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/1er_Trim/7c.Resultados_de_Ingresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/1er_Trim/7d.Resultados_de_Egresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/1er_Trim/8.Informe_sobre_Estudios_Actuariales.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/2do_Trim/1.Estado_de_Situaci%C3%B3n_Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/2do_Trim/2.Informe_Anal%C3%ADtico_de_la_Deuda_P%C3%BAblica_y_Otros_Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/2do_Trim/3.Informe_Anal%C3%ADtico_de_Obligaciones_Diferentes_de_Financiamientos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/2do_Trim/4.Balance_Presupuestario.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/2do_Trim/5.Estado_Anal%C3%ADtico_de_Ingresos_Detallado.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/2do_Trim/6a.Estado_Anal%C3%ADtico_del_Ejercicio_del_Presupuesto_de_Egresos_Detallado_Clasificaci%C3%B3n_por_Objeto_del_Gasto_(Cap%C3%ADtulo_y_Concepto).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/2do_Trim/6b.Estado_Anal%C3%ADtico_del_Ejercicio_del_Presupuesto_de_Egresos_Detallado_Clasificaci%C3%B3n_Administrativa.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/2do_Trim/6c.Estado_Anal%C3%ADtico_del_Ejercicio_del_Presupuesto_de_Egresos_Detallado_Clasificaci%C3%B3n_Funcional_(Finalidad_y_Funci%C3%B3n).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/2do_Trim/6d.Estado_Anal%C3%ADtico_del_Ejercicio_del_Presupuesto_de_Egresos_Detallado_LDF_Clasificaci%C3%B3n_de_Servicios_Personales_por_Categor%C3%ADa.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/2do_Trim/7a.Proyecciones_de_Ingresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/2do_Trim/7b.Proyecciones_de_Egresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/2do_Trim/7c.Resultados_de_Ingresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/2do_Trim/7d.Resultados_de_Egresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/2do_Trim/8.Informe_sobre_Estudios_Actuariales.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/3ro_Trim/6a.Estado_Anal%C3%ADtico_del_Ejercicio_del_Presupuesto_de_Egresos_Detallado_Clasificaci%C3%B3n_por_Objeto_del_Gasto_(Cap%C3%ADtulo_y_Concepto).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/3ro_Trim/8.Informe_sobre_Estudios_Actuariales.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/3ro_Trim/1.Estado_de_Situaci%C3%B3n_Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/3ro_Trim/2.Informe_Anal%C3%ADtico_de_la_Deuda_P%C3%BAblica_y_Otros_Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/3ro_Trim/3.Informe_Anal%C3%ADtico_de_Obligaciones_Diferentes_de_Financiamientos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/3ro_Trim/4.Balance_Presupuestario.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/3ro_Trim/5.Estado_Anal%C3%ADtico_de_Ingresos_Detallado.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/3ro_Trim/6b.Estado_Anal%C3%ADtico_del_Ejercicio_del_Presupuesto_de_Egresos_Detallado_Clasificaci%C3%B3n_Administrativa.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/3ro_Trim/6c.Estado_Anal%C3%ADtico_del_Ejercicio_del_Presupuesto_de_Egresos_Detallado_Clasificaci%C3%B3n_Funcional_(Finalidad_y_Funci%C3%B3n).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/3ro_Trim/6d.Estado_Anal%C3%ADtico_del_Ejercicio_del_Presupuesto_de_Egresos_Detallado_LDF_Clasificaci%C3%B3n_de_Servicios_Personales_por_Categor%C3%ADa.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/3ro_Trim/7a.Proyecciones_de_Ingresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/3ro_Trim/7b.Proyecciones_de_Egresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/3ro_Trim/7c.Resultados_de_Ingresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/3ro_Trim/7d.Resultados_de_Egresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/4to_Trim/8.Informe_sobre_Estudios_Actuariales.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/4to_Trim/1.Estado_de_Situaci%C3%B3n_Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/4to_Trim/2.Informe_Anal%C3%ADtico_de_la_Deuda_P%C3%BAblica_y_Otros_Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/4to_Trim/3.Informe_Anal%C3%ADtico_de_Obligaciones_Diferentes_de_Financiamientos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/4to_Trim/4.Balance_Presupuestario.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/4to_Trim/5.Estado_Anal%C3%ADtico_de_Ingresos_Detallado.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/4to_Trim/6a.Estado_Anal%C3%ADtico_del_Ejercicio_del_Presupuesto_de_Egresos_Detallado_Clasificaci%C3%B3n_por_Objeto_del_Gasto_(Cap%C3%ADtulo_y_Concepto).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/4to_Trim/6b.Estado_Anal%C3%ADtico_del_Ejercicio_del_Presupuesto_de_Egresos_Detallado_Clasificaci%C3%B3n_Administrativa.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/4to_Trim/6c.Estado_Anal%C3%ADtico_del_Ejercicio_del_Presupuesto_de_Egresos_Detallado_Clasificaci%C3%B3n_Funcional_(Finalidad_y_Funci%C3%B3n).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/4to_Trim/6d.Estado_Anal%C3%ADtico_del_Ejercicio_del_Presupuesto_de_Egresos_Detallado_LDF_Clasificaci%C3%B3n_de_Servicios_Personales_por_Categor%C3%ADa.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/4to_Trim/7a.Proyecciones_de_Ingresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/4to_Trim/7b.Proyecciones_de_Egresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/4to_Trim/7c.Resultados_de_Ingresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/4to_Trim/7d.Resultados_de_Egresos.pdf</t>
   </si>
 </sst>
 </file>
@@ -704,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -724,14 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -743,7 +913,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -778,8 +948,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}" name="Tabla1" displayName="Tabla1" ref="A1:E163" totalsRowShown="0">
-  <autoFilter ref="A1:E163" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}" name="Tabla1" displayName="Tabla1" ref="A1:E219" totalsRowShown="0">
+  <autoFilter ref="A1:E219" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2019"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Disciplina Financiera Tercer Trimestre"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{11D3272D-AD7F-4B41-AF31-4396FEEB1971}" name="AÑO" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{C575CDBE-B8BB-4969-9A92-0BB94A6292A2}" name="SECCION 1" dataDxfId="2"/>
@@ -1054,21 +1235,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="73.7109375" customWidth="1"/>
-    <col min="4" max="4" width="73.140625" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" customWidth="1"/>
+    <col min="3" max="3" width="113.44140625" customWidth="1"/>
+    <col min="4" max="4" width="66.109375" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>2018</v>
       </c>
@@ -1095,14 +1276,14 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2018</v>
       </c>
@@ -1112,14 +1293,14 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2018</v>
       </c>
@@ -1129,14 +1310,14 @@
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2018</v>
       </c>
@@ -1146,14 +1327,14 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2018</v>
       </c>
@@ -1163,14 +1344,14 @@
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2018</v>
       </c>
@@ -1180,14 +1361,14 @@
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>2018</v>
       </c>
@@ -1197,14 +1378,14 @@
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>2018</v>
       </c>
@@ -1214,14 +1395,14 @@
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>2018</v>
       </c>
@@ -1231,14 +1412,14 @@
       <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>2018</v>
       </c>
@@ -1248,14 +1429,14 @@
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>2018</v>
       </c>
@@ -1265,14 +1446,14 @@
       <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>2018</v>
       </c>
@@ -1282,14 +1463,14 @@
       <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>2018</v>
       </c>
@@ -1299,14 +1480,14 @@
       <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>2018</v>
       </c>
@@ -1316,422 +1497,422 @@
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2018</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>158</v>
       </c>
       <c r="E16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2018</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>159</v>
       </c>
       <c r="E17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>2018</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>160</v>
       </c>
       <c r="E18" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>2018</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="8" t="s">
         <v>161</v>
       </c>
       <c r="E19" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>2018</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="8" t="s">
         <v>162</v>
       </c>
       <c r="E20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>2018</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="8" t="s">
         <v>163</v>
       </c>
       <c r="E21" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>2018</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="8" t="s">
         <v>164</v>
       </c>
       <c r="E22" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>2018</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2018</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E24" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>2018</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E25" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>2018</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="8" t="s">
         <v>168</v>
       </c>
       <c r="E26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>2018</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="8" t="s">
         <v>169</v>
       </c>
       <c r="E27" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>2018</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="8" t="s">
         <v>170</v>
       </c>
       <c r="E28" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>2018</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="9" t="s">
         <v>171</v>
       </c>
       <c r="E29" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>2018</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="10" t="s">
         <v>172</v>
       </c>
       <c r="E30" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>2018</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="9" t="s">
         <v>173</v>
       </c>
       <c r="E31" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>2018</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="7" t="s">
         <v>174</v>
       </c>
       <c r="E32" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>2018</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="9" t="s">
         <v>175</v>
       </c>
       <c r="E33" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>2018</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="9" t="s">
         <v>176</v>
       </c>
       <c r="E34" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>2018</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="10" t="s">
         <v>177</v>
       </c>
       <c r="E35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>2018</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E36" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>2018</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="8" t="s">
         <v>179</v>
       </c>
       <c r="E37" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>2018</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E38" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>2018</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="8" t="s">
         <v>181</v>
       </c>
       <c r="E39" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>2018</v>
       </c>
@@ -1743,7 +1924,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>2018</v>
       </c>
@@ -1755,7 +1936,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>2018</v>
       </c>
@@ -1765,11 +1946,11 @@
       <c r="C42" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>2018</v>
       </c>
@@ -1779,11 +1960,11 @@
       <c r="C43" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>2018</v>
       </c>
@@ -1793,11 +1974,11 @@
       <c r="C44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>2018</v>
       </c>
@@ -1807,11 +1988,11 @@
       <c r="C45" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>2018</v>
       </c>
@@ -1821,11 +2002,11 @@
       <c r="C46" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>2018</v>
       </c>
@@ -1835,11 +2016,11 @@
       <c r="C47" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>2018</v>
       </c>
@@ -1849,11 +2030,11 @@
       <c r="C48" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>2018</v>
       </c>
@@ -1863,11 +2044,11 @@
       <c r="C49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>2018</v>
       </c>
@@ -1877,11 +2058,11 @@
       <c r="C50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>2018</v>
       </c>
@@ -1891,11 +2072,11 @@
       <c r="C51" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>2018</v>
       </c>
@@ -1905,11 +2086,11 @@
       <c r="C52" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>2018</v>
       </c>
@@ -1919,11 +2100,11 @@
       <c r="C53" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>2018</v>
       </c>
@@ -1933,11 +2114,11 @@
       <c r="C54" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>2018</v>
       </c>
@@ -1947,11 +2128,11 @@
       <c r="C55" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>2018</v>
       </c>
@@ -1961,11 +2142,11 @@
       <c r="C56" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>2018</v>
       </c>
@@ -1975,11 +2156,11 @@
       <c r="C57" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>2018</v>
       </c>
@@ -1989,11 +2170,11 @@
       <c r="C58" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>2018</v>
       </c>
@@ -2003,11 +2184,11 @@
       <c r="C59" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>2018</v>
       </c>
@@ -2017,131 +2198,131 @@
       <c r="C60" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>2018</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>2018</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>2018</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>2018</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>2018</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>2018</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>2018</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>2018</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D68" s="7"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>2018</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>2018</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D70" s="7"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>2018</v>
       </c>
@@ -2153,7 +2334,7 @@
       </c>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>2018</v>
       </c>
@@ -2165,7 +2346,7 @@
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>2018</v>
       </c>
@@ -2175,11 +2356,11 @@
       <c r="C73" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>2018</v>
       </c>
@@ -2189,11 +2370,11 @@
       <c r="C74" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>2018</v>
       </c>
@@ -2207,7 +2388,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>2018</v>
       </c>
@@ -2221,7 +2402,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>2018</v>
       </c>
@@ -2235,7 +2416,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>2018</v>
       </c>
@@ -2249,7 +2430,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>2018</v>
       </c>
@@ -2263,7 +2444,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>2018</v>
       </c>
@@ -2277,7 +2458,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>2018</v>
       </c>
@@ -2291,7 +2472,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>2018</v>
       </c>
@@ -2305,7 +2486,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>2018</v>
       </c>
@@ -2319,7 +2500,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>2018</v>
       </c>
@@ -2333,7 +2514,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>2018</v>
       </c>
@@ -2347,7 +2528,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>2018</v>
       </c>
@@ -2361,7 +2542,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>2018</v>
       </c>
@@ -2375,7 +2556,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>2018</v>
       </c>
@@ -2389,7 +2570,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>2018</v>
       </c>
@@ -2403,7 +2584,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>2018</v>
       </c>
@@ -2417,7 +2598,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>2018</v>
       </c>
@@ -2431,7 +2612,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>2018</v>
       </c>
@@ -2443,7 +2624,7 @@
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>2018</v>
       </c>
@@ -2455,7 +2636,7 @@
       </c>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>2018</v>
       </c>
@@ -2467,7 +2648,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>2018</v>
       </c>
@@ -2479,7 +2660,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>2018</v>
       </c>
@@ -2491,7 +2672,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>2018</v>
       </c>
@@ -2503,7 +2684,7 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>2018</v>
       </c>
@@ -2515,7 +2696,7 @@
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>2018</v>
       </c>
@@ -2527,7 +2708,7 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>2018</v>
       </c>
@@ -2539,7 +2720,7 @@
       </c>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>2018</v>
       </c>
@@ -2551,7 +2732,7 @@
       </c>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>2018</v>
       </c>
@@ -2563,7 +2744,7 @@
       </c>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>2018</v>
       </c>
@@ -2575,7 +2756,7 @@
       </c>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>2018</v>
       </c>
@@ -2589,7 +2770,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>2018</v>
       </c>
@@ -2603,7 +2784,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>2018</v>
       </c>
@@ -2617,7 +2798,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>2018</v>
       </c>
@@ -2631,7 +2812,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>2018</v>
       </c>
@@ -2645,7 +2826,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>2018</v>
       </c>
@@ -2659,7 +2840,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>2018</v>
       </c>
@@ -2673,7 +2854,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>2018</v>
       </c>
@@ -2687,7 +2868,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>2018</v>
       </c>
@@ -2701,7 +2882,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>2018</v>
       </c>
@@ -2715,7 +2896,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>2018</v>
       </c>
@@ -2729,7 +2910,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>2018</v>
       </c>
@@ -2743,7 +2924,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>2018</v>
       </c>
@@ -2757,7 +2938,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>2018</v>
       </c>
@@ -2771,7 +2952,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>2018</v>
       </c>
@@ -2785,7 +2966,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>2018</v>
       </c>
@@ -2799,7 +2980,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>2018</v>
       </c>
@@ -2813,7 +2994,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>2018</v>
       </c>
@@ -2827,7 +3008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>2018</v>
       </c>
@@ -2841,7 +3022,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>2018</v>
       </c>
@@ -2853,7 +3034,7 @@
       </c>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>2018</v>
       </c>
@@ -2865,7 +3046,7 @@
       </c>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>2018</v>
       </c>
@@ -2877,7 +3058,7 @@
       </c>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>2018</v>
       </c>
@@ -2889,7 +3070,7 @@
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>2018</v>
       </c>
@@ -2901,7 +3082,7 @@
       </c>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>2018</v>
       </c>
@@ -2913,7 +3094,7 @@
       </c>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>2018</v>
       </c>
@@ -2925,7 +3106,7 @@
       </c>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>2018</v>
       </c>
@@ -2937,7 +3118,7 @@
       </c>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>2018</v>
       </c>
@@ -2949,7 +3130,7 @@
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>2018</v>
       </c>
@@ -2961,7 +3142,7 @@
       </c>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>2018</v>
       </c>
@@ -2973,7 +3154,7 @@
       </c>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>2018</v>
       </c>
@@ -2985,7 +3166,7 @@
       </c>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>2018</v>
       </c>
@@ -2999,7 +3180,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>2018</v>
       </c>
@@ -3013,7 +3194,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>2018</v>
       </c>
@@ -3027,7 +3208,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>2018</v>
       </c>
@@ -3041,7 +3222,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>2018</v>
       </c>
@@ -3055,7 +3236,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>2018</v>
       </c>
@@ -3069,7 +3250,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>2018</v>
       </c>
@@ -3083,7 +3264,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>2018</v>
       </c>
@@ -3097,7 +3278,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>2018</v>
       </c>
@@ -3111,7 +3292,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>2018</v>
       </c>
@@ -3125,7 +3306,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>2018</v>
       </c>
@@ -3139,7 +3320,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>2018</v>
       </c>
@@ -3153,7 +3334,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>2018</v>
       </c>
@@ -3167,7 +3348,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>2018</v>
       </c>
@@ -3181,7 +3362,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>2018</v>
       </c>
@@ -3195,7 +3376,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>2018</v>
       </c>
@@ -3209,7 +3390,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>2018</v>
       </c>
@@ -3223,7 +3404,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>2018</v>
       </c>
@@ -3237,7 +3418,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>2018</v>
       </c>
@@ -3251,7 +3432,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>2018</v>
       </c>
@@ -3263,7 +3444,7 @@
       </c>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>2018</v>
       </c>
@@ -3275,7 +3456,7 @@
       </c>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>2018</v>
       </c>
@@ -3287,7 +3468,7 @@
       </c>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>2018</v>
       </c>
@@ -3299,7 +3480,7 @@
       </c>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>2018</v>
       </c>
@@ -3311,7 +3492,7 @@
       </c>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>2018</v>
       </c>
@@ -3323,7 +3504,7 @@
       </c>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
         <v>2018</v>
       </c>
@@ -3335,7 +3516,7 @@
       </c>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>2018</v>
       </c>
@@ -3347,7 +3528,7 @@
       </c>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
         <v>2018</v>
       </c>
@@ -3359,7 +3540,7 @@
       </c>
       <c r="D162" s="2"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>2018</v>
       </c>
@@ -3370,6 +3551,790 @@
         <v>202</v>
       </c>
       <c r="D163" s="2"/>
+    </row>
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3388,12 +4353,12 @@
       <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>2018</v>
       </c>
@@ -3404,7 +4369,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -3415,7 +4380,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -3426,7 +4391,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -3437,7 +4402,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -3448,7 +4413,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -3459,7 +4424,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -3470,7 +4435,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -3481,7 +4446,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -3492,7 +4457,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2018</v>
       </c>

--- a/Municipio Reyes de Juarez/Paginas.xlsx
+++ b/Municipio Reyes de Juarez/Paginas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\GitHub\templates\Municipio Reyes de Juarez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IPPI 11\Documents\templates\Municipio Reyes de Juarez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5CD0FA-97CF-4175-807A-C4A45F82457E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E13160-55A9-41C7-81C3-68EE00A1C04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2016" yWindow="1344" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11505" yWindow="2325" windowWidth="7860" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONAC" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="365">
   <si>
     <t>AÑO</t>
   </si>
@@ -818,6 +821,309 @@
   </si>
   <si>
     <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/LDF/2019/4to_Trim/7d.Resultados_de_Egresos.pdf</t>
+  </si>
+  <si>
+    <t>Cuenta Pública 2018</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/1._Inventario_de_Bienes_Muebles.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/2._Inventario_de_Bienes_Inmuebles.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/3._Estado_de_Situacion_Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/4._Estado_de_Actividades.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/5._Estado_de_Variacion_en_la_Hacienda_Publica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/6._Estado_de_Cambios_en_la_Situacion_Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/7._Notas_a_los_Estados_Financieros.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/8._Estado_de_Flujos_de_Efectivo.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/9._Estado_Analitico_del_Activo.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/10._Estado_Analitico_de_la_Deuda_y_Otros_Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/11._Informe_Sobre_Pasivos_Contingentes.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/12._Estado_Analitico_de_Ingresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/13._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Administrativa).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/14._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Economica).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/15._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Por_Objeto_del_Gasto).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/16._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Funcional).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/17._Endeudamiento_Neto.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/18._Intereses_de_la_Deuda.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/19._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Categoria_Programatica).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/20._Indicadores_de_Resultados.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/21._Programas_y_Proyectos_de_Inversion.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/22._Indicadores_de_Postura_Fiscal.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/24._Relacion_de_Esquemas_Bursatiles_y_de_Coberturas_Financieras.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2018/Cuenta_Publica/23._Relacion_de_cuentas_bancarias_productivas.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/3.%20Estado%20de%20Situacion%20Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/3.1%20Estado%20de%20Actividades.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/4.%20Estado%20de%20Variacion%20en%20la%20Hacienda%20Publica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/5.%20Estado%20de%20Cambios%20en%20la%20Situacion%20Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/6.%20Notas%20a%20los%20Estados%20Financieros.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/6.1%20Estado%20de%20Flujos%20de%20Efectivo.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/7.%20Estado%20Analitico%20De%20Activos%20Y%20Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/7.1%20Estado%20Analitico%20de%20la%20Deuda%20y%20Otros%20Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/7.2%20Informe%20Sobre%20Pasivos%20Contingentes.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/8.%20Estado%20Analitico%20de%20Ingresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/9.%20Estado%20Analitico%20del%20Ejercicio%20del%20Presupuesto%20de%20Egresos%20Administrativa.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/10.%20Estado%20Analitico%20del%20Ejercicio%20del%20Presupuesto%20de%20Egresos%20Economica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/11.%20Estado%20Analitico%20del%20Ejercicio%20del%20Presupuesto%20de%20Egresos%20Por%20Objeto%20del%20Gasto.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/12.%20Estado%20Analitico%20del%20Ejercicio%20del%20Presupuesto%20de%20Egresos%20Funcional.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/12.1%20Endeudamiento%20Neto.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/12.2%20Intereses%20de%20la%20Deuda.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/13.%20Gasto%20por%20Categoria%20Programatica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/13.1%20Indicadores%20de%20Resultados.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Marzo/13.2%20Programas%20y%20Proyectos%20de%20Inversion.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/3.%20Estado%20de%20Situacion%20Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/3.1%20Estado%20de%20Actividades.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/4.%20Estado%20de%20Variacion%20en%20la%20Hacienda%20Publica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/5.%20Estado%20de%20Cambios%20en%20la%20Situacion%20Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/6.%20Notas%20a%20los%20Estados%20Financieros.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/6.1%20Estado%20de%20Flujos%20de%20Efectivo.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/7.%20Estado%20Analitico%20De%20Activos%20Y%20Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/7.1%20Estado%20Analitico%20de%20la%20Deuda%20y%20Otros%20Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/7.2%20Informe%20Sobre%20Pasivos%20Contingentes.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/8.%20Estado%20Analitico%20de%20Ingresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/9.%20Estado%20Analitico%20del%20Ejercicio%20del%20Presupuesto%20de%20Egresos%20Administrativa.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/10.%20Estado%20Analitico%20del%20Ejercicio%20del%20Presupuesto%20de%20Egresos%20Economica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/11.%20Estado%20Analitico%20del%20Ejercicio%20del%20Presupuesto%20de%20Egresos%20Por%20Objeto%20del%20Gasto.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/12.%20Estado%20Analitico%20del%20Ejercicio%20del%20Presupuesto%20de%20Egresos%20Funcional.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/12.1%20Endeudamiento%20Neto.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/12.2%20Intereses%20de%20la%20Deuda.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/13.%20Gasto%20por%20Categoria%20Programatica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/13.1%20Indicadores%20de%20Resultados.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Junio/13.2%20Programas%20y%20Proyectos%20de%20Inversion.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/3.%20Estado%20de%20Situacion%20Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/3.1%20Estado%20de%20Actividades.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/4.%20Estado%20de%20Variacion%20en%20la%20Hacienda%20Publica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/5.%20Estado%20de%20Cambios%20en%20la%20Situacion%20Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/6.%20Notas%20a%20los%20Estados%20Financieros.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/6.1%20Estado%20de%20Flujos%20de%20Efectivo.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/7.%20Estado%20Analitico%20De%20Activos%20Y%20Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/7.1%20Estado%20Analitico%20de%20la%20Deuda%20y%20Otros%20Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/7.2%20Informe%20Sobre%20Pasivos%20Contingentes.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/8.%20Estado%20Analitico%20de%20Ingresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/9.%20Estado%20Analitico%20del%20Ejercicio%20del%20Presupuesto%20de%20Egresos%20Administrativa.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/10.%20Estado%20Analitico%20del%20Ejercicio%20del%20Presupuesto%20de%20Egresos%20Economica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/11.%20Estado%20Analitico%20del%20Ejercicio%20del%20Presupuesto%20de%20Egresos%20Por%20Objeto%20del%20Gasto.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/12.%20Estado%20Analitico%20del%20Ejercicio%20del%20Presupuesto%20de%20Egresos%20Funcional.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/12.1%20Endeudamiento%20Neto.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/12.2%20Intereses%20de%20la%20Deuda.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/13.%20Gasto%20por%20Categoria%20Programatica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/13.1%20Indicadores%20de%20Resultados.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Septiembre/13.2%20Programas%20y%20Proyectos%20de%20Inversion.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/3.%20Estado%20de%20Situacion%20Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/3.1%20Estado%20de%20Actividades.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/4.%20Estado%20de%20Variacion%20en%20la%20Hacienda%20Publica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/5.%20Estado%20de%20Cambios%20en%20la%20Situacion%20Financiera.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/6.%20Notas%20a%20los%20Estados%20Financieros.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/6.1%20Estado%20de%20Flujos%20de%20Efectivo.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/7.%20Estado%20Analitico%20De%20Activos%20Y%20Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/7.1%20Estado%20Analitico%20de%20la%20Deuda%20y%20Otros%20Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/7.2%20Informe%20Sobre%20Pasivos%20Contingentes.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/8.%20Estado%20Analitico%20de%20Ingresos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/9.%20Estado%20Analitico%20del%20Ejercicio%20del%20Presupuesto%20de%20Egresos%20Administrativa.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/10.%20Estado%20Analitico%20del%20Ejercicio%20del%20Presupuesto%20de%20Egresos%20Economica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/11.%20Estado%20Analitico%20del%20Ejercicio%20del%20Presupuesto%20de%20Egresos%20Por%20Objeto%20del%20Gasto.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/12.%20Estado%20Analitico%20del%20Ejercicio%20del%20Presupuesto%20de%20Egresos%20Funcional.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/12.1%20Endeudamiento%20Neto.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/12.2%20Intereses%20de%20la%20Deuda.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/13.%20Gasto%20por%20Categoria%20Programatica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/13.1%20Indicadores%20de%20Resultados.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2019/Diciembre/13.2%20Programas%20y%20Proyectos%20de%20Inversion.pdf</t>
   </si>
 </sst>
 </file>
@@ -881,7 +1187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -916,6 +1222,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -948,8 +1257,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}" name="Tabla1" displayName="Tabla1" ref="A1:E219" totalsRowShown="0">
-  <autoFilter ref="A1:E219" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}" name="Tabla1" displayName="Tabla1" ref="A1:E367" totalsRowShown="0">
+  <autoFilter ref="A1:E367" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2019"/>
@@ -957,7 +1266,7 @@
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="Disciplina Financiera Tercer Trimestre"/>
+        <filter val="Información Financiera Primer Trimestre"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1235,21 +1544,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E219"/>
+  <dimension ref="A1:E367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+      <selection activeCell="B371" sqref="B371"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="113.44140625" customWidth="1"/>
-    <col min="4" max="4" width="66.109375" customWidth="1"/>
-    <col min="5" max="5" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="113.42578125" customWidth="1"/>
+    <col min="4" max="4" width="69.140625" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2018</v>
       </c>
@@ -1283,7 +1592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2018</v>
       </c>
@@ -1300,7 +1609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2018</v>
       </c>
@@ -1317,7 +1626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2018</v>
       </c>
@@ -1334,7 +1643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2018</v>
       </c>
@@ -1351,7 +1660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2018</v>
       </c>
@@ -1368,7 +1677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2018</v>
       </c>
@@ -1385,7 +1694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2018</v>
       </c>
@@ -1402,7 +1711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2018</v>
       </c>
@@ -1419,7 +1728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2018</v>
       </c>
@@ -1436,7 +1745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2018</v>
       </c>
@@ -1453,7 +1762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2018</v>
       </c>
@@ -1470,7 +1779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2018</v>
       </c>
@@ -1487,7 +1796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2018</v>
       </c>
@@ -1504,7 +1813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2018</v>
       </c>
@@ -1521,7 +1830,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2018</v>
       </c>
@@ -1538,7 +1847,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2018</v>
       </c>
@@ -1555,7 +1864,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2018</v>
       </c>
@@ -1572,7 +1881,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2018</v>
       </c>
@@ -1589,7 +1898,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2018</v>
       </c>
@@ -1606,7 +1915,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2018</v>
       </c>
@@ -1623,7 +1932,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2018</v>
       </c>
@@ -1640,7 +1949,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2018</v>
       </c>
@@ -1657,7 +1966,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2018</v>
       </c>
@@ -1674,7 +1983,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2018</v>
       </c>
@@ -1691,7 +2000,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>2018</v>
       </c>
@@ -1708,7 +2017,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2018</v>
       </c>
@@ -1725,7 +2034,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>2018</v>
       </c>
@@ -1742,7 +2051,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>2018</v>
       </c>
@@ -1759,7 +2068,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>2018</v>
       </c>
@@ -1776,7 +2085,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>2018</v>
       </c>
@@ -1793,7 +2102,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>2018</v>
       </c>
@@ -1810,7 +2119,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>2018</v>
       </c>
@@ -1827,7 +2136,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>2018</v>
       </c>
@@ -1844,7 +2153,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>2018</v>
       </c>
@@ -1861,7 +2170,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>2018</v>
       </c>
@@ -1878,7 +2187,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2018</v>
       </c>
@@ -1895,7 +2204,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2018</v>
       </c>
@@ -1912,7 +2221,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2018</v>
       </c>
@@ -1924,7 +2233,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>2018</v>
       </c>
@@ -1936,7 +2245,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>2018</v>
       </c>
@@ -1950,7 +2259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>2018</v>
       </c>
@@ -1964,7 +2273,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>2018</v>
       </c>
@@ -1978,7 +2287,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>2018</v>
       </c>
@@ -1992,7 +2301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>2018</v>
       </c>
@@ -2006,7 +2315,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>2018</v>
       </c>
@@ -2020,7 +2329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>2018</v>
       </c>
@@ -2034,7 +2343,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>2018</v>
       </c>
@@ -2048,7 +2357,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>2018</v>
       </c>
@@ -2062,7 +2371,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>2018</v>
       </c>
@@ -2076,7 +2385,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>2018</v>
       </c>
@@ -2090,7 +2399,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>2018</v>
       </c>
@@ -2104,7 +2413,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>2018</v>
       </c>
@@ -2118,7 +2427,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>2018</v>
       </c>
@@ -2132,7 +2441,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>2018</v>
       </c>
@@ -2146,7 +2455,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>2018</v>
       </c>
@@ -2160,7 +2469,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>2018</v>
       </c>
@@ -2174,7 +2483,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>2018</v>
       </c>
@@ -2188,7 +2497,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>2018</v>
       </c>
@@ -2202,7 +2511,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>2018</v>
       </c>
@@ -2214,7 +2523,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>2018</v>
       </c>
@@ -2226,7 +2535,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>2018</v>
       </c>
@@ -2238,7 +2547,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>2018</v>
       </c>
@@ -2250,7 +2559,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>2018</v>
       </c>
@@ -2262,7 +2571,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>2018</v>
       </c>
@@ -2274,7 +2583,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>2018</v>
       </c>
@@ -2286,7 +2595,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>2018</v>
       </c>
@@ -2298,7 +2607,7 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>2018</v>
       </c>
@@ -2310,7 +2619,7 @@
       </c>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>2018</v>
       </c>
@@ -2322,7 +2631,7 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>2018</v>
       </c>
@@ -2334,7 +2643,7 @@
       </c>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>2018</v>
       </c>
@@ -2346,7 +2655,7 @@
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>2018</v>
       </c>
@@ -2360,7 +2669,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>2018</v>
       </c>
@@ -2374,7 +2683,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>2018</v>
       </c>
@@ -2388,7 +2697,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>2018</v>
       </c>
@@ -2402,7 +2711,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>2018</v>
       </c>
@@ -2416,7 +2725,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>2018</v>
       </c>
@@ -2430,7 +2739,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>2018</v>
       </c>
@@ -2444,7 +2753,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>2018</v>
       </c>
@@ -2458,7 +2767,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>2018</v>
       </c>
@@ -2472,7 +2781,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>2018</v>
       </c>
@@ -2486,7 +2795,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>2018</v>
       </c>
@@ -2500,7 +2809,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>2018</v>
       </c>
@@ -2514,7 +2823,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>2018</v>
       </c>
@@ -2528,7 +2837,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>2018</v>
       </c>
@@ -2542,7 +2851,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>2018</v>
       </c>
@@ -2556,7 +2865,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>2018</v>
       </c>
@@ -2570,7 +2879,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>2018</v>
       </c>
@@ -2584,7 +2893,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>2018</v>
       </c>
@@ -2598,7 +2907,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>2018</v>
       </c>
@@ -2612,7 +2921,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>2018</v>
       </c>
@@ -2624,7 +2933,7 @@
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>2018</v>
       </c>
@@ -2636,7 +2945,7 @@
       </c>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>2018</v>
       </c>
@@ -2648,7 +2957,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>2018</v>
       </c>
@@ -2660,7 +2969,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>2018</v>
       </c>
@@ -2672,7 +2981,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>2018</v>
       </c>
@@ -2684,7 +2993,7 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>2018</v>
       </c>
@@ -2696,7 +3005,7 @@
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>2018</v>
       </c>
@@ -2708,7 +3017,7 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>2018</v>
       </c>
@@ -2720,7 +3029,7 @@
       </c>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>2018</v>
       </c>
@@ -2732,7 +3041,7 @@
       </c>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>2018</v>
       </c>
@@ -2744,7 +3053,7 @@
       </c>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>2018</v>
       </c>
@@ -2756,7 +3065,7 @@
       </c>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>2018</v>
       </c>
@@ -2770,7 +3079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>2018</v>
       </c>
@@ -2784,7 +3093,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>2018</v>
       </c>
@@ -2798,7 +3107,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>2018</v>
       </c>
@@ -2812,7 +3121,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>2018</v>
       </c>
@@ -2826,7 +3135,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>2018</v>
       </c>
@@ -2840,7 +3149,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>2018</v>
       </c>
@@ -2854,7 +3163,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>2018</v>
       </c>
@@ -2868,7 +3177,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>2018</v>
       </c>
@@ -2882,7 +3191,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>2018</v>
       </c>
@@ -2896,7 +3205,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>2018</v>
       </c>
@@ -2910,7 +3219,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>2018</v>
       </c>
@@ -2924,7 +3233,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>2018</v>
       </c>
@@ -2938,7 +3247,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>2018</v>
       </c>
@@ -2952,7 +3261,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>2018</v>
       </c>
@@ -2966,7 +3275,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>2018</v>
       </c>
@@ -2980,7 +3289,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>2018</v>
       </c>
@@ -2994,7 +3303,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>2018</v>
       </c>
@@ -3008,7 +3317,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>2018</v>
       </c>
@@ -3022,7 +3331,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>2018</v>
       </c>
@@ -3034,7 +3343,7 @@
       </c>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>2018</v>
       </c>
@@ -3046,7 +3355,7 @@
       </c>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>2018</v>
       </c>
@@ -3058,7 +3367,7 @@
       </c>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>2018</v>
       </c>
@@ -3070,7 +3379,7 @@
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>2018</v>
       </c>
@@ -3082,7 +3391,7 @@
       </c>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>2018</v>
       </c>
@@ -3094,7 +3403,7 @@
       </c>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>2018</v>
       </c>
@@ -3106,7 +3415,7 @@
       </c>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>2018</v>
       </c>
@@ -3118,7 +3427,7 @@
       </c>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>2018</v>
       </c>
@@ -3130,7 +3439,7 @@
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>2018</v>
       </c>
@@ -3142,7 +3451,7 @@
       </c>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>2018</v>
       </c>
@@ -3154,7 +3463,7 @@
       </c>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>2018</v>
       </c>
@@ -3166,7 +3475,7 @@
       </c>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>2018</v>
       </c>
@@ -3180,7 +3489,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>2018</v>
       </c>
@@ -3194,7 +3503,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>2018</v>
       </c>
@@ -3208,7 +3517,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>2018</v>
       </c>
@@ -3222,7 +3531,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>2018</v>
       </c>
@@ -3236,7 +3545,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>2018</v>
       </c>
@@ -3250,7 +3559,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>2018</v>
       </c>
@@ -3264,7 +3573,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>2018</v>
       </c>
@@ -3278,7 +3587,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>2018</v>
       </c>
@@ -3292,7 +3601,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>2018</v>
       </c>
@@ -3306,7 +3615,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>2018</v>
       </c>
@@ -3320,7 +3629,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>2018</v>
       </c>
@@ -3334,7 +3643,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>2018</v>
       </c>
@@ -3348,7 +3657,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>2018</v>
       </c>
@@ -3362,7 +3671,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>2018</v>
       </c>
@@ -3376,7 +3685,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>2018</v>
       </c>
@@ -3390,7 +3699,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>2018</v>
       </c>
@@ -3404,7 +3713,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>2018</v>
       </c>
@@ -3418,7 +3727,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>2018</v>
       </c>
@@ -3432,7 +3741,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>2018</v>
       </c>
@@ -3444,7 +3753,7 @@
       </c>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>2018</v>
       </c>
@@ -3456,7 +3765,7 @@
       </c>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>2018</v>
       </c>
@@ -3468,7 +3777,7 @@
       </c>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>2018</v>
       </c>
@@ -3480,7 +3789,7 @@
       </c>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>2018</v>
       </c>
@@ -3492,7 +3801,7 @@
       </c>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>2018</v>
       </c>
@@ -3504,7 +3813,7 @@
       </c>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>2018</v>
       </c>
@@ -3516,7 +3825,7 @@
       </c>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>2018</v>
       </c>
@@ -3528,7 +3837,7 @@
       </c>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>2018</v>
       </c>
@@ -3540,7 +3849,7 @@
       </c>
       <c r="D162" s="2"/>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>2018</v>
       </c>
@@ -3552,7 +3861,7 @@
       </c>
       <c r="D163" s="2"/>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>2019</v>
       </c>
@@ -3566,7 +3875,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>2019</v>
       </c>
@@ -3580,7 +3889,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>2019</v>
       </c>
@@ -3594,7 +3903,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>2019</v>
       </c>
@@ -3608,7 +3917,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>2019</v>
       </c>
@@ -3622,7 +3931,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>2019</v>
       </c>
@@ -3636,7 +3945,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>2019</v>
       </c>
@@ -3650,7 +3959,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>2019</v>
       </c>
@@ -3664,7 +3973,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>2019</v>
       </c>
@@ -3678,7 +3987,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>2019</v>
       </c>
@@ -3692,7 +4001,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>2019</v>
       </c>
@@ -3706,7 +4015,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>2019</v>
       </c>
@@ -3720,7 +4029,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>2019</v>
       </c>
@@ -3734,7 +4043,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>2019</v>
       </c>
@@ -3748,7 +4057,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>2019</v>
       </c>
@@ -3762,7 +4071,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>2019</v>
       </c>
@@ -3776,7 +4085,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>2019</v>
       </c>
@@ -3790,7 +4099,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>2019</v>
       </c>
@@ -3804,7 +4113,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>2019</v>
       </c>
@@ -3818,7 +4127,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>2019</v>
       </c>
@@ -3832,7 +4141,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>2019</v>
       </c>
@@ -3846,7 +4155,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>2019</v>
       </c>
@@ -3860,7 +4169,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>2019</v>
       </c>
@@ -3874,7 +4183,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>2019</v>
       </c>
@@ -3888,7 +4197,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>2019</v>
       </c>
@@ -3902,7 +4211,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>2019</v>
       </c>
@@ -3916,7 +4225,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>2019</v>
       </c>
@@ -3930,7 +4239,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>2019</v>
       </c>
@@ -3944,8 +4253,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="3">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="5">
         <v>2019</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -3958,8 +4267,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="5">
         <v>2019</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -3972,8 +4281,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="3">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="5">
         <v>2019</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -3986,8 +4295,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="3">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="5">
         <v>2019</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -4000,8 +4309,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="3">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="5">
         <v>2019</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -4014,8 +4323,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="3">
+    <row r="197" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="5">
         <v>2019</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -4028,8 +4337,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="3">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="5">
         <v>2019</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -4042,8 +4351,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="3">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="5">
         <v>2019</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -4056,8 +4365,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="3">
+    <row r="200" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="5">
         <v>2019</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -4070,8 +4379,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="3">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="5">
         <v>2019</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -4084,8 +4393,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="3">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="5">
         <v>2019</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -4098,8 +4407,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="3">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="5">
         <v>2019</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -4112,8 +4421,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="3">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="5">
         <v>2019</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -4126,8 +4435,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="3">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="5">
         <v>2019</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -4140,8 +4449,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="3">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="5">
         <v>2019</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -4154,8 +4463,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="3">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="5">
         <v>2019</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -4168,8 +4477,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="3">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="5">
         <v>2019</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -4182,8 +4491,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="3">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="5">
         <v>2019</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -4196,8 +4505,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="3">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="5">
         <v>2019</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -4210,8 +4519,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="3">
+    <row r="211" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="5">
         <v>2019</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -4224,8 +4533,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="3">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="5">
         <v>2019</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -4238,8 +4547,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="3">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="5">
         <v>2019</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -4252,8 +4561,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="3">
+    <row r="214" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="5">
         <v>2019</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -4266,8 +4575,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="3">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="5">
         <v>2019</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -4280,8 +4589,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="3">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="5">
         <v>2019</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -4294,8 +4603,8 @@
         <v>261</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="3">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="5">
         <v>2019</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -4308,8 +4617,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="3">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="5">
         <v>2019</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -4322,8 +4631,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="3">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="5">
         <v>2019</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -4335,6 +4644,1742 @@
       <c r="D219" s="6" t="s">
         <v>250</v>
       </c>
+    </row>
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D244" s="2"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D245" s="2"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="14"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="2"/>
+    </row>
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="14"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="2"/>
+    </row>
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="14"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="2"/>
+    </row>
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="14"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="2"/>
+    </row>
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="14"/>
+      <c r="B269" s="2"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="2"/>
+    </row>
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="14"/>
+      <c r="B270" s="2"/>
+      <c r="C270" s="4"/>
+      <c r="D270" s="2"/>
+    </row>
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="14"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="2"/>
+    </row>
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="14"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="2"/>
+    </row>
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="14"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="2"/>
+    </row>
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="14"/>
+      <c r="B274" s="2"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="2"/>
+    </row>
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D275" s="2"/>
+    </row>
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D276" s="2"/>
+    </row>
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="14"/>
+      <c r="B296" s="2"/>
+      <c r="C296" s="4"/>
+      <c r="D296" s="2"/>
+    </row>
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="14"/>
+      <c r="B297" s="2"/>
+      <c r="C297" s="4"/>
+      <c r="D297" s="2"/>
+    </row>
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="14"/>
+      <c r="B298" s="2"/>
+      <c r="C298" s="4"/>
+      <c r="D298" s="2"/>
+    </row>
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="14"/>
+      <c r="B299" s="2"/>
+      <c r="C299" s="4"/>
+      <c r="D299" s="2"/>
+    </row>
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="14"/>
+      <c r="B300" s="2"/>
+      <c r="C300" s="4"/>
+      <c r="D300" s="2"/>
+    </row>
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="14"/>
+      <c r="B301" s="2"/>
+      <c r="C301" s="4"/>
+      <c r="D301" s="2"/>
+    </row>
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="14"/>
+      <c r="B302" s="2"/>
+      <c r="C302" s="4"/>
+      <c r="D302" s="2"/>
+    </row>
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="14"/>
+      <c r="B303" s="2"/>
+      <c r="C303" s="4"/>
+      <c r="D303" s="2"/>
+    </row>
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="14"/>
+      <c r="B304" s="2"/>
+      <c r="C304" s="4"/>
+      <c r="D304" s="2"/>
+    </row>
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="14"/>
+      <c r="B305" s="2"/>
+      <c r="C305" s="4"/>
+      <c r="D305" s="2"/>
+    </row>
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D306" s="2"/>
+    </row>
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D307" s="2"/>
+    </row>
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="14"/>
+      <c r="B327" s="2"/>
+      <c r="C327" s="4"/>
+      <c r="D327" s="2"/>
+    </row>
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="14"/>
+      <c r="B328" s="2"/>
+      <c r="C328" s="4"/>
+      <c r="D328" s="2"/>
+    </row>
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="14"/>
+      <c r="B329" s="2"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="2"/>
+    </row>
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="14"/>
+      <c r="B330" s="2"/>
+      <c r="C330" s="4"/>
+      <c r="D330" s="2"/>
+    </row>
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="14"/>
+      <c r="B331" s="2"/>
+      <c r="C331" s="4"/>
+      <c r="D331" s="2"/>
+    </row>
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="14"/>
+      <c r="B332" s="2"/>
+      <c r="C332" s="4"/>
+      <c r="D332" s="2"/>
+    </row>
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="14"/>
+      <c r="B333" s="2"/>
+      <c r="C333" s="4"/>
+      <c r="D333" s="2"/>
+    </row>
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="14"/>
+      <c r="B334" s="2"/>
+      <c r="C334" s="4"/>
+      <c r="D334" s="2"/>
+    </row>
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="14"/>
+      <c r="B335" s="2"/>
+      <c r="C335" s="4"/>
+      <c r="D335" s="2"/>
+    </row>
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="14"/>
+      <c r="B336" s="2"/>
+      <c r="C336" s="4"/>
+      <c r="D336" s="2"/>
+    </row>
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D337" s="2"/>
+    </row>
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D338" s="2"/>
+    </row>
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="14"/>
+      <c r="B358" s="2"/>
+      <c r="C358" s="4"/>
+      <c r="D358" s="2"/>
+    </row>
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="14"/>
+      <c r="B359" s="2"/>
+      <c r="C359" s="4"/>
+      <c r="D359" s="2"/>
+    </row>
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="14"/>
+      <c r="B360" s="2"/>
+      <c r="C360" s="4"/>
+      <c r="D360" s="2"/>
+    </row>
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="14"/>
+      <c r="B361" s="2"/>
+      <c r="C361" s="4"/>
+      <c r="D361" s="2"/>
+    </row>
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="14"/>
+      <c r="B362" s="2"/>
+      <c r="C362" s="4"/>
+      <c r="D362" s="2"/>
+    </row>
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="14"/>
+      <c r="B363" s="2"/>
+      <c r="C363" s="4"/>
+      <c r="D363" s="2"/>
+    </row>
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="14"/>
+      <c r="B364" s="2"/>
+      <c r="C364" s="4"/>
+      <c r="D364" s="2"/>
+    </row>
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="14"/>
+      <c r="B365" s="2"/>
+      <c r="C365" s="4"/>
+      <c r="D365" s="2"/>
+    </row>
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="14"/>
+      <c r="B366" s="2"/>
+      <c r="C366" s="4"/>
+      <c r="D366" s="2"/>
+    </row>
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="14"/>
+      <c r="B367" s="2"/>
+      <c r="C367" s="4"/>
+      <c r="D367" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4353,12 +6398,12 @@
       <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2018</v>
       </c>
@@ -4369,7 +6414,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -4380,7 +6425,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -4391,7 +6436,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -4402,7 +6447,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -4413,7 +6458,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -4424,7 +6469,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -4435,7 +6480,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -4446,7 +6491,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -4457,7 +6502,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>

--- a/Municipio Reyes de Juarez/Paginas.xlsx
+++ b/Municipio Reyes de Juarez/Paginas.xlsx
@@ -5,21 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\contenido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41E09C6-7AAD-4C25-914D-3A8B2916B194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDC5006-576C-416F-8C82-1EE0E0708357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="3930" windowWidth="21225" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33870" yWindow="1065" windowWidth="21225" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONAC" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -29,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="926">
   <si>
     <t>AÑO</t>
   </si>
@@ -2285,6 +2295,528 @@
   </si>
   <si>
     <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/04/PROGRAMAS-Y-PROYECTOS-DE-INVERSION-AL-31-DE-MAR.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-DE-SITUACION-FINANICERA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-DE-ACTIVIDADES.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-DE-VARIACION-EN-LA-HACIENDA-PUBLICA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-DE-CAMBIOS-EN-LA-SITUACION-FINANCIERA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/NOTAS-A-LOS-ESTADOS-FINANCIEROS.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-DE-FLUJOS-DE-EFECTIVO.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-ANALITICO-DEL-ACTIVO.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-ANALITICO-DE-LA-DEUDA-Y-OTROS-PASIVOS.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/INFORME-SOBRE-PASIVOS-CONTINGENTES.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-ANALITICO-DE-INGRESOS.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS_ADMINISTRATIVA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS_ECONOMICA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS_OBJETO-DEL-GASTO.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS_FUNCIONAL.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ENDEUDAMIENTO-NETO.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/INTERESES-DE-LA-DEUDA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/GASTO-POR-CATEGORIA-PROGRAMATICA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/INDICADORES-DE-RESULTADOS.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/PROGRAMAS-Y-PROYECTOS-DE-INVERSION.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/Mayo/13.2_Programas_y_Proyectos_de_Inversion.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-DE-SITUACION-FINANCIERA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-DE-ACTIVIDADES-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-DE-VARIACION-EN-LA-HACIENDA-PUBLICA-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-DE-CAMBIOS-EN-LA-SITUACION-FINANCIERA-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/NOTAS-A-LOS-ESTADOS-FINANCIEROS-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-DE-FLUJOS-DE-EFECTIVO-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-ANALITICO-DEL-ACTIVO-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-ANALITICO-DE-LA-DEUDA-Y-OTROS-PASIVOS-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/INFORME-SOBRE-PASIVOS-CONTINGENTES-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-ANALITICO-DE-INGRESOS-2.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS_ADMINISTRATIVA-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS_ECONOMICA-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS_OBJETO-DEL-GASTO-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS_FUNCIONAL-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/ENDEUDAMIENTO-NETO-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/INTERESES-DE-LA-DEUDA-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/GASTO-POR-CATEGORIA-PROGRAMATICA-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/07/INDICADORES-DE-RESULTADOS-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-DE-SITUACION-FIANCIERA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-DE-ACTIVIDADES.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-DE-VARIACION-EN-LA-HACIENDA-PUBLICA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-DE-CAMBIOS-EN-LA-SITUACION-FINANCIERA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/NOTAS-A-LOS-ESTADOS-FINANCIEROS-JULIO2025.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-DEE-FLUJO-DE-EFECTIVO.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-ANALITICO-DEL-ACTIVO.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/Julio/7.1_Estado_Analitico_de_la_Deuda_y_Otros_Pasivos.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/INFORME-SOBRE-PASIVOS-CONTIGENTES.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS-CLASIFICACION-ADMINISTRATIVA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/Julio/10._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Economica).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS-CLASIFICACION-POR-OBJETO-DEL-GASTO-CAPITULO-Y-CONCEPTO.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-ANALITICO-DE-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS-CLASIFICACION-FUNCIONAL-FINALIDAD-Y-FUNCION.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/Julio/12.1_Endeudamiento_Neto.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/INTERES-DE-DEUDA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/Julio/13._Gasto_por_Categoria_Programatica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/PROGRAMAS-Y-PROYECTOS-DE-INVERSION.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/Julio/13.1_Indicadores_de_Resultados.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-DE-SITUACION-FINANCIERA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-DE-ACTIVIDADES-3.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-DE-VARIACION-EN-LA-HACIENDA-PUBLICA-3.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-DE-CAMBIO-EN-LAS-SITUACIONES-FINANCIERA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/NOTAS-A-LOS-ESTADOS-FINANCIEROS-AGOSTO2025.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-DE-FLUJOS-DE-EFECTIVO.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-ANALITICO-DEL-ACTIVO-3.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-ANALITICO-DE-DEUDA-Y-OTROS-PASIVOS.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/INFORME-SOBRE-PASIVOS-CONTIGENTES-3.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-ANALITICO-DE-INGRESOS.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGERESOS-CLASIFICACION-FUNCIONAL-FINALIDAD-Y-FUNCION.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGERSOS-CLASIFICACION-ECONOMICA-POR-TIPO-DE-GASTO-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGERSOS-CLASIFICACION-ECONOMICA-POR-TIPO-DE-GASTO.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ENDEUDAMIENTO-NETO-6.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/INTERESES-DE-LA-DEUDA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/PROGRAMAS-Y-PROYECTOS-DE-INVERSION-3.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/INDICADORES-DE-RESULTADOS-2.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-DE-SITUACION-FINANCIERA-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-DE-ACTIVIDADES-4.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-DE-VARIACION-EN-LA-HACIENDA-PUBLICA-4.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-DE-CAMBIOS-EN-LA-SITUACION-FINANCIERA-3.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/NOTAS-A-LOS-ESTADOS-FINANCIEROS.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-DE-FLUJOS-DE-EFECTIVO-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-ANALITICO-DEL-ACTIVO-4.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-ANALITICO-DE-LA-DEUDA-Y-OTROS-PASIVOS.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/INFORME-SOBRE-PASIVOS-CONTINGENTES.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-ANALITICO-DE-INGRESOS-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS_ADMINISTRATIVA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS_ECONOMICA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS_OBJETO-DEL-GASTO.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS_FUNCIONAL.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ENDEUDAMIENTO-NETO-7.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/INTERESES-DE-LA-DEUDA-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/GASTO-POR-CATEGORIA-PROGRAMATICA-4.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/INDICADORES-DE-RESULTADOS-3.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/PROGRAMAS-Y-PROYECTOS-DE-INVERSION-4.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/01/ESTADO-DE-SITACION-FINANCIERA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/02/ESTADO-DE-SITUACION-FINANCIERA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/02/ESTADO-DE-ACTIVIDADES.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/02/ESTADO-DE-CAMBIO-DE-SITUACION-FINANCIERA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/Diciembre/6._Notas_a_los_Estados_Financieros.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/02/ESTADO-DE-FLUJOS-DE-EFECTIVO.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/02/ESTADO-ANALITICO-DEL-ACTIVO.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/02/ESTADO-ANALITICO-DE-DEUDA-Y-OTROS-PASIVOS.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/02/PASIVOS-CONTINGENTES.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/02/ESTADO-ANALITICO-DE-INGRESOS.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/02/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESSUPUESTO-DE-EGRESOS-CLASIFICACION-ADMINISTRATIVA.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/Diciembre/10._Estado_Analitico_del_Ejercicio_del_Presupuesto_de_Egresos_(Economica).pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/02/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS-CLASIFICACION-POR-OBJETO-DEL-GASTO.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/02/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS-CLASIFICACION-FUNCIONAL.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/Diciembre/12.1_Endeudamiento_Neto.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/Diciembre/12.2_Intereses_de_la_Deuda.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/Diciembre/13._Gasto_por_Categoria_Programatica.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/Diciembre/13.1_Indicadores_de_Resultados.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/Diciembre/13.2_Programas_y_Proyectos_de_Inversion.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/ESTADO-ANALITICO-DEL-EJERCICIO-DEL-PRESUPUESTO-DE-EGRESOS-CLASIFICACION-ECONOMICA-POR-TIPO-DE-GASTO.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/08/INVENTARIO-BIENES-INMUEBLES.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/08/INVENTARIO-BIENES-MUEBLES.pdf</t>
+  </si>
+  <si>
+    <t>Inventario de Bienes Muebles</t>
+  </si>
+  <si>
+    <t>Inventario de Bienes Inmuebles</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/05/MONTOS-PAGADOS-POR-AYUDAS-Y-SUBSIDIOS-2.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/08/MONTOS-PAGADOS-POR-AYUDAS-Y-SUBSIDIOS-2DO.TRIM2025.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/MONTOS-PAGADOS-POR-AYUDAS-Y-SUBSIDIOS-3ER.TRIM2025-2.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/01/MONTOS-PAGADOS-POR-AYUDAS-Y-SUBSIDIOS-5TO.TRIM2025-1.pdf</t>
+  </si>
+  <si>
+    <t>1er Trim </t>
+  </si>
+  <si>
+    <t>2do Trim</t>
+  </si>
+  <si>
+    <t>3er Trim</t>
+  </si>
+  <si>
+    <t>4to Trim</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/05/FORMATO-DE-PROGRAMAS-CON-RECURSOS-CONCURRENTES-POR-ORDEN-DE-GOBIERNO.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/08/FORMATO-DE-PROGRAMAS-CON-RECURSOS-CONCURRENTE-POR-ORDEN-DE-GOBIERNO.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/FORMATO-DE-PROGRAMAS-CON-RECURSOS-CONCURRENTE-POR-ORDEN-DE-GOBIERNO-5.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/01/FORMATO-DE-PROGRAMAS-CON-RECURSOS-RECURRENTE-POR-ORDEN-DE-GOBIERNO-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/1erTrim/21._Relacion_de_cuentas_bancarias_productivas_especificas.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/2doTrim/21._Relacion_de_cuentas_bancarias_productivas_especificas.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/3erTrim/21._Relacion_de_cuentas_bancarias_productivas_especificas.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/5toTrim/21._Relacion_de_cuentas_bancarias_productivas_especificas.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/1erTrim/22._MIDS.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/2doTrim/22._MIDS.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/3erTrim/22._MIDS.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/5toTrim/22._MIDS.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/05/SRFT.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/08/SRFT-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/3erTrim/22._SRFT.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/5toTrim/22._SRFT.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/1erTrim/22._Indicadores.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/2doTrim/22._Indicadores.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/3erTrim/22._Indicadores.pdf</t>
+  </si>
+  <si>
+    <t>Fondo de Aportaciones para la Infraestructura Social (FAIS)</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/05/MONTOS-QUE-RECIBAN-OBRAS-Y-ACCIONES-A-REALIZAR-CON-EL-FAIS.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/08/MONTOS-QUE-RECIBAN-OBRAS-Y-ACCIONES-A-REALIZAR-CON-EL-FAIS.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/MONTOS-QUE-RECIBAN-OBRAS-Y-ACCIONES-A-REALIZAR-CON-EL-FAIS-4.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/01/MONTOS-QUE-RECIBAN-OBRAS-Y-ACCIONES-A-REALIZAR-CON-FAIS-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/05/FORMATO-DE-INFORMACION-DE-APLICACION-DE-RECURSOS-DEL-FORTAMUN.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/08/FORMATO-DE-INFORMACION-DE-APLICACION-DE-RECURSOS-DEL-FORTAMUN.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/FORMATO-DE-INFORMACION-DE-APLICACION-DE-RECURSOS-DEL-FORTAMUN-7.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/01/FORMATO-DE-INFORMACION-DE-APLICACION-DE-RECURSOS-DE-FORTAMUN-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/05/FORMATO-DE-INFORMACION-DE-OBLIGACIONES-PAGADAS-O-GARANTIZADAS-CON-FONDOS-FEDERALES.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/08/FORMATO-DE-INFORMACION-DE-OBLIGACIONES-PAGADAS-O-GARANTIZADAS-CON-FONDOS-FEDERALES-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/FORMATO-DE-INFORMCION-DE-OBLIGACIONES-PAGADAS-O-GARANTIZADAS-CON-FONDOS-FEDERALES-4.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/01/FORMATO-DE-INFORMACION-DE-OBLIGACIONES-PAGADAS-O-GARANTIZADAS-CON-FONDOS-FEDERALES-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/05/FORMATO-DEL-EJERCICIO-Y-DESTINO-DE-GASTO-FEDERALIZADO-Y-REINTEGROS-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/08/FORMATO-DEL-EJERCICIO-Y-DESTINO-DE-GASTO-FEDERALIZADO-Y-REINTEGROS-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/FORMATO-DEL-EJERCICIO-Y-DESTINO-DE-GASTO-FEDERALIZADO-Y-REINTEGROS-4.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/01/FORMATO-DEL-EJERCICIO-Y-DESTINO-DE-GASTO-FEDERALIZADO-Y-REINTEGROS-5TOTRIM-1.pdf</t>
+  </si>
+  <si>
+    <t>Formato del ejercicio y destino de gasto federalizado y reintegros anual</t>
+  </si>
+  <si>
+    <t>Evaluaciones de los recursos federales ministrados a las entidades federativas</t>
+  </si>
+  <si>
+    <t>Adicional de Egresos (PEC)</t>
+  </si>
+  <si>
+    <t>Ley de Ingresos Aprobada 2025</t>
+  </si>
+  <si>
+    <t>Presupuesto de Egresos Aprobado 2025</t>
+  </si>
+  <si>
+    <t>Documentos de aprobación de la Ley de Ingresos Aprobada 2025</t>
+  </si>
+  <si>
+    <t>Documentos de aprobación del Presupuesto de Egresos Aprobada 2025</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/05/FORMATO-DEL-EJERCICIO-Y-DESTINO-DE-GASTO-FEDERALIZADO-Y-REINTEGROS.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/11/FORMATO-PARA-LA-DIFUSION-DE-LOS-RESULTADOS-DE-LAS-EVALUACIONES-1.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/CONAC/2025/1erTrim/Adicional_de_egresos_pec.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/05/LEY-DE-INGRESOS-DEL-MUNICIPIO-DE-LOS-REYES-DE-JUAREZ-PARA-EL-EJERCICIO-FISCAL-2025.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/05/PRESUPUESTO-DE-EGRESOS-2025.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/05/DOCUMENTO-DE-APROBACION-DE-LA-LEY-DE-INGRESOS-2025.pdf</t>
+  </si>
+  <si>
+    <t>https://losreyesdejuarezpuebla.gob.mx/wp-content/uploads/2025/05/DOCUMENTO-DE-APROBACION-DE-PRESUPUESTO-DE-EGRESOS.pdf</t>
   </si>
 </sst>
 </file>
@@ -2415,16 +2947,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}" name="Tabla1" displayName="Tabla1" ref="A1:E903" totalsRowShown="0">
-  <autoFilter ref="A1:E903" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}" name="Tabla1" displayName="Tabla1" ref="A1:E954" totalsRowShown="0">
+  <autoFilter ref="A1:E954" xr:uid="{69CE2F71-7371-44BA-87CD-F0A7C5B29C1C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2025"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Información Financiera - Marzo"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2702,10 +3229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E903"/>
+  <dimension ref="A1:E954"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C906" sqref="C906"/>
+    <sheetView tabSelected="1" topLeftCell="A938" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C959" sqref="C959"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3209,7 +3736,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>2018</v>
       </c>
@@ -3277,7 +3804,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>2018</v>
       </c>
@@ -3571,7 +4098,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>2018</v>
       </c>
@@ -3627,7 +4154,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>2018</v>
       </c>
@@ -3981,7 +4508,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>2018</v>
       </c>
@@ -4037,7 +4564,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>2018</v>
       </c>
@@ -4391,7 +4918,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>2018</v>
       </c>
@@ -4447,7 +4974,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>2018</v>
       </c>
@@ -4801,7 +5328,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>2018</v>
       </c>
@@ -4857,7 +5384,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>2018</v>
       </c>
@@ -5995,7 +6522,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
         <v>2019</v>
       </c>
@@ -6051,7 +6578,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
         <v>2019</v>
       </c>
@@ -6285,7 +6812,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
         <v>2019</v>
       </c>
@@ -6341,7 +6868,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
         <v>2019</v>
       </c>
@@ -6575,7 +7102,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
         <v>2019</v>
       </c>
@@ -6631,7 +7158,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
         <v>2019</v>
       </c>
@@ -6865,7 +7392,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
         <v>2019</v>
       </c>
@@ -6921,7 +7448,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
         <v>2019</v>
       </c>
@@ -7943,7 +8470,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="5">
         <v>2020</v>
       </c>
@@ -7999,7 +8526,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="5">
         <v>2020</v>
       </c>
@@ -8275,7 +8802,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="5">
         <v>2020</v>
       </c>
@@ -8331,7 +8858,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="5">
         <v>2020</v>
       </c>
@@ -8685,7 +9212,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
         <v>2020</v>
       </c>
@@ -8741,7 +9268,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
         <v>2020</v>
       </c>
@@ -9095,7 +9622,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="5">
         <v>2020</v>
       </c>
@@ -9151,7 +9678,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="5">
         <v>2020</v>
       </c>
@@ -9505,7 +10032,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
         <v>2020</v>
       </c>
@@ -9561,7 +10088,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
         <v>2020</v>
       </c>
@@ -10959,7 +11486,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="5">
         <v>2021</v>
       </c>
@@ -11015,7 +11542,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="5">
         <v>2021</v>
       </c>
@@ -11099,7 +11626,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="5">
         <v>2025</v>
       </c>
@@ -11111,7 +11638,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="5">
         <v>2025</v>
       </c>
@@ -11123,7 +11650,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="5">
         <v>2025</v>
       </c>
@@ -11135,7 +11662,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="5">
         <v>2025</v>
       </c>
@@ -11147,7 +11674,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="5">
         <v>2025</v>
       </c>
@@ -11159,7 +11686,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="5">
         <v>2025</v>
       </c>
@@ -11171,7 +11698,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="5">
         <v>2025</v>
       </c>
@@ -11183,7 +11710,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="5">
         <v>2025</v>
       </c>
@@ -11195,7 +11722,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="5">
         <v>2025</v>
       </c>
@@ -11209,7 +11736,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="3">
         <v>2025</v>
       </c>
@@ -11223,7 +11750,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="5">
         <v>2025</v>
       </c>
@@ -11237,7 +11764,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="5">
         <v>2025</v>
       </c>
@@ -11251,7 +11778,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="5">
         <v>2025</v>
       </c>
@@ -11265,7 +11792,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="5">
         <v>2025</v>
       </c>
@@ -11279,7 +11806,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="5">
         <v>2025</v>
       </c>
@@ -11293,7 +11820,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="5">
         <v>2025</v>
       </c>
@@ -11307,7 +11834,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="5">
         <v>2025</v>
       </c>
@@ -11321,7 +11848,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="5">
         <v>2025</v>
       </c>
@@ -11335,7 +11862,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="5">
         <v>2025</v>
       </c>
@@ -11349,7 +11876,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="5">
         <v>2025</v>
       </c>
@@ -11363,7 +11890,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="5">
         <v>2025</v>
       </c>
@@ -11377,7 +11904,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="5">
         <v>2025</v>
       </c>
@@ -11391,7 +11918,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="5">
         <v>2025</v>
       </c>
@@ -11405,7 +11932,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="5">
         <v>2025</v>
       </c>
@@ -11419,7 +11946,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="5">
         <v>2025</v>
       </c>
@@ -11433,7 +11960,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="5">
         <v>2025</v>
       </c>
@@ -11447,7 +11974,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="5">
         <v>2025</v>
       </c>
@@ -11461,7 +11988,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="5">
         <v>2025</v>
       </c>
@@ -11475,7 +12002,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="5">
         <v>2025</v>
       </c>
@@ -11489,7 +12016,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="5">
         <v>2025</v>
       </c>
@@ -11503,7 +12030,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="5">
         <v>2025</v>
       </c>
@@ -11517,7 +12044,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="5">
         <v>2025</v>
       </c>
@@ -11531,7 +12058,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="5">
         <v>2025</v>
       </c>
@@ -11545,7 +12072,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="5">
         <v>2025</v>
       </c>
@@ -11559,7 +12086,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="5">
         <v>2025</v>
       </c>
@@ -11573,7 +12100,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="5">
         <v>2025</v>
       </c>
@@ -11587,7 +12114,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="5">
         <v>2025</v>
       </c>
@@ -11601,7 +12128,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="5">
         <v>2025</v>
       </c>
@@ -11615,7 +12142,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="5">
         <v>2025</v>
       </c>
@@ -11629,7 +12156,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="5">
         <v>2025</v>
       </c>
@@ -11643,7 +12170,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="5">
         <v>2025</v>
       </c>
@@ -11657,7 +12184,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="5">
         <v>2025</v>
       </c>
@@ -11671,7 +12198,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="5">
         <v>2025</v>
       </c>
@@ -11685,7 +12212,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="5">
         <v>2025</v>
       </c>
@@ -11699,7 +12226,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="3">
         <v>2025</v>
       </c>
@@ -11711,7 +12238,7 @@
       </c>
       <c r="D652" s="2"/>
     </row>
-    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="3">
         <v>2025</v>
       </c>
@@ -11723,7 +12250,7 @@
       </c>
       <c r="D653" s="2"/>
     </row>
-    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="5">
         <v>2025</v>
       </c>
@@ -11737,7 +12264,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="5">
         <v>2025</v>
       </c>
@@ -11751,7 +12278,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="5">
         <v>2025</v>
       </c>
@@ -11765,7 +12292,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="5">
         <v>2025</v>
       </c>
@@ -11779,7 +12306,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="5">
         <v>2025</v>
       </c>
@@ -11793,7 +12320,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="659" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="5">
         <v>2025</v>
       </c>
@@ -11807,7 +12334,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="5">
         <v>2025</v>
       </c>
@@ -11821,7 +12348,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="661" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="5">
         <v>2025</v>
       </c>
@@ -11835,7 +12362,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="5">
         <v>2025</v>
       </c>
@@ -11849,7 +12376,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="5">
         <v>2025</v>
       </c>
@@ -11863,7 +12390,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="5">
         <v>2025</v>
       </c>
@@ -11877,7 +12404,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="5">
         <v>2025</v>
       </c>
@@ -11891,7 +12418,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="5">
         <v>2025</v>
       </c>
@@ -11905,7 +12432,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="5">
         <v>2025</v>
       </c>
@@ -11919,7 +12446,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="668" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="5">
         <v>2025</v>
       </c>
@@ -11933,7 +12460,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="669" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="5">
         <v>2025</v>
       </c>
@@ -11947,7 +12474,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="670" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="5">
         <v>2025</v>
       </c>
@@ -11961,7 +12488,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="671" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="5">
         <v>2025</v>
       </c>
@@ -11975,7 +12502,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="5">
         <v>2025</v>
       </c>
@@ -11989,7 +12516,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="3">
         <v>2025</v>
       </c>
@@ -12001,7 +12528,7 @@
       </c>
       <c r="D673" s="2"/>
     </row>
-    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="3">
         <v>2025</v>
       </c>
@@ -12013,7 +12540,7 @@
       </c>
       <c r="D674" s="2"/>
     </row>
-    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="5">
         <v>2025</v>
       </c>
@@ -12027,7 +12554,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="676" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="5">
         <v>2025</v>
       </c>
@@ -12041,7 +12568,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="5">
         <v>2025</v>
       </c>
@@ -12055,7 +12582,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="5">
         <v>2025</v>
       </c>
@@ -12069,7 +12596,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="5">
         <v>2025</v>
       </c>
@@ -12083,7 +12610,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="5">
         <v>2025</v>
       </c>
@@ -12097,7 +12624,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" s="5">
         <v>2025</v>
       </c>
@@ -12111,7 +12638,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" s="5">
         <v>2025</v>
       </c>
@@ -12125,7 +12652,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" s="5">
         <v>2025</v>
       </c>
@@ -12139,7 +12666,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" s="5">
         <v>2025</v>
       </c>
@@ -12153,7 +12680,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" s="5">
         <v>2025</v>
       </c>
@@ -12167,7 +12694,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" s="5">
         <v>2025</v>
       </c>
@@ -12181,7 +12708,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="5">
         <v>2025</v>
       </c>
@@ -12195,7 +12722,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" s="5">
         <v>2025</v>
       </c>
@@ -12209,7 +12736,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="689" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="5">
         <v>2025</v>
       </c>
@@ -12223,7 +12750,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="690" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" s="5">
         <v>2025</v>
       </c>
@@ -12237,7 +12764,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" s="5">
         <v>2025</v>
       </c>
@@ -12251,7 +12778,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" s="5">
         <v>2025</v>
       </c>
@@ -12265,7 +12792,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" s="5">
         <v>2025</v>
       </c>
@@ -12471,7 +12998,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="708" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" s="5">
         <v>2025</v>
       </c>
@@ -12527,7 +13054,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="712" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" s="5">
         <v>2025</v>
       </c>
@@ -12569,7 +13096,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" s="3">
         <v>2025</v>
       </c>
@@ -12581,7 +13108,7 @@
       </c>
       <c r="D715" s="2"/>
     </row>
-    <row r="716" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" s="3">
         <v>2025</v>
       </c>
@@ -12593,8 +13120,8 @@
       </c>
       <c r="D716" s="2"/>
     </row>
-    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A717" s="3">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A717" s="5">
         <v>2025</v>
       </c>
       <c r="B717" s="2" t="s">
@@ -12603,10 +13130,12 @@
       <c r="C717" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D717" s="2"/>
-    </row>
-    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A718" s="3">
+      <c r="D717" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A718" s="5">
         <v>2025</v>
       </c>
       <c r="B718" s="2" t="s">
@@ -12615,10 +13144,12 @@
       <c r="C718" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D718" s="2"/>
-    </row>
-    <row r="719" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A719" s="3">
+      <c r="D718" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A719" s="5">
         <v>2025</v>
       </c>
       <c r="B719" s="2" t="s">
@@ -12627,10 +13158,12 @@
       <c r="C719" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D719" s="2"/>
-    </row>
-    <row r="720" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A720" s="3">
+      <c r="D719" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A720" s="5">
         <v>2025</v>
       </c>
       <c r="B720" s="2" t="s">
@@ -12639,10 +13172,12 @@
       <c r="C720" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D720" s="2"/>
-    </row>
-    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A721" s="3">
+      <c r="D720" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A721" s="5">
         <v>2025</v>
       </c>
       <c r="B721" s="2" t="s">
@@ -12651,10 +13186,12 @@
       <c r="C721" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D721" s="2"/>
-    </row>
-    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A722" s="3">
+      <c r="D721" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A722" s="5">
         <v>2025</v>
       </c>
       <c r="B722" s="2" t="s">
@@ -12663,10 +13200,12 @@
       <c r="C722" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D722" s="2"/>
-    </row>
-    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A723" s="3">
+      <c r="D722" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A723" s="5">
         <v>2025</v>
       </c>
       <c r="B723" s="2" t="s">
@@ -12675,10 +13214,12 @@
       <c r="C723" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D723" s="2"/>
-    </row>
-    <row r="724" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A724" s="3">
+      <c r="D723" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A724" s="5">
         <v>2025</v>
       </c>
       <c r="B724" s="2" t="s">
@@ -12687,10 +13228,12 @@
       <c r="C724" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D724" s="2"/>
-    </row>
-    <row r="725" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A725" s="3">
+      <c r="D724" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A725" s="5">
         <v>2025</v>
       </c>
       <c r="B725" s="2" t="s">
@@ -12699,10 +13242,12 @@
       <c r="C725" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D725" s="2"/>
-    </row>
-    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A726" s="3">
+      <c r="D725" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A726" s="5">
         <v>2025</v>
       </c>
       <c r="B726" s="2" t="s">
@@ -12711,10 +13256,12 @@
       <c r="C726" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D726" s="2"/>
-    </row>
-    <row r="727" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A727" s="3">
+      <c r="D726" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A727" s="5">
         <v>2025</v>
       </c>
       <c r="B727" s="2" t="s">
@@ -12723,10 +13270,12 @@
       <c r="C727" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D727" s="2"/>
-    </row>
-    <row r="728" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A728" s="3">
+      <c r="D727" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A728" s="5">
         <v>2025</v>
       </c>
       <c r="B728" s="2" t="s">
@@ -12735,10 +13284,12 @@
       <c r="C728" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D728" s="2"/>
-    </row>
-    <row r="729" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A729" s="3">
+      <c r="D728" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A729" s="5">
         <v>2025</v>
       </c>
       <c r="B729" s="2" t="s">
@@ -12747,10 +13298,12 @@
       <c r="C729" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D729" s="2"/>
-    </row>
-    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A730" s="3">
+      <c r="D729" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A730" s="5">
         <v>2025</v>
       </c>
       <c r="B730" s="2" t="s">
@@ -12759,10 +13312,12 @@
       <c r="C730" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D730" s="2"/>
-    </row>
-    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A731" s="3">
+      <c r="D730" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A731" s="5">
         <v>2025</v>
       </c>
       <c r="B731" s="2" t="s">
@@ -12771,10 +13326,12 @@
       <c r="C731" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D731" s="2"/>
-    </row>
-    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A732" s="3">
+      <c r="D731" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A732" s="5">
         <v>2025</v>
       </c>
       <c r="B732" s="2" t="s">
@@ -12783,10 +13340,12 @@
       <c r="C732" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D732" s="2"/>
-    </row>
-    <row r="733" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A733" s="3">
+      <c r="D732" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A733" s="5">
         <v>2025</v>
       </c>
       <c r="B733" s="2" t="s">
@@ -12795,10 +13354,12 @@
       <c r="C733" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D733" s="2"/>
-    </row>
-    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A734" s="3">
+      <c r="D733" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A734" s="5">
         <v>2025</v>
       </c>
       <c r="B734" s="2" t="s">
@@ -12807,10 +13368,12 @@
       <c r="C734" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D734" s="2"/>
-    </row>
-    <row r="735" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A735" s="3">
+      <c r="D734" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A735" s="5">
         <v>2025</v>
       </c>
       <c r="B735" s="2" t="s">
@@ -12819,9 +13382,11 @@
       <c r="C735" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D735" s="2"/>
-    </row>
-    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D735" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" s="3">
         <v>2025</v>
       </c>
@@ -12833,7 +13398,7 @@
       </c>
       <c r="D736" s="2"/>
     </row>
-    <row r="737" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" s="3">
         <v>2025</v>
       </c>
@@ -12845,8 +13410,8 @@
       </c>
       <c r="D737" s="2"/>
     </row>
-    <row r="738" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A738" s="3">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A738" s="5">
         <v>2025</v>
       </c>
       <c r="B738" s="2" t="s">
@@ -12855,10 +13420,12 @@
       <c r="C738" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D738" s="2"/>
-    </row>
-    <row r="739" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A739" s="3">
+      <c r="D738" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A739" s="5">
         <v>2025</v>
       </c>
       <c r="B739" s="2" t="s">
@@ -12867,10 +13434,12 @@
       <c r="C739" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D739" s="2"/>
-    </row>
-    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A740" s="3">
+      <c r="D739" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A740" s="5">
         <v>2025</v>
       </c>
       <c r="B740" s="2" t="s">
@@ -12879,10 +13448,12 @@
       <c r="C740" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D740" s="2"/>
-    </row>
-    <row r="741" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A741" s="3">
+      <c r="D740" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A741" s="5">
         <v>2025</v>
       </c>
       <c r="B741" s="2" t="s">
@@ -12891,10 +13462,12 @@
       <c r="C741" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D741" s="2"/>
-    </row>
-    <row r="742" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A742" s="3">
+      <c r="D741" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A742" s="5">
         <v>2025</v>
       </c>
       <c r="B742" s="2" t="s">
@@ -12903,10 +13476,12 @@
       <c r="C742" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D742" s="2"/>
-    </row>
-    <row r="743" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A743" s="3">
+      <c r="D742" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A743" s="5">
         <v>2025</v>
       </c>
       <c r="B743" s="2" t="s">
@@ -12915,10 +13490,12 @@
       <c r="C743" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D743" s="2"/>
-    </row>
-    <row r="744" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A744" s="3">
+      <c r="D743" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A744" s="5">
         <v>2025</v>
       </c>
       <c r="B744" s="2" t="s">
@@ -12927,10 +13504,12 @@
       <c r="C744" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D744" s="2"/>
-    </row>
-    <row r="745" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A745" s="3">
+      <c r="D744" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A745" s="5">
         <v>2025</v>
       </c>
       <c r="B745" s="2" t="s">
@@ -12939,10 +13518,12 @@
       <c r="C745" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D745" s="2"/>
-    </row>
-    <row r="746" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A746" s="3">
+      <c r="D745" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A746" s="5">
         <v>2025</v>
       </c>
       <c r="B746" s="2" t="s">
@@ -12951,10 +13532,12 @@
       <c r="C746" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D746" s="2"/>
-    </row>
-    <row r="747" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A747" s="3">
+      <c r="D746" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A747" s="5">
         <v>2025</v>
       </c>
       <c r="B747" s="2" t="s">
@@ -12963,10 +13546,12 @@
       <c r="C747" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D747" s="2"/>
-    </row>
-    <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A748" s="3">
+      <c r="D747" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A748" s="5">
         <v>2025</v>
       </c>
       <c r="B748" s="2" t="s">
@@ -12975,10 +13560,12 @@
       <c r="C748" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D748" s="2"/>
-    </row>
-    <row r="749" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A749" s="3">
+      <c r="D748" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A749" s="5">
         <v>2025</v>
       </c>
       <c r="B749" s="2" t="s">
@@ -12987,10 +13574,12 @@
       <c r="C749" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D749" s="2"/>
-    </row>
-    <row r="750" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A750" s="3">
+      <c r="D749" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A750" s="5">
         <v>2025</v>
       </c>
       <c r="B750" s="2" t="s">
@@ -12999,10 +13588,12 @@
       <c r="C750" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D750" s="2"/>
-    </row>
-    <row r="751" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A751" s="3">
+      <c r="D750" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A751" s="5">
         <v>2025</v>
       </c>
       <c r="B751" s="2" t="s">
@@ -13011,10 +13602,12 @@
       <c r="C751" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D751" s="2"/>
-    </row>
-    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A752" s="3">
+      <c r="D751" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A752" s="5">
         <v>2025</v>
       </c>
       <c r="B752" s="2" t="s">
@@ -13023,10 +13616,12 @@
       <c r="C752" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D752" s="2"/>
-    </row>
-    <row r="753" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A753" s="3">
+      <c r="D752" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A753" s="5">
         <v>2025</v>
       </c>
       <c r="B753" s="2" t="s">
@@ -13035,10 +13630,12 @@
       <c r="C753" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D753" s="2"/>
-    </row>
-    <row r="754" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A754" s="3">
+      <c r="D753" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A754" s="5">
         <v>2025</v>
       </c>
       <c r="B754" s="2" t="s">
@@ -13047,10 +13644,12 @@
       <c r="C754" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D754" s="2"/>
-    </row>
-    <row r="755" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A755" s="3">
+      <c r="D754" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A755" s="5">
         <v>2025</v>
       </c>
       <c r="B755" s="2" t="s">
@@ -13059,10 +13658,12 @@
       <c r="C755" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D755" s="2"/>
-    </row>
-    <row r="756" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A756" s="3">
+      <c r="D755" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A756" s="5">
         <v>2025</v>
       </c>
       <c r="B756" s="2" t="s">
@@ -13071,9 +13672,11 @@
       <c r="C756" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D756" s="2"/>
-    </row>
-    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D756" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" s="3">
         <v>2025</v>
       </c>
@@ -13085,7 +13688,7 @@
       </c>
       <c r="D757" s="2"/>
     </row>
-    <row r="758" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" s="3">
         <v>2025</v>
       </c>
@@ -13097,8 +13700,8 @@
       </c>
       <c r="D758" s="2"/>
     </row>
-    <row r="759" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A759" s="3">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A759" s="5">
         <v>2025</v>
       </c>
       <c r="B759" s="2" t="s">
@@ -13107,10 +13710,12 @@
       <c r="C759" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D759" s="2"/>
-    </row>
-    <row r="760" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A760" s="3">
+      <c r="D759" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A760" s="5">
         <v>2025</v>
       </c>
       <c r="B760" s="2" t="s">
@@ -13119,10 +13724,12 @@
       <c r="C760" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D760" s="2"/>
-    </row>
-    <row r="761" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A761" s="3">
+      <c r="D760" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A761" s="5">
         <v>2025</v>
       </c>
       <c r="B761" s="2" t="s">
@@ -13131,10 +13738,12 @@
       <c r="C761" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D761" s="2"/>
-    </row>
-    <row r="762" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A762" s="3">
+      <c r="D761" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A762" s="5">
         <v>2025</v>
       </c>
       <c r="B762" s="2" t="s">
@@ -13143,10 +13752,12 @@
       <c r="C762" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D762" s="2"/>
-    </row>
-    <row r="763" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A763" s="3">
+      <c r="D762" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A763" s="5">
         <v>2025</v>
       </c>
       <c r="B763" s="2" t="s">
@@ -13155,10 +13766,12 @@
       <c r="C763" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D763" s="2"/>
-    </row>
-    <row r="764" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A764" s="3">
+      <c r="D763" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A764" s="5">
         <v>2025</v>
       </c>
       <c r="B764" s="2" t="s">
@@ -13167,10 +13780,12 @@
       <c r="C764" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D764" s="2"/>
-    </row>
-    <row r="765" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A765" s="3">
+      <c r="D764" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A765" s="5">
         <v>2025</v>
       </c>
       <c r="B765" s="2" t="s">
@@ -13179,10 +13794,12 @@
       <c r="C765" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D765" s="2"/>
-    </row>
-    <row r="766" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A766" s="3">
+      <c r="D765" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A766" s="5">
         <v>2025</v>
       </c>
       <c r="B766" s="2" t="s">
@@ -13191,10 +13808,12 @@
       <c r="C766" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D766" s="2"/>
-    </row>
-    <row r="767" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A767" s="3">
+      <c r="D766" s="6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A767" s="5">
         <v>2025</v>
       </c>
       <c r="B767" s="2" t="s">
@@ -13203,10 +13822,12 @@
       <c r="C767" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D767" s="2"/>
-    </row>
-    <row r="768" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A768" s="3">
+      <c r="D767" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A768" s="5">
         <v>2025</v>
       </c>
       <c r="B768" s="2" t="s">
@@ -13215,10 +13836,12 @@
       <c r="C768" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D768" s="2"/>
-    </row>
-    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A769" s="3">
+      <c r="D768" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A769" s="5">
         <v>2025</v>
       </c>
       <c r="B769" s="2" t="s">
@@ -13227,10 +13850,12 @@
       <c r="C769" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D769" s="2"/>
-    </row>
-    <row r="770" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A770" s="3">
+      <c r="D769" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A770" s="5">
         <v>2025</v>
       </c>
       <c r="B770" s="2" t="s">
@@ -13239,10 +13864,12 @@
       <c r="C770" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D770" s="2"/>
-    </row>
-    <row r="771" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A771" s="3">
+      <c r="D770" s="6" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A771" s="5">
         <v>2025</v>
       </c>
       <c r="B771" s="2" t="s">
@@ -13251,10 +13878,12 @@
       <c r="C771" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D771" s="2"/>
-    </row>
-    <row r="772" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A772" s="3">
+      <c r="D771" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A772" s="5">
         <v>2025</v>
       </c>
       <c r="B772" s="2" t="s">
@@ -13263,10 +13892,12 @@
       <c r="C772" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D772" s="2"/>
-    </row>
-    <row r="773" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A773" s="3">
+      <c r="D772" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A773" s="5">
         <v>2025</v>
       </c>
       <c r="B773" s="2" t="s">
@@ -13275,10 +13906,12 @@
       <c r="C773" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D773" s="2"/>
-    </row>
-    <row r="774" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A774" s="3">
+      <c r="D773" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A774" s="5">
         <v>2025</v>
       </c>
       <c r="B774" s="2" t="s">
@@ -13287,10 +13920,12 @@
       <c r="C774" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D774" s="2"/>
-    </row>
-    <row r="775" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A775" s="3">
+      <c r="D774" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A775" s="5">
         <v>2025</v>
       </c>
       <c r="B775" s="2" t="s">
@@ -13299,10 +13934,12 @@
       <c r="C775" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D775" s="2"/>
-    </row>
-    <row r="776" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A776" s="3">
+      <c r="D775" s="6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A776" s="5">
         <v>2025</v>
       </c>
       <c r="B776" s="2" t="s">
@@ -13311,10 +13948,12 @@
       <c r="C776" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D776" s="2"/>
-    </row>
-    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A777" s="3">
+      <c r="D776" s="6" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A777" s="5">
         <v>2025</v>
       </c>
       <c r="B777" s="2" t="s">
@@ -13323,9 +13962,11 @@
       <c r="C777" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D777" s="2"/>
-    </row>
-    <row r="778" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D777" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" s="3">
         <v>2025</v>
       </c>
@@ -13337,7 +13978,7 @@
       </c>
       <c r="D778" s="2"/>
     </row>
-    <row r="779" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" s="3">
         <v>2025</v>
       </c>
@@ -13349,7 +13990,7 @@
       </c>
       <c r="D779" s="2"/>
     </row>
-    <row r="780" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780" s="3">
         <v>2025</v>
       </c>
@@ -13359,9 +14000,11 @@
       <c r="C780" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D780" s="2"/>
-    </row>
-    <row r="781" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D780" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781" s="3">
         <v>2025</v>
       </c>
@@ -13371,9 +14014,11 @@
       <c r="C781" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D781" s="2"/>
-    </row>
-    <row r="782" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D781" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782" s="3">
         <v>2025</v>
       </c>
@@ -13383,9 +14028,11 @@
       <c r="C782" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D782" s="2"/>
-    </row>
-    <row r="783" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D782" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783" s="3">
         <v>2025</v>
       </c>
@@ -13395,9 +14042,11 @@
       <c r="C783" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D783" s="2"/>
-    </row>
-    <row r="784" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D783" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" s="3">
         <v>2025</v>
       </c>
@@ -13407,9 +14056,11 @@
       <c r="C784" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D784" s="2"/>
-    </row>
-    <row r="785" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D784" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" s="3">
         <v>2025</v>
       </c>
@@ -13419,9 +14070,11 @@
       <c r="C785" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D785" s="2"/>
-    </row>
-    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D785" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" s="3">
         <v>2025</v>
       </c>
@@ -13431,9 +14084,11 @@
       <c r="C786" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D786" s="2"/>
-    </row>
-    <row r="787" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D786" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" s="3">
         <v>2025</v>
       </c>
@@ -13443,9 +14098,11 @@
       <c r="C787" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D787" s="2"/>
-    </row>
-    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D787" s="6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" s="3">
         <v>2025</v>
       </c>
@@ -13455,9 +14112,11 @@
       <c r="C788" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D788" s="2"/>
-    </row>
-    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D788" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" s="3">
         <v>2025</v>
       </c>
@@ -13467,9 +14126,11 @@
       <c r="C789" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D789" s="2"/>
-    </row>
-    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D789" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" s="3">
         <v>2025</v>
       </c>
@@ -13479,9 +14140,11 @@
       <c r="C790" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D790" s="2"/>
-    </row>
-    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D790" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" s="3">
         <v>2025</v>
       </c>
@@ -13491,9 +14154,11 @@
       <c r="C791" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D791" s="2"/>
-    </row>
-    <row r="792" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D791" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" s="3">
         <v>2025</v>
       </c>
@@ -13503,9 +14168,11 @@
       <c r="C792" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D792" s="2"/>
-    </row>
-    <row r="793" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D792" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" s="3">
         <v>2025</v>
       </c>
@@ -13515,9 +14182,11 @@
       <c r="C793" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D793" s="2"/>
-    </row>
-    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D793" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" s="3">
         <v>2025</v>
       </c>
@@ -13527,9 +14196,11 @@
       <c r="C794" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D794" s="2"/>
-    </row>
-    <row r="795" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D794" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" s="3">
         <v>2025</v>
       </c>
@@ -13539,9 +14210,11 @@
       <c r="C795" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D795" s="2"/>
-    </row>
-    <row r="796" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D795" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" s="3">
         <v>2025</v>
       </c>
@@ -13551,9 +14224,11 @@
       <c r="C796" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D796" s="2"/>
-    </row>
-    <row r="797" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D796" s="6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" s="3">
         <v>2025</v>
       </c>
@@ -13563,9 +14238,11 @@
       <c r="C797" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D797" s="2"/>
-    </row>
-    <row r="798" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D797" s="6" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" s="3">
         <v>2025</v>
       </c>
@@ -13575,9 +14252,11 @@
       <c r="C798" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D798" s="2"/>
-    </row>
-    <row r="799" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D798" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" s="3">
         <v>2025</v>
       </c>
@@ -13589,7 +14268,7 @@
       </c>
       <c r="D799" s="2"/>
     </row>
-    <row r="800" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" s="3">
         <v>2025</v>
       </c>
@@ -13601,8 +14280,8 @@
       </c>
       <c r="D800" s="2"/>
     </row>
-    <row r="801" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A801" s="3">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A801" s="5">
         <v>2025</v>
       </c>
       <c r="B801" s="2" t="s">
@@ -13611,10 +14290,12 @@
       <c r="C801" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D801" s="2"/>
-    </row>
-    <row r="802" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A802" s="3">
+      <c r="D801" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A802" s="5">
         <v>2025</v>
       </c>
       <c r="B802" s="2" t="s">
@@ -13623,10 +14304,12 @@
       <c r="C802" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D802" s="2"/>
-    </row>
-    <row r="803" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A803" s="3">
+      <c r="D802" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A803" s="5">
         <v>2025</v>
       </c>
       <c r="B803" s="2" t="s">
@@ -13635,10 +14318,12 @@
       <c r="C803" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D803" s="2"/>
-    </row>
-    <row r="804" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A804" s="3">
+      <c r="D803" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A804" s="5">
         <v>2025</v>
       </c>
       <c r="B804" s="2" t="s">
@@ -13647,10 +14332,12 @@
       <c r="C804" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D804" s="2"/>
-    </row>
-    <row r="805" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A805" s="3">
+      <c r="D804" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A805" s="5">
         <v>2025</v>
       </c>
       <c r="B805" s="2" t="s">
@@ -13659,10 +14346,12 @@
       <c r="C805" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D805" s="2"/>
-    </row>
-    <row r="806" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A806" s="3">
+      <c r="D805" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A806" s="5">
         <v>2025</v>
       </c>
       <c r="B806" s="2" t="s">
@@ -13671,10 +14360,12 @@
       <c r="C806" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D806" s="2"/>
-    </row>
-    <row r="807" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A807" s="3">
+      <c r="D806" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A807" s="5">
         <v>2025</v>
       </c>
       <c r="B807" s="2" t="s">
@@ -13683,10 +14374,12 @@
       <c r="C807" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D807" s="2"/>
-    </row>
-    <row r="808" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A808" s="3">
+      <c r="D807" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A808" s="5">
         <v>2025</v>
       </c>
       <c r="B808" s="2" t="s">
@@ -13695,10 +14388,12 @@
       <c r="C808" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D808" s="2"/>
-    </row>
-    <row r="809" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A809" s="3">
+      <c r="D808" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A809" s="5">
         <v>2025</v>
       </c>
       <c r="B809" s="2" t="s">
@@ -13707,10 +14402,12 @@
       <c r="C809" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D809" s="2"/>
-    </row>
-    <row r="810" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A810" s="3">
+      <c r="D809" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A810" s="5">
         <v>2025</v>
       </c>
       <c r="B810" s="2" t="s">
@@ -13719,10 +14416,12 @@
       <c r="C810" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D810" s="2"/>
-    </row>
-    <row r="811" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A811" s="3">
+      <c r="D810" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A811" s="5">
         <v>2025</v>
       </c>
       <c r="B811" s="2" t="s">
@@ -13731,10 +14430,12 @@
       <c r="C811" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D811" s="2"/>
-    </row>
-    <row r="812" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A812" s="3">
+      <c r="D811" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A812" s="5">
         <v>2025</v>
       </c>
       <c r="B812" s="2" t="s">
@@ -13743,10 +14444,12 @@
       <c r="C812" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D812" s="2"/>
-    </row>
-    <row r="813" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A813" s="3">
+      <c r="D812" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A813" s="5">
         <v>2025</v>
       </c>
       <c r="B813" s="2" t="s">
@@ -13755,10 +14458,12 @@
       <c r="C813" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D813" s="2"/>
-    </row>
-    <row r="814" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A814" s="3">
+      <c r="D813" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A814" s="5">
         <v>2025</v>
       </c>
       <c r="B814" s="2" t="s">
@@ -13767,10 +14472,12 @@
       <c r="C814" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D814" s="2"/>
-    </row>
-    <row r="815" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A815" s="3">
+      <c r="D814" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A815" s="5">
         <v>2025</v>
       </c>
       <c r="B815" s="2" t="s">
@@ -13779,10 +14486,12 @@
       <c r="C815" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D815" s="2"/>
-    </row>
-    <row r="816" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A816" s="3">
+      <c r="D815" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A816" s="5">
         <v>2025</v>
       </c>
       <c r="B816" s="2" t="s">
@@ -13791,10 +14500,12 @@
       <c r="C816" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D816" s="2"/>
-    </row>
-    <row r="817" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A817" s="3">
+      <c r="D816" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A817" s="5">
         <v>2025</v>
       </c>
       <c r="B817" s="2" t="s">
@@ -13803,10 +14514,12 @@
       <c r="C817" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D817" s="2"/>
-    </row>
-    <row r="818" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A818" s="3">
+      <c r="D817" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A818" s="5">
         <v>2025</v>
       </c>
       <c r="B818" s="2" t="s">
@@ -13815,10 +14528,12 @@
       <c r="C818" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D818" s="2"/>
-    </row>
-    <row r="819" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A819" s="3">
+      <c r="D818" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A819" s="5">
         <v>2025</v>
       </c>
       <c r="B819" s="2" t="s">
@@ -13827,9 +14542,11 @@
       <c r="C819" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D819" s="2"/>
-    </row>
-    <row r="820" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D819" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" s="3">
         <v>2025</v>
       </c>
@@ -13841,7 +14558,7 @@
       </c>
       <c r="D820" s="2"/>
     </row>
-    <row r="821" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" s="3">
         <v>2025</v>
       </c>
@@ -13853,8 +14570,8 @@
       </c>
       <c r="D821" s="2"/>
     </row>
-    <row r="822" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A822" s="3">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A822" s="5">
         <v>2025</v>
       </c>
       <c r="B822" s="2" t="s">
@@ -13863,10 +14580,12 @@
       <c r="C822" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D822" s="2"/>
-    </row>
-    <row r="823" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A823" s="3">
+      <c r="D822" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A823" s="5">
         <v>2025</v>
       </c>
       <c r="B823" s="2" t="s">
@@ -13875,10 +14594,12 @@
       <c r="C823" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D823" s="2"/>
-    </row>
-    <row r="824" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A824" s="3">
+      <c r="D823" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A824" s="5">
         <v>2025</v>
       </c>
       <c r="B824" s="2" t="s">
@@ -13887,10 +14608,12 @@
       <c r="C824" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D824" s="2"/>
-    </row>
-    <row r="825" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A825" s="3">
+      <c r="D824" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A825" s="5">
         <v>2025</v>
       </c>
       <c r="B825" s="2" t="s">
@@ -13899,10 +14622,12 @@
       <c r="C825" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D825" s="2"/>
-    </row>
-    <row r="826" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A826" s="3">
+      <c r="D825" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A826" s="5">
         <v>2025</v>
       </c>
       <c r="B826" s="2" t="s">
@@ -13911,10 +14636,12 @@
       <c r="C826" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D826" s="2"/>
-    </row>
-    <row r="827" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A827" s="3">
+      <c r="D826" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A827" s="5">
         <v>2025</v>
       </c>
       <c r="B827" s="2" t="s">
@@ -13923,10 +14650,12 @@
       <c r="C827" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D827" s="2"/>
-    </row>
-    <row r="828" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A828" s="3">
+      <c r="D827" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A828" s="5">
         <v>2025</v>
       </c>
       <c r="B828" s="2" t="s">
@@ -13935,10 +14664,12 @@
       <c r="C828" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D828" s="2"/>
-    </row>
-    <row r="829" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A829" s="3">
+      <c r="D828" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A829" s="5">
         <v>2025</v>
       </c>
       <c r="B829" s="2" t="s">
@@ -13947,10 +14678,12 @@
       <c r="C829" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D829" s="2"/>
-    </row>
-    <row r="830" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A830" s="3">
+      <c r="D829" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A830" s="5">
         <v>2025</v>
       </c>
       <c r="B830" s="2" t="s">
@@ -13959,10 +14692,12 @@
       <c r="C830" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D830" s="2"/>
-    </row>
-    <row r="831" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A831" s="3">
+      <c r="D830" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A831" s="5">
         <v>2025</v>
       </c>
       <c r="B831" s="2" t="s">
@@ -13971,10 +14706,12 @@
       <c r="C831" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D831" s="2"/>
-    </row>
-    <row r="832" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A832" s="3">
+      <c r="D831" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A832" s="5">
         <v>2025</v>
       </c>
       <c r="B832" s="2" t="s">
@@ -13983,10 +14720,12 @@
       <c r="C832" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D832" s="2"/>
-    </row>
-    <row r="833" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A833" s="3">
+      <c r="D832" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A833" s="5">
         <v>2025</v>
       </c>
       <c r="B833" s="2" t="s">
@@ -13995,10 +14734,12 @@
       <c r="C833" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D833" s="2"/>
-    </row>
-    <row r="834" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A834" s="3">
+      <c r="D833" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A834" s="5">
         <v>2025</v>
       </c>
       <c r="B834" s="2" t="s">
@@ -14007,10 +14748,12 @@
       <c r="C834" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D834" s="2"/>
-    </row>
-    <row r="835" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A835" s="3">
+      <c r="D834" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A835" s="5">
         <v>2025</v>
       </c>
       <c r="B835" s="2" t="s">
@@ -14019,10 +14762,12 @@
       <c r="C835" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D835" s="2"/>
-    </row>
-    <row r="836" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A836" s="3">
+      <c r="D835" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A836" s="5">
         <v>2025</v>
       </c>
       <c r="B836" s="2" t="s">
@@ -14031,10 +14776,12 @@
       <c r="C836" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D836" s="2"/>
-    </row>
-    <row r="837" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A837" s="3">
+      <c r="D836" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A837" s="5">
         <v>2025</v>
       </c>
       <c r="B837" s="2" t="s">
@@ -14043,10 +14790,12 @@
       <c r="C837" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D837" s="2"/>
-    </row>
-    <row r="838" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A838" s="3">
+      <c r="D837" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A838" s="5">
         <v>2025</v>
       </c>
       <c r="B838" s="2" t="s">
@@ -14055,10 +14804,12 @@
       <c r="C838" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D838" s="2"/>
-    </row>
-    <row r="839" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A839" s="3">
+      <c r="D838" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A839" s="5">
         <v>2025</v>
       </c>
       <c r="B839" s="2" t="s">
@@ -14067,10 +14818,12 @@
       <c r="C839" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D839" s="2"/>
-    </row>
-    <row r="840" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A840" s="3">
+      <c r="D839" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A840" s="5">
         <v>2025</v>
       </c>
       <c r="B840" s="2" t="s">
@@ -14079,9 +14832,11 @@
       <c r="C840" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D840" s="2"/>
-    </row>
-    <row r="841" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D840" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A841" s="3">
         <v>2025</v>
       </c>
@@ -14093,7 +14848,7 @@
       </c>
       <c r="D841" s="2"/>
     </row>
-    <row r="842" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A842" s="3">
         <v>2025</v>
       </c>
@@ -14105,8 +14860,8 @@
       </c>
       <c r="D842" s="2"/>
     </row>
-    <row r="843" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A843" s="3">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A843" s="5">
         <v>2025</v>
       </c>
       <c r="B843" s="2" t="s">
@@ -14115,9 +14870,11 @@
       <c r="C843" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D843" s="2"/>
-    </row>
-    <row r="844" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D843" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844" s="3">
         <v>2025</v>
       </c>
@@ -14127,9 +14884,9 @@
       <c r="C844" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D844" s="2"/>
-    </row>
-    <row r="845" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D844" s="6"/>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845" s="3">
         <v>2025</v>
       </c>
@@ -14139,9 +14896,9 @@
       <c r="C845" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D845" s="2"/>
-    </row>
-    <row r="846" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D845" s="6"/>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846" s="3">
         <v>2025</v>
       </c>
@@ -14151,9 +14908,9 @@
       <c r="C846" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D846" s="2"/>
-    </row>
-    <row r="847" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D846" s="6"/>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A847" s="3">
         <v>2025</v>
       </c>
@@ -14163,9 +14920,9 @@
       <c r="C847" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D847" s="2"/>
-    </row>
-    <row r="848" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D847" s="6"/>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A848" s="3">
         <v>2025</v>
       </c>
@@ -14175,9 +14932,9 @@
       <c r="C848" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D848" s="2"/>
-    </row>
-    <row r="849" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D848" s="6"/>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A849" s="3">
         <v>2025</v>
       </c>
@@ -14187,9 +14944,9 @@
       <c r="C849" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D849" s="2"/>
-    </row>
-    <row r="850" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D849" s="6"/>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A850" s="3">
         <v>2025</v>
       </c>
@@ -14199,9 +14956,9 @@
       <c r="C850" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D850" s="2"/>
-    </row>
-    <row r="851" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D850" s="6"/>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851" s="3">
         <v>2025</v>
       </c>
@@ -14211,9 +14968,9 @@
       <c r="C851" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D851" s="2"/>
-    </row>
-    <row r="852" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D851" s="6"/>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852" s="3">
         <v>2025</v>
       </c>
@@ -14223,9 +14980,9 @@
       <c r="C852" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D852" s="2"/>
-    </row>
-    <row r="853" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D852" s="6"/>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853" s="3">
         <v>2025</v>
       </c>
@@ -14235,9 +14992,9 @@
       <c r="C853" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D853" s="2"/>
-    </row>
-    <row r="854" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D853" s="6"/>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854" s="3">
         <v>2025</v>
       </c>
@@ -14247,9 +15004,9 @@
       <c r="C854" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D854" s="2"/>
-    </row>
-    <row r="855" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D854" s="6"/>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A855" s="3">
         <v>2025</v>
       </c>
@@ -14259,9 +15016,9 @@
       <c r="C855" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D855" s="2"/>
-    </row>
-    <row r="856" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D855" s="6"/>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A856" s="3">
         <v>2025</v>
       </c>
@@ -14271,9 +15028,9 @@
       <c r="C856" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D856" s="2"/>
-    </row>
-    <row r="857" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D856" s="6"/>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857" s="3">
         <v>2025</v>
       </c>
@@ -14283,9 +15040,9 @@
       <c r="C857" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D857" s="2"/>
-    </row>
-    <row r="858" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D857" s="6"/>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858" s="3">
         <v>2025</v>
       </c>
@@ -14295,9 +15052,9 @@
       <c r="C858" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D858" s="2"/>
-    </row>
-    <row r="859" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D858" s="6"/>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A859" s="3">
         <v>2025</v>
       </c>
@@ -14307,9 +15064,9 @@
       <c r="C859" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D859" s="2"/>
-    </row>
-    <row r="860" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D859" s="6"/>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860" s="3">
         <v>2025</v>
       </c>
@@ -14319,9 +15076,9 @@
       <c r="C860" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D860" s="2"/>
-    </row>
-    <row r="861" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D860" s="6"/>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861" s="3">
         <v>2025</v>
       </c>
@@ -14331,9 +15088,9 @@
       <c r="C861" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D861" s="2"/>
-    </row>
-    <row r="862" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D861" s="6"/>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862" s="3">
         <v>2025</v>
       </c>
@@ -14345,7 +15102,7 @@
       </c>
       <c r="D862" s="2"/>
     </row>
-    <row r="863" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863" s="3">
         <v>2025</v>
       </c>
@@ -14357,7 +15114,7 @@
       </c>
       <c r="D863" s="2"/>
     </row>
-    <row r="864" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864" s="3">
         <v>2025</v>
       </c>
@@ -14367,9 +15124,9 @@
       <c r="C864" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D864" s="2"/>
-    </row>
-    <row r="865" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D864" s="6"/>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A865" s="3">
         <v>2025</v>
       </c>
@@ -14379,9 +15136,9 @@
       <c r="C865" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D865" s="2"/>
-    </row>
-    <row r="866" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D865" s="6"/>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A866" s="3">
         <v>2025</v>
       </c>
@@ -14391,9 +15148,9 @@
       <c r="C866" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D866" s="2"/>
-    </row>
-    <row r="867" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D866" s="6"/>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A867" s="3">
         <v>2025</v>
       </c>
@@ -14403,9 +15160,9 @@
       <c r="C867" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D867" s="2"/>
-    </row>
-    <row r="868" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D867" s="6"/>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A868" s="3">
         <v>2025</v>
       </c>
@@ -14415,9 +15172,9 @@
       <c r="C868" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D868" s="2"/>
-    </row>
-    <row r="869" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D868" s="6"/>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A869" s="3">
         <v>2025</v>
       </c>
@@ -14427,9 +15184,9 @@
       <c r="C869" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D869" s="2"/>
-    </row>
-    <row r="870" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D869" s="6"/>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870" s="3">
         <v>2025</v>
       </c>
@@ -14439,9 +15196,9 @@
       <c r="C870" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D870" s="2"/>
-    </row>
-    <row r="871" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D870" s="6"/>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A871" s="3">
         <v>2025</v>
       </c>
@@ -14451,9 +15208,9 @@
       <c r="C871" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D871" s="2"/>
-    </row>
-    <row r="872" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D871" s="6"/>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A872" s="3">
         <v>2025</v>
       </c>
@@ -14463,9 +15220,9 @@
       <c r="C872" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D872" s="2"/>
-    </row>
-    <row r="873" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D872" s="6"/>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A873" s="3">
         <v>2025</v>
       </c>
@@ -14475,9 +15232,9 @@
       <c r="C873" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D873" s="2"/>
-    </row>
-    <row r="874" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D873" s="6"/>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A874" s="3">
         <v>2025</v>
       </c>
@@ -14487,9 +15244,9 @@
       <c r="C874" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D874" s="2"/>
-    </row>
-    <row r="875" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D874" s="6"/>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A875" s="3">
         <v>2025</v>
       </c>
@@ -14499,9 +15256,9 @@
       <c r="C875" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D875" s="2"/>
-    </row>
-    <row r="876" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D875" s="6"/>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A876" s="3">
         <v>2025</v>
       </c>
@@ -14511,9 +15268,9 @@
       <c r="C876" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D876" s="2"/>
-    </row>
-    <row r="877" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D876" s="6"/>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A877" s="3">
         <v>2025</v>
       </c>
@@ -14523,9 +15280,9 @@
       <c r="C877" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D877" s="2"/>
-    </row>
-    <row r="878" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D877" s="6"/>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A878" s="3">
         <v>2025</v>
       </c>
@@ -14535,9 +15292,9 @@
       <c r="C878" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D878" s="2"/>
-    </row>
-    <row r="879" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D878" s="6"/>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A879" s="3">
         <v>2025</v>
       </c>
@@ -14547,9 +15304,9 @@
       <c r="C879" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D879" s="2"/>
-    </row>
-    <row r="880" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D879" s="6"/>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A880" s="3">
         <v>2025</v>
       </c>
@@ -14559,9 +15316,9 @@
       <c r="C880" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D880" s="2"/>
-    </row>
-    <row r="881" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D880" s="6"/>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A881" s="3">
         <v>2025</v>
       </c>
@@ -14571,9 +15328,9 @@
       <c r="C881" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D881" s="2"/>
-    </row>
-    <row r="882" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D881" s="6"/>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882" s="3">
         <v>2025</v>
       </c>
@@ -14583,9 +15340,9 @@
       <c r="C882" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D882" s="2"/>
-    </row>
-    <row r="883" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D882" s="6"/>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A883" s="3">
         <v>2025</v>
       </c>
@@ -14597,7 +15354,7 @@
       </c>
       <c r="D883" s="2"/>
     </row>
-    <row r="884" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A884" s="3">
         <v>2025</v>
       </c>
@@ -14609,8 +15366,8 @@
       </c>
       <c r="D884" s="2"/>
     </row>
-    <row r="885" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A885" s="3">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A885" s="5">
         <v>2025</v>
       </c>
       <c r="B885" s="2" t="s">
@@ -14619,10 +15376,12 @@
       <c r="C885" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D885" s="2"/>
-    </row>
-    <row r="886" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A886" s="3">
+      <c r="D885" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A886" s="5">
         <v>2025</v>
       </c>
       <c r="B886" s="2" t="s">
@@ -14631,10 +15390,12 @@
       <c r="C886" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D886" s="2"/>
-    </row>
-    <row r="887" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A887" s="3">
+      <c r="D886" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A887" s="5">
         <v>2025</v>
       </c>
       <c r="B887" s="2" t="s">
@@ -14643,10 +15404,10 @@
       <c r="C887" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D887" s="2"/>
-    </row>
-    <row r="888" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A888" s="3">
+      <c r="D887" s="6"/>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A888" s="5">
         <v>2025</v>
       </c>
       <c r="B888" s="2" t="s">
@@ -14655,10 +15416,12 @@
       <c r="C888" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D888" s="2"/>
-    </row>
-    <row r="889" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A889" s="3">
+      <c r="D888" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A889" s="5">
         <v>2025</v>
       </c>
       <c r="B889" s="2" t="s">
@@ -14667,10 +15430,12 @@
       <c r="C889" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D889" s="2"/>
-    </row>
-    <row r="890" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A890" s="3">
+      <c r="D889" s="6" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A890" s="5">
         <v>2025</v>
       </c>
       <c r="B890" s="2" t="s">
@@ -14679,10 +15444,12 @@
       <c r="C890" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D890" s="2"/>
-    </row>
-    <row r="891" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A891" s="3">
+      <c r="D890" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A891" s="5">
         <v>2025</v>
       </c>
       <c r="B891" s="2" t="s">
@@ -14691,10 +15458,12 @@
       <c r="C891" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D891" s="2"/>
-    </row>
-    <row r="892" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A892" s="3">
+      <c r="D891" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A892" s="5">
         <v>2025</v>
       </c>
       <c r="B892" s="2" t="s">
@@ -14703,10 +15472,12 @@
       <c r="C892" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D892" s="2"/>
-    </row>
-    <row r="893" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A893" s="3">
+      <c r="D892" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A893" s="5">
         <v>2025</v>
       </c>
       <c r="B893" s="2" t="s">
@@ -14715,10 +15486,12 @@
       <c r="C893" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D893" s="2"/>
-    </row>
-    <row r="894" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A894" s="3">
+      <c r="D893" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A894" s="5">
         <v>2025</v>
       </c>
       <c r="B894" s="2" t="s">
@@ -14727,10 +15500,12 @@
       <c r="C894" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D894" s="2"/>
-    </row>
-    <row r="895" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A895" s="3">
+      <c r="D894" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A895" s="5">
         <v>2025</v>
       </c>
       <c r="B895" s="2" t="s">
@@ -14739,10 +15514,12 @@
       <c r="C895" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D895" s="2"/>
-    </row>
-    <row r="896" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A896" s="3">
+      <c r="D895" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A896" s="5">
         <v>2025</v>
       </c>
       <c r="B896" s="2" t="s">
@@ -14751,10 +15528,12 @@
       <c r="C896" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D896" s="2"/>
-    </row>
-    <row r="897" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A897" s="3">
+      <c r="D896" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A897" s="5">
         <v>2025</v>
       </c>
       <c r="B897" s="2" t="s">
@@ -14763,10 +15542,12 @@
       <c r="C897" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D897" s="2"/>
-    </row>
-    <row r="898" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A898" s="3">
+      <c r="D897" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A898" s="5">
         <v>2025</v>
       </c>
       <c r="B898" s="2" t="s">
@@ -14775,10 +15556,12 @@
       <c r="C898" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D898" s="2"/>
-    </row>
-    <row r="899" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A899" s="3">
+      <c r="D898" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A899" s="5">
         <v>2025</v>
       </c>
       <c r="B899" s="2" t="s">
@@ -14787,10 +15570,12 @@
       <c r="C899" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D899" s="2"/>
-    </row>
-    <row r="900" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A900" s="3">
+      <c r="D899" s="6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A900" s="5">
         <v>2025</v>
       </c>
       <c r="B900" s="2" t="s">
@@ -14799,10 +15584,12 @@
       <c r="C900" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D900" s="2"/>
-    </row>
-    <row r="901" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A901" s="3">
+      <c r="D900" s="6" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A901" s="5">
         <v>2025</v>
       </c>
       <c r="B901" s="2" t="s">
@@ -14811,10 +15598,12 @@
       <c r="C901" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D901" s="2"/>
-    </row>
-    <row r="902" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A902" s="3">
+      <c r="D901" s="6" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A902" s="5">
         <v>2025</v>
       </c>
       <c r="B902" s="2" t="s">
@@ -14823,10 +15612,12 @@
       <c r="C902" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D902" s="2"/>
-    </row>
-    <row r="903" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A903" s="3">
+      <c r="D902" s="6" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A903" s="5">
         <v>2025</v>
       </c>
       <c r="B903" s="2" t="s">
@@ -14835,7 +15626,691 @@
       <c r="C903" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D903" s="2"/>
+      <c r="D903" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A904" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B904" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C904" s="4"/>
+      <c r="D904" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A905" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C905" s="4"/>
+      <c r="D905" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A906" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B906" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C906" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D906" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A907" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B907" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C907" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="D907" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A908" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B908" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C908" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="D908" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A909" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B909" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C909" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="D909" s="6" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A910" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C910" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D910" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A911" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B911" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C911" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="D911" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A912" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B912" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C912" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="D912" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A913" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B913" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C913" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="D913" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A914" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B914" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C914" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D914" s="6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A915" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B915" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C915" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="D915" s="6" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A916" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B916" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C916" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="D916" s="6" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A917" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B917" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C917" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="D917" s="6" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A918" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B918" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C918" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D918" s="6" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A919" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B919" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C919" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="D919" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A920" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B920" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C920" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="D920" s="6" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A921" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B921" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C921" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="D921" s="6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A922" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B922" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C922" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D922" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A923" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B923" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C923" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="D923" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A924" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B924" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C924" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="D924" s="6" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A925" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B925" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C925" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="D925" s="6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A926" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B926" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C926" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D926" s="6" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A927" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B927" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C927" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="D927" s="6" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A928" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B928" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C928" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="D928" s="6" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A929" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B929" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C929" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="D929" s="6"/>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A930" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B930" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C930" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D930" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A931" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B931" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C931" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="D931" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A932" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B932" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C932" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="D932" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A933" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B933" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C933" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="D933" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A934" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B934" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C934" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D934" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A935" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B935" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C935" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="D935" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A936" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B936" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C936" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="D936" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A937" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B937" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C937" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="D937" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A938" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B938" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C938" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D938" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A939" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B939" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C939" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="D939" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A940" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B940" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C940" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="D940" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A941" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B941" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C941" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="D941" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A942" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B942" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C942" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D942" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A943" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B943" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C943" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="D943" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A944" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B944" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C944" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="D944" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A945" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B945" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C945" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="D945" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A946" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B946" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C946" s="4"/>
+      <c r="D946" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A947" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B947" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C947" s="4"/>
+      <c r="D947" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A948" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B948" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C948" s="4"/>
+      <c r="D948" s="6" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A949" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B949" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C949" s="4"/>
+      <c r="D949" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A950" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B950" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C950" s="4"/>
+      <c r="D950" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A951" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B951" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C951" s="4"/>
+      <c r="D951" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A952" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B952" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C952" s="4"/>
+      <c r="D952" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A953" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B953" s="2"/>
+      <c r="C953" s="4"/>
+      <c r="D953" s="2"/>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A954" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B954" s="2"/>
+      <c r="C954" s="4"/>
+      <c r="D954" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14973,4 +16448,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268BF321-94A1-45D8-A027-D9D5E55CE4EA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A7">
+    <sortCondition ref="A1:A7"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Municipio Reyes de Juarez/Paginas.xlsx
+++ b/Municipio Reyes de Juarez/Paginas.xlsx
@@ -1,42 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SERVER\Documents\templates\Municipio Reyes de Juarez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IPPI 11\Documents\templates\Municipio Reyes de Juarez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62AEB36-4971-406F-B266-16A736D646BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3FA387-898B-4AE0-917E-29432495367A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONAC" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2925" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="995">
   <si>
     <t>AÑO</t>
   </si>
@@ -2979,6 +2973,48 @@
   </si>
   <si>
     <t>2026/Cuenta Pública 2023/1</t>
+  </si>
+  <si>
+    <t>1. ESF</t>
+  </si>
+  <si>
+    <t>2. IADPOP</t>
+  </si>
+  <si>
+    <t>3. IAODF</t>
+  </si>
+  <si>
+    <t>4. BL</t>
+  </si>
+  <si>
+    <t>5. EAID</t>
+  </si>
+  <si>
+    <t>6a. EAEPED-COG-CC</t>
+  </si>
+  <si>
+    <t>6b. EAEPD-CA</t>
+  </si>
+  <si>
+    <t>6c. EAEPD-CF-FF</t>
+  </si>
+  <si>
+    <t>6d. EAEPD-LDF-CSPC</t>
+  </si>
+  <si>
+    <t>7a. PI</t>
+  </si>
+  <si>
+    <t>7b. PE</t>
+  </si>
+  <si>
+    <t>7c. RI</t>
+  </si>
+  <si>
+    <t>7d. RE</t>
+  </si>
+  <si>
+    <t>8. ISEA</t>
   </si>
 </sst>
 </file>
@@ -3407,8 +3443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B984" sqref="B984"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C974" sqref="C974:C987"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17650,15 +17686,130 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268BF321-94A1-45D8-A027-D9D5E55CE4EA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>994</v>
+      </c>
+    </row>
+  </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A7">
     <sortCondition ref="A1:A7"/>
   </sortState>

--- a/Municipio Reyes de Juarez/Paginas.xlsx
+++ b/Municipio Reyes de Juarez/Paginas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IPPI 11\Documents\templates\Municipio Reyes de Juarez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\GitHub\templates\Municipio Reyes de Juarez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3FA387-898B-4AE0-917E-29432495367A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1E23F5-AB17-4A75-B529-7150E9DA789B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-915" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONAC" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -3078,7 +3075,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3112,15 +3109,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3441,21 +3429,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:E1029"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C974" sqref="C974:C987"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1033" sqref="C1033"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1"/>
     <col min="3" max="3" width="80" customWidth="1"/>
-    <col min="4" max="4" width="71.42578125" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" customWidth="1"/>
+    <col min="4" max="4" width="71.44140625" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3461,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>2018</v>
       </c>
@@ -3489,7 +3478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2018</v>
       </c>
@@ -3506,7 +3495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2018</v>
       </c>
@@ -3523,7 +3512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2018</v>
       </c>
@@ -3540,7 +3529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2018</v>
       </c>
@@ -3557,7 +3546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2018</v>
       </c>
@@ -3574,7 +3563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>2018</v>
       </c>
@@ -3591,7 +3580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>2018</v>
       </c>
@@ -3608,7 +3597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>2018</v>
       </c>
@@ -3625,7 +3614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>2018</v>
       </c>
@@ -3642,7 +3631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>2018</v>
       </c>
@@ -3659,7 +3648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>2018</v>
       </c>
@@ -3676,7 +3665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>2018</v>
       </c>
@@ -3693,7 +3682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>2018</v>
       </c>
@@ -3710,7 +3699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2018</v>
       </c>
@@ -3727,7 +3716,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2018</v>
       </c>
@@ -3744,7 +3733,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>2018</v>
       </c>
@@ -3761,7 +3750,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>2018</v>
       </c>
@@ -3778,7 +3767,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>2018</v>
       </c>
@@ -3795,7 +3784,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>2018</v>
       </c>
@@ -3812,7 +3801,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>2018</v>
       </c>
@@ -3829,7 +3818,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>2018</v>
       </c>
@@ -3846,7 +3835,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2018</v>
       </c>
@@ -3863,7 +3852,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>2018</v>
       </c>
@@ -3880,7 +3869,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>2018</v>
       </c>
@@ -3897,7 +3886,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>2018</v>
       </c>
@@ -3914,7 +3903,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>2018</v>
       </c>
@@ -3931,7 +3920,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>2018</v>
       </c>
@@ -3948,7 +3937,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>2018</v>
       </c>
@@ -3965,7 +3954,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>2018</v>
       </c>
@@ -3982,7 +3971,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>2018</v>
       </c>
@@ -3999,7 +3988,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>2018</v>
       </c>
@@ -4016,7 +4005,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>2018</v>
       </c>
@@ -4033,7 +4022,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>2018</v>
       </c>
@@ -4050,7 +4039,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>2018</v>
       </c>
@@ -4067,7 +4056,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>2018</v>
       </c>
@@ -4084,7 +4073,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>2018</v>
       </c>
@@ -4101,7 +4090,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>2018</v>
       </c>
@@ -4118,7 +4107,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>2018</v>
       </c>
@@ -4130,7 +4119,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>2018</v>
       </c>
@@ -4142,7 +4131,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>2018</v>
       </c>
@@ -4156,7 +4145,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>2018</v>
       </c>
@@ -4170,7 +4159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>2018</v>
       </c>
@@ -4184,7 +4173,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>2018</v>
       </c>
@@ -4198,7 +4187,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>2018</v>
       </c>
@@ -4212,7 +4201,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>2018</v>
       </c>
@@ -4226,7 +4215,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>2018</v>
       </c>
@@ -4240,7 +4229,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>2018</v>
       </c>
@@ -4254,7 +4243,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>2018</v>
       </c>
@@ -4268,7 +4257,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>2018</v>
       </c>
@@ -4282,7 +4271,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>2018</v>
       </c>
@@ -4296,7 +4285,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>2018</v>
       </c>
@@ -4310,7 +4299,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>2018</v>
       </c>
@@ -4324,7 +4313,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>2018</v>
       </c>
@@ -4338,7 +4327,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>2018</v>
       </c>
@@ -4352,7 +4341,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>2018</v>
       </c>
@@ -4366,7 +4355,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>2018</v>
       </c>
@@ -4380,7 +4369,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>2018</v>
       </c>
@@ -4394,7 +4383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>2018</v>
       </c>
@@ -4408,7 +4397,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>2018</v>
       </c>
@@ -4420,7 +4409,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>2018</v>
       </c>
@@ -4432,7 +4421,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>2018</v>
       </c>
@@ -4444,7 +4433,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>2018</v>
       </c>
@@ -4456,7 +4445,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>2018</v>
       </c>
@@ -4468,7 +4457,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>2018</v>
       </c>
@@ -4480,7 +4469,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>2018</v>
       </c>
@@ -4492,7 +4481,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>2018</v>
       </c>
@@ -4504,7 +4493,7 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>2018</v>
       </c>
@@ -4516,7 +4505,7 @@
       </c>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>2018</v>
       </c>
@@ -4528,7 +4517,7 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>2018</v>
       </c>
@@ -4540,7 +4529,7 @@
       </c>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>2018</v>
       </c>
@@ -4552,7 +4541,7 @@
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>2018</v>
       </c>
@@ -4566,7 +4555,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>2018</v>
       </c>
@@ -4580,7 +4569,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>2018</v>
       </c>
@@ -4594,7 +4583,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>2018</v>
       </c>
@@ -4608,7 +4597,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>2018</v>
       </c>
@@ -4622,7 +4611,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>2018</v>
       </c>
@@ -4636,7 +4625,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>2018</v>
       </c>
@@ -4650,7 +4639,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>2018</v>
       </c>
@@ -4664,7 +4653,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>2018</v>
       </c>
@@ -4678,7 +4667,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>2018</v>
       </c>
@@ -4692,7 +4681,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>2018</v>
       </c>
@@ -4706,7 +4695,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>2018</v>
       </c>
@@ -4720,7 +4709,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>2018</v>
       </c>
@@ -4734,7 +4723,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>2018</v>
       </c>
@@ -4748,7 +4737,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>2018</v>
       </c>
@@ -4762,7 +4751,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>2018</v>
       </c>
@@ -4776,7 +4765,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>2018</v>
       </c>
@@ -4790,7 +4779,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>2018</v>
       </c>
@@ -4804,7 +4793,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>2018</v>
       </c>
@@ -4818,7 +4807,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>2018</v>
       </c>
@@ -4830,7 +4819,7 @@
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>2018</v>
       </c>
@@ -4842,7 +4831,7 @@
       </c>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>2018</v>
       </c>
@@ -4854,7 +4843,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>2018</v>
       </c>
@@ -4866,7 +4855,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>2018</v>
       </c>
@@ -4878,7 +4867,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>2018</v>
       </c>
@@ -4890,7 +4879,7 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>2018</v>
       </c>
@@ -4902,7 +4891,7 @@
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>2018</v>
       </c>
@@ -4914,7 +4903,7 @@
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>2018</v>
       </c>
@@ -4926,7 +4915,7 @@
       </c>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>2018</v>
       </c>
@@ -4938,7 +4927,7 @@
       </c>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>2018</v>
       </c>
@@ -4950,7 +4939,7 @@
       </c>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>2018</v>
       </c>
@@ -4962,7 +4951,7 @@
       </c>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>2018</v>
       </c>
@@ -4976,7 +4965,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>2018</v>
       </c>
@@ -4990,7 +4979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>2018</v>
       </c>
@@ -5004,7 +4993,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>2018</v>
       </c>
@@ -5018,7 +5007,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>2018</v>
       </c>
@@ -5032,7 +5021,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>2018</v>
       </c>
@@ -5046,7 +5035,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>2018</v>
       </c>
@@ -5060,7 +5049,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>2018</v>
       </c>
@@ -5074,7 +5063,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>2018</v>
       </c>
@@ -5088,7 +5077,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>2018</v>
       </c>
@@ -5102,7 +5091,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>2018</v>
       </c>
@@ -5116,7 +5105,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>2018</v>
       </c>
@@ -5130,7 +5119,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>2018</v>
       </c>
@@ -5144,7 +5133,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>2018</v>
       </c>
@@ -5158,7 +5147,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>2018</v>
       </c>
@@ -5172,7 +5161,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>2018</v>
       </c>
@@ -5186,7 +5175,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>2018</v>
       </c>
@@ -5200,7 +5189,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>2018</v>
       </c>
@@ -5214,7 +5203,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>2018</v>
       </c>
@@ -5228,7 +5217,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>2018</v>
       </c>
@@ -5240,7 +5229,7 @@
       </c>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>2018</v>
       </c>
@@ -5252,7 +5241,7 @@
       </c>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>2018</v>
       </c>
@@ -5264,7 +5253,7 @@
       </c>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>2018</v>
       </c>
@@ -5276,7 +5265,7 @@
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>2018</v>
       </c>
@@ -5288,7 +5277,7 @@
       </c>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>2018</v>
       </c>
@@ -5300,7 +5289,7 @@
       </c>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>2018</v>
       </c>
@@ -5312,7 +5301,7 @@
       </c>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>2018</v>
       </c>
@@ -5324,7 +5313,7 @@
       </c>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>2018</v>
       </c>
@@ -5336,7 +5325,7 @@
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>2018</v>
       </c>
@@ -5348,7 +5337,7 @@
       </c>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>2018</v>
       </c>
@@ -5360,7 +5349,7 @@
       </c>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>2018</v>
       </c>
@@ -5372,7 +5361,7 @@
       </c>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>2018</v>
       </c>
@@ -5386,7 +5375,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>2018</v>
       </c>
@@ -5400,7 +5389,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>2018</v>
       </c>
@@ -5414,7 +5403,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>2018</v>
       </c>
@@ -5428,7 +5417,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>2018</v>
       </c>
@@ -5442,7 +5431,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>2018</v>
       </c>
@@ -5456,7 +5445,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>2018</v>
       </c>
@@ -5470,7 +5459,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>2018</v>
       </c>
@@ -5484,7 +5473,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>2018</v>
       </c>
@@ -5498,7 +5487,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>2018</v>
       </c>
@@ -5512,7 +5501,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>2018</v>
       </c>
@@ -5526,7 +5515,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>2018</v>
       </c>
@@ -5540,7 +5529,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>2018</v>
       </c>
@@ -5554,7 +5543,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>2018</v>
       </c>
@@ -5568,7 +5557,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>2018</v>
       </c>
@@ -5582,7 +5571,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>2018</v>
       </c>
@@ -5596,7 +5585,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>2018</v>
       </c>
@@ -5610,7 +5599,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>2018</v>
       </c>
@@ -5624,7 +5613,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>2018</v>
       </c>
@@ -5638,7 +5627,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>2018</v>
       </c>
@@ -5650,7 +5639,7 @@
       </c>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>2018</v>
       </c>
@@ -5662,7 +5651,7 @@
       </c>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>2018</v>
       </c>
@@ -5674,7 +5663,7 @@
       </c>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>2018</v>
       </c>
@@ -5686,7 +5675,7 @@
       </c>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>2018</v>
       </c>
@@ -5698,7 +5687,7 @@
       </c>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>2018</v>
       </c>
@@ -5710,7 +5699,7 @@
       </c>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
         <v>2018</v>
       </c>
@@ -5722,7 +5711,7 @@
       </c>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>2018</v>
       </c>
@@ -5734,7 +5723,7 @@
       </c>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
         <v>2018</v>
       </c>
@@ -5746,7 +5735,7 @@
       </c>
       <c r="D162" s="2"/>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>2018</v>
       </c>
@@ -5758,7 +5747,7 @@
       </c>
       <c r="D163" s="2"/>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
         <v>2019</v>
       </c>
@@ -5772,7 +5761,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
         <v>2019</v>
       </c>
@@ -5786,7 +5775,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
         <v>2019</v>
       </c>
@@ -5800,7 +5789,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>2019</v>
       </c>
@@ -5814,7 +5803,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
         <v>2019</v>
       </c>
@@ -5828,7 +5817,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
         <v>2019</v>
       </c>
@@ -5842,7 +5831,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
         <v>2019</v>
       </c>
@@ -5856,7 +5845,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
         <v>2019</v>
       </c>
@@ -5870,7 +5859,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
         <v>2019</v>
       </c>
@@ -5884,7 +5873,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
         <v>2019</v>
       </c>
@@ -5898,7 +5887,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
         <v>2019</v>
       </c>
@@ -5912,7 +5901,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
         <v>2019</v>
       </c>
@@ -5926,7 +5915,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
         <v>2019</v>
       </c>
@@ -5940,7 +5929,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
         <v>2019</v>
       </c>
@@ -5954,7 +5943,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
         <v>2019</v>
       </c>
@@ -5968,7 +5957,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
         <v>2019</v>
       </c>
@@ -5982,7 +5971,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
         <v>2019</v>
       </c>
@@ -5996,7 +5985,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
         <v>2019</v>
       </c>
@@ -6010,7 +5999,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
         <v>2019</v>
       </c>
@@ -6024,7 +6013,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
         <v>2019</v>
       </c>
@@ -6038,7 +6027,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
         <v>2019</v>
       </c>
@@ -6052,7 +6041,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
         <v>2019</v>
       </c>
@@ -6066,7 +6055,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
         <v>2019</v>
       </c>
@@ -6080,7 +6069,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
         <v>2019</v>
       </c>
@@ -6094,7 +6083,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
         <v>2019</v>
       </c>
@@ -6108,7 +6097,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
         <v>2019</v>
       </c>
@@ -6122,7 +6111,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
         <v>2019</v>
       </c>
@@ -6136,7 +6125,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
         <v>2019</v>
       </c>
@@ -6150,7 +6139,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>2019</v>
       </c>
@@ -6164,7 +6153,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>2019</v>
       </c>
@@ -6178,7 +6167,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>2019</v>
       </c>
@@ -6192,7 +6181,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>2019</v>
       </c>
@@ -6206,7 +6195,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>2019</v>
       </c>
@@ -6220,7 +6209,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>2019</v>
       </c>
@@ -6234,7 +6223,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>2019</v>
       </c>
@@ -6248,7 +6237,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>2019</v>
       </c>
@@ -6262,7 +6251,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>2019</v>
       </c>
@@ -6276,7 +6265,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>2019</v>
       </c>
@@ -6290,7 +6279,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>2019</v>
       </c>
@@ -6304,7 +6293,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>2019</v>
       </c>
@@ -6318,7 +6307,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>2019</v>
       </c>
@@ -6332,7 +6321,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>2019</v>
       </c>
@@ -6346,7 +6335,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>2019</v>
       </c>
@@ -6360,7 +6349,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>2019</v>
       </c>
@@ -6374,7 +6363,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>2019</v>
       </c>
@@ -6388,7 +6377,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>2019</v>
       </c>
@@ -6402,7 +6391,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>2019</v>
       </c>
@@ -6416,7 +6405,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>2019</v>
       </c>
@@ -6430,7 +6419,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>2019</v>
       </c>
@@ -6444,7 +6433,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>2019</v>
       </c>
@@ -6458,7 +6447,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>2019</v>
       </c>
@@ -6472,7 +6461,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>2019</v>
       </c>
@@ -6486,7 +6475,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>2019</v>
       </c>
@@ -6500,7 +6489,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>2019</v>
       </c>
@@ -6514,7 +6503,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>2019</v>
       </c>
@@ -6528,7 +6517,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>2019</v>
       </c>
@@ -6542,7 +6531,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5">
         <v>2019</v>
       </c>
@@ -6554,7 +6543,7 @@
       </c>
       <c r="D220" s="2"/>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="5">
         <v>2019</v>
       </c>
@@ -6566,7 +6555,7 @@
       </c>
       <c r="D221" s="2"/>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5">
         <v>2019</v>
       </c>
@@ -6580,7 +6569,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5">
         <v>2019</v>
       </c>
@@ -6594,7 +6583,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5">
         <v>2019</v>
       </c>
@@ -6608,7 +6597,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5">
         <v>2019</v>
       </c>
@@ -6622,7 +6611,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5">
         <v>2019</v>
       </c>
@@ -6636,7 +6625,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5">
         <v>2019</v>
       </c>
@@ -6650,7 +6639,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5">
         <v>2019</v>
       </c>
@@ -6664,7 +6653,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5">
         <v>2019</v>
       </c>
@@ -6678,7 +6667,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5">
         <v>2019</v>
       </c>
@@ -6692,7 +6681,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5">
         <v>2019</v>
       </c>
@@ -6706,7 +6695,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5">
         <v>2019</v>
       </c>
@@ -6720,7 +6709,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5">
         <v>2019</v>
       </c>
@@ -6734,7 +6723,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5">
         <v>2019</v>
       </c>
@@ -6748,7 +6737,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5">
         <v>2019</v>
       </c>
@@ -6762,7 +6751,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5">
         <v>2019</v>
       </c>
@@ -6776,7 +6765,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5">
         <v>2019</v>
       </c>
@@ -6790,7 +6779,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5">
         <v>2019</v>
       </c>
@@ -6804,7 +6793,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5">
         <v>2019</v>
       </c>
@@ -6818,7 +6807,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5">
         <v>2019</v>
       </c>
@@ -6832,7 +6821,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5">
         <v>2019</v>
       </c>
@@ -6844,7 +6833,7 @@
       </c>
       <c r="D241" s="2"/>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5">
         <v>2019</v>
       </c>
@@ -6856,7 +6845,7 @@
       </c>
       <c r="D242" s="2"/>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="5">
         <v>2019</v>
       </c>
@@ -6870,7 +6859,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5">
         <v>2019</v>
       </c>
@@ -6884,7 +6873,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5">
         <v>2019</v>
       </c>
@@ -6898,7 +6887,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5">
         <v>2019</v>
       </c>
@@ -6912,7 +6901,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5">
         <v>2019</v>
       </c>
@@ -6926,7 +6915,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5">
         <v>2019</v>
       </c>
@@ -6940,7 +6929,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="5">
         <v>2019</v>
       </c>
@@ -6954,7 +6943,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5">
         <v>2019</v>
       </c>
@@ -6968,7 +6957,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5">
         <v>2019</v>
       </c>
@@ -6982,7 +6971,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5">
         <v>2019</v>
       </c>
@@ -6996,7 +6985,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5">
         <v>2019</v>
       </c>
@@ -7010,7 +6999,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5">
         <v>2019</v>
       </c>
@@ -7024,7 +7013,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5">
         <v>2019</v>
       </c>
@@ -7038,7 +7027,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5">
         <v>2019</v>
       </c>
@@ -7052,7 +7041,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5">
         <v>2019</v>
       </c>
@@ -7066,7 +7055,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5">
         <v>2019</v>
       </c>
@@ -7080,7 +7069,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5">
         <v>2019</v>
       </c>
@@ -7094,7 +7083,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5">
         <v>2019</v>
       </c>
@@ -7108,7 +7097,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5">
         <v>2019</v>
       </c>
@@ -7122,7 +7111,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5">
         <v>2019</v>
       </c>
@@ -7134,7 +7123,7 @@
       </c>
       <c r="D262" s="2"/>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5">
         <v>2019</v>
       </c>
@@ -7146,7 +7135,7 @@
       </c>
       <c r="D263" s="2"/>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="5">
         <v>2019</v>
       </c>
@@ -7160,7 +7149,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5">
         <v>2019</v>
       </c>
@@ -7174,7 +7163,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="5">
         <v>2019</v>
       </c>
@@ -7188,7 +7177,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5">
         <v>2019</v>
       </c>
@@ -7202,7 +7191,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5">
         <v>2019</v>
       </c>
@@ -7216,7 +7205,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5">
         <v>2019</v>
       </c>
@@ -7230,7 +7219,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5">
         <v>2019</v>
       </c>
@@ -7244,7 +7233,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5">
         <v>2019</v>
       </c>
@@ -7258,7 +7247,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5">
         <v>2019</v>
       </c>
@@ -7272,7 +7261,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5">
         <v>2019</v>
       </c>
@@ -7286,7 +7275,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="5">
         <v>2019</v>
       </c>
@@ -7300,7 +7289,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5">
         <v>2019</v>
       </c>
@@ -7314,7 +7303,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5">
         <v>2019</v>
       </c>
@@ -7328,7 +7317,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5">
         <v>2019</v>
       </c>
@@ -7342,7 +7331,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5">
         <v>2019</v>
       </c>
@@ -7356,7 +7345,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5">
         <v>2019</v>
       </c>
@@ -7370,7 +7359,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5">
         <v>2019</v>
       </c>
@@ -7384,7 +7373,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5">
         <v>2019</v>
       </c>
@@ -7398,7 +7387,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="5">
         <v>2019</v>
       </c>
@@ -7412,7 +7401,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5">
         <v>2019</v>
       </c>
@@ -7424,7 +7413,7 @@
       </c>
       <c r="D283" s="2"/>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="5">
         <v>2019</v>
       </c>
@@ -7436,7 +7425,7 @@
       </c>
       <c r="D284" s="2"/>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="5">
         <v>2019</v>
       </c>
@@ -7450,7 +7439,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="5">
         <v>2019</v>
       </c>
@@ -7464,7 +7453,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5">
         <v>2019</v>
       </c>
@@ -7478,7 +7467,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5">
         <v>2019</v>
       </c>
@@ -7492,7 +7481,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5">
         <v>2019</v>
       </c>
@@ -7506,7 +7495,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5">
         <v>2019</v>
       </c>
@@ -7520,7 +7509,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5">
         <v>2019</v>
       </c>
@@ -7534,7 +7523,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5">
         <v>2019</v>
       </c>
@@ -7548,7 +7537,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="5">
         <v>2019</v>
       </c>
@@ -7562,7 +7551,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5">
         <v>2019</v>
       </c>
@@ -7576,7 +7565,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5">
         <v>2019</v>
       </c>
@@ -7590,7 +7579,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5">
         <v>2019</v>
       </c>
@@ -7604,7 +7593,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5">
         <v>2019</v>
       </c>
@@ -7618,7 +7607,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="5">
         <v>2019</v>
       </c>
@@ -7632,7 +7621,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="5">
         <v>2019</v>
       </c>
@@ -7646,7 +7635,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="5">
         <v>2019</v>
       </c>
@@ -7660,7 +7649,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5">
         <v>2019</v>
       </c>
@@ -7674,7 +7663,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="5">
         <v>2019</v>
       </c>
@@ -7688,7 +7677,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="5">
         <v>2019</v>
       </c>
@@ -7702,7 +7691,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="5">
         <v>2020</v>
       </c>
@@ -7716,7 +7705,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5">
         <v>2020</v>
       </c>
@@ -7730,7 +7719,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="5">
         <v>2020</v>
       </c>
@@ -7744,7 +7733,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="5">
         <v>2020</v>
       </c>
@@ -7758,7 +7747,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="5">
         <v>2020</v>
       </c>
@@ -7772,7 +7761,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5">
         <v>2020</v>
       </c>
@@ -7786,7 +7775,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="5">
         <v>2020</v>
       </c>
@@ -7800,7 +7789,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="5">
         <v>2020</v>
       </c>
@@ -7814,7 +7803,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="5">
         <v>2020</v>
       </c>
@@ -7828,7 +7817,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5">
         <v>2020</v>
       </c>
@@ -7842,7 +7831,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="5">
         <v>2020</v>
       </c>
@@ -7856,7 +7845,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="5">
         <v>2020</v>
       </c>
@@ -7870,7 +7859,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="5">
         <v>2020</v>
       </c>
@@ -7884,7 +7873,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="5">
         <v>2020</v>
       </c>
@@ -7898,7 +7887,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="5">
         <v>2020</v>
       </c>
@@ -7912,7 +7901,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="5">
         <v>2020</v>
       </c>
@@ -7926,7 +7915,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="5">
         <v>2020</v>
       </c>
@@ -7940,7 +7929,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="5">
         <v>2020</v>
       </c>
@@ -7954,7 +7943,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="5">
         <v>2020</v>
       </c>
@@ -7968,7 +7957,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="5">
         <v>2020</v>
       </c>
@@ -7982,7 +7971,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="5">
         <v>2020</v>
       </c>
@@ -7996,7 +7985,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="5">
         <v>2020</v>
       </c>
@@ -8010,7 +7999,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="5">
         <v>2020</v>
       </c>
@@ -8024,7 +8013,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="5">
         <v>2020</v>
       </c>
@@ -8038,7 +8027,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="5">
         <v>2020</v>
       </c>
@@ -8052,7 +8041,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="5">
         <v>2020</v>
       </c>
@@ -8066,7 +8055,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="5">
         <v>2020</v>
       </c>
@@ -8080,7 +8069,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="5">
         <v>2020</v>
       </c>
@@ -8094,7 +8083,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="5">
         <v>2020</v>
       </c>
@@ -8108,7 +8097,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="5">
         <v>2020</v>
       </c>
@@ -8122,7 +8111,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="5">
         <v>2020</v>
       </c>
@@ -8136,7 +8125,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="5">
         <v>2020</v>
       </c>
@@ -8150,7 +8139,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="5">
         <v>2020</v>
       </c>
@@ -8164,7 +8153,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="5">
         <v>2020</v>
       </c>
@@ -8178,7 +8167,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="5">
         <v>2020</v>
       </c>
@@ -8192,7 +8181,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="5">
         <v>2020</v>
       </c>
@@ -8206,7 +8195,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="5">
         <v>2020</v>
       </c>
@@ -8220,7 +8209,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="5">
         <v>2020</v>
       </c>
@@ -8234,7 +8223,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="5">
         <v>2020</v>
       </c>
@@ -8248,7 +8237,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="5">
         <v>2020</v>
       </c>
@@ -8262,7 +8251,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="5">
         <v>2020</v>
       </c>
@@ -8276,7 +8265,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="5">
         <v>2020</v>
       </c>
@@ -8290,7 +8279,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="5">
         <v>2020</v>
       </c>
@@ -8304,7 +8293,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="5">
         <v>2020</v>
       </c>
@@ -8318,7 +8307,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="5">
         <v>2020</v>
       </c>
@@ -8332,7 +8321,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="5">
         <v>2020</v>
       </c>
@@ -8346,7 +8335,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="5">
         <v>2020</v>
       </c>
@@ -8360,7 +8349,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="5">
         <v>2020</v>
       </c>
@@ -8374,7 +8363,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="5">
         <v>2020</v>
       </c>
@@ -8388,7 +8377,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="5">
         <v>2020</v>
       </c>
@@ -8402,7 +8391,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="5">
         <v>2020</v>
       </c>
@@ -8416,7 +8405,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="5">
         <v>2020</v>
       </c>
@@ -8430,7 +8419,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="5">
         <v>2020</v>
       </c>
@@ -8444,7 +8433,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="5">
         <v>2020</v>
       </c>
@@ -8458,7 +8447,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="5">
         <v>2020</v>
       </c>
@@ -8472,7 +8461,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="5">
         <v>2020</v>
       </c>
@@ -8486,7 +8475,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="5">
         <v>2020</v>
       </c>
@@ -8500,7 +8489,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="5">
         <v>2020</v>
       </c>
@@ -8514,7 +8503,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="5">
         <v>2020</v>
       </c>
@@ -8528,7 +8517,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="5">
         <v>2020</v>
       </c>
@@ -8542,7 +8531,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="5">
         <v>2020</v>
       </c>
@@ -8556,7 +8545,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="5">
         <v>2020</v>
       </c>
@@ -8570,7 +8559,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="5">
         <v>2020</v>
       </c>
@@ -8584,7 +8573,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="5">
         <v>2020</v>
       </c>
@@ -8598,7 +8587,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="5">
         <v>2020</v>
       </c>
@@ -8612,7 +8601,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="5">
         <v>2020</v>
       </c>
@@ -8626,7 +8615,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="5">
         <v>2020</v>
       </c>
@@ -8640,7 +8629,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="5">
         <v>2020</v>
       </c>
@@ -8654,7 +8643,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="5">
         <v>2020</v>
       </c>
@@ -8668,7 +8657,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="5">
         <v>2020</v>
       </c>
@@ -8682,7 +8671,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="5">
         <v>2020</v>
       </c>
@@ -8696,7 +8685,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="5">
         <v>2020</v>
       </c>
@@ -8710,7 +8699,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="5">
         <v>2020</v>
       </c>
@@ -8724,7 +8713,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="5">
         <v>2020</v>
       </c>
@@ -8738,7 +8727,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="5">
         <v>2020</v>
       </c>
@@ -8752,7 +8741,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="5">
         <v>2020</v>
       </c>
@@ -8766,7 +8755,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="5">
         <v>2020</v>
       </c>
@@ -8780,7 +8769,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="5">
         <v>2020</v>
       </c>
@@ -8794,7 +8783,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="5">
         <v>2020</v>
       </c>
@@ -8808,7 +8797,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="5">
         <v>2020</v>
       </c>
@@ -8822,7 +8811,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3">
         <v>2020</v>
       </c>
@@ -8834,7 +8823,7 @@
       </c>
       <c r="D384" s="2"/>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3">
         <v>2020</v>
       </c>
@@ -8846,7 +8835,7 @@
       </c>
       <c r="D385" s="2"/>
     </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="5">
         <v>2020</v>
       </c>
@@ -8860,7 +8849,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="5">
         <v>2020</v>
       </c>
@@ -8874,7 +8863,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="5">
         <v>2020</v>
       </c>
@@ -8888,7 +8877,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="5">
         <v>2020</v>
       </c>
@@ -8902,7 +8891,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="5">
         <v>2020</v>
       </c>
@@ -8916,7 +8905,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="5">
         <v>2020</v>
       </c>
@@ -8930,7 +8919,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="5">
         <v>2020</v>
       </c>
@@ -8944,7 +8933,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="5">
         <v>2020</v>
       </c>
@@ -8958,7 +8947,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="5">
         <v>2020</v>
       </c>
@@ -8972,7 +8961,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="5">
         <v>2020</v>
       </c>
@@ -8986,7 +8975,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="5">
         <v>2020</v>
       </c>
@@ -9000,7 +8989,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="5">
         <v>2020</v>
       </c>
@@ -9014,7 +9003,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="5">
         <v>2020</v>
       </c>
@@ -9028,7 +9017,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="5">
         <v>2020</v>
       </c>
@@ -9042,7 +9031,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="5">
         <v>2020</v>
       </c>
@@ -9056,7 +9045,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="5">
         <v>2020</v>
       </c>
@@ -9070,7 +9059,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="5">
         <v>2020</v>
       </c>
@@ -9084,7 +9073,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="5">
         <v>2020</v>
       </c>
@@ -9098,7 +9087,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="5">
         <v>2020</v>
       </c>
@@ -9112,7 +9101,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="3">
         <v>2020</v>
       </c>
@@ -9124,7 +9113,7 @@
       </c>
       <c r="D405" s="2"/>
     </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="3">
         <v>2020</v>
       </c>
@@ -9136,7 +9125,7 @@
       </c>
       <c r="D406" s="2"/>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3">
         <v>2020</v>
       </c>
@@ -9148,7 +9137,7 @@
       </c>
       <c r="D407" s="2"/>
     </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3">
         <v>2020</v>
       </c>
@@ -9160,7 +9149,7 @@
       </c>
       <c r="D408" s="2"/>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3">
         <v>2020</v>
       </c>
@@ -9172,7 +9161,7 @@
       </c>
       <c r="D409" s="2"/>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3">
         <v>2020</v>
       </c>
@@ -9184,7 +9173,7 @@
       </c>
       <c r="D410" s="2"/>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3">
         <v>2020</v>
       </c>
@@ -9196,7 +9185,7 @@
       </c>
       <c r="D411" s="2"/>
     </row>
-    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3">
         <v>2020</v>
       </c>
@@ -9208,7 +9197,7 @@
       </c>
       <c r="D412" s="2"/>
     </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="3">
         <v>2020</v>
       </c>
@@ -9220,7 +9209,7 @@
       </c>
       <c r="D413" s="2"/>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
         <v>2020</v>
       </c>
@@ -9232,7 +9221,7 @@
       </c>
       <c r="D414" s="2"/>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3">
         <v>2020</v>
       </c>
@@ -9244,7 +9233,7 @@
       </c>
       <c r="D415" s="2"/>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3">
         <v>2020</v>
       </c>
@@ -9256,7 +9245,7 @@
       </c>
       <c r="D416" s="2"/>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="5">
         <v>2020</v>
       </c>
@@ -9270,7 +9259,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="5">
         <v>2020</v>
       </c>
@@ -9284,7 +9273,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="5">
         <v>2020</v>
       </c>
@@ -9298,7 +9287,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="5">
         <v>2020</v>
       </c>
@@ -9312,7 +9301,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="5">
         <v>2020</v>
       </c>
@@ -9326,7 +9315,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="5">
         <v>2020</v>
       </c>
@@ -9340,7 +9329,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="5">
         <v>2020</v>
       </c>
@@ -9354,7 +9343,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="5">
         <v>2020</v>
       </c>
@@ -9368,7 +9357,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="5">
         <v>2020</v>
       </c>
@@ -9382,7 +9371,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="5">
         <v>2020</v>
       </c>
@@ -9396,7 +9385,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="5">
         <v>2020</v>
       </c>
@@ -9410,7 +9399,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="5">
         <v>2020</v>
       </c>
@@ -9424,7 +9413,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="5">
         <v>2020</v>
       </c>
@@ -9438,7 +9427,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="5">
         <v>2020</v>
       </c>
@@ -9452,7 +9441,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="5">
         <v>2020</v>
       </c>
@@ -9466,7 +9455,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="5">
         <v>2020</v>
       </c>
@@ -9480,7 +9469,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="5">
         <v>2020</v>
       </c>
@@ -9494,7 +9483,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="5">
         <v>2020</v>
       </c>
@@ -9508,7 +9497,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="5">
         <v>2020</v>
       </c>
@@ -9522,7 +9511,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="3">
         <v>2020</v>
       </c>
@@ -9534,7 +9523,7 @@
       </c>
       <c r="D436" s="2"/>
     </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="3">
         <v>2020</v>
       </c>
@@ -9546,7 +9535,7 @@
       </c>
       <c r="D437" s="2"/>
     </row>
-    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="3">
         <v>2020</v>
       </c>
@@ -9558,7 +9547,7 @@
       </c>
       <c r="D438" s="2"/>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="3">
         <v>2020</v>
       </c>
@@ -9570,7 +9559,7 @@
       </c>
       <c r="D439" s="2"/>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="3">
         <v>2020</v>
       </c>
@@ -9582,7 +9571,7 @@
       </c>
       <c r="D440" s="2"/>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="3">
         <v>2020</v>
       </c>
@@ -9594,7 +9583,7 @@
       </c>
       <c r="D441" s="2"/>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3">
         <v>2020</v>
       </c>
@@ -9606,7 +9595,7 @@
       </c>
       <c r="D442" s="2"/>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="3">
         <v>2020</v>
       </c>
@@ -9618,7 +9607,7 @@
       </c>
       <c r="D443" s="2"/>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="3">
         <v>2020</v>
       </c>
@@ -9630,7 +9619,7 @@
       </c>
       <c r="D444" s="2"/>
     </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="3">
         <v>2020</v>
       </c>
@@ -9642,7 +9631,7 @@
       </c>
       <c r="D445" s="2"/>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="3">
         <v>2020</v>
       </c>
@@ -9654,7 +9643,7 @@
       </c>
       <c r="D446" s="2"/>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="3">
         <v>2020</v>
       </c>
@@ -9666,7 +9655,7 @@
       </c>
       <c r="D447" s="2"/>
     </row>
-    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="5">
         <v>2020</v>
       </c>
@@ -9680,7 +9669,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="5">
         <v>2020</v>
       </c>
@@ -9694,7 +9683,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="5">
         <v>2020</v>
       </c>
@@ -9708,7 +9697,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="5">
         <v>2020</v>
       </c>
@@ -9722,7 +9711,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="5">
         <v>2020</v>
       </c>
@@ -9736,7 +9725,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="5">
         <v>2020</v>
       </c>
@@ -9750,7 +9739,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="5">
         <v>2020</v>
       </c>
@@ -9764,7 +9753,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="5">
         <v>2020</v>
       </c>
@@ -9778,7 +9767,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="5">
         <v>2020</v>
       </c>
@@ -9792,7 +9781,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="5">
         <v>2020</v>
       </c>
@@ -9806,7 +9795,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="5">
         <v>2020</v>
       </c>
@@ -9820,7 +9809,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="5">
         <v>2020</v>
       </c>
@@ -9834,7 +9823,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="5">
         <v>2020</v>
       </c>
@@ -9848,7 +9837,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="5">
         <v>2020</v>
       </c>
@@ -9862,7 +9851,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="5">
         <v>2020</v>
       </c>
@@ -9876,7 +9865,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="5">
         <v>2020</v>
       </c>
@@ -9890,7 +9879,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="5">
         <v>2020</v>
       </c>
@@ -9904,7 +9893,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="5">
         <v>2020</v>
       </c>
@@ -9918,7 +9907,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="5">
         <v>2020</v>
       </c>
@@ -9932,7 +9921,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="3">
         <v>2020</v>
       </c>
@@ -9944,7 +9933,7 @@
       </c>
       <c r="D467" s="2"/>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="3">
         <v>2020</v>
       </c>
@@ -9956,7 +9945,7 @@
       </c>
       <c r="D468" s="2"/>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="3">
         <v>2020</v>
       </c>
@@ -9968,7 +9957,7 @@
       </c>
       <c r="D469" s="2"/>
     </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="3">
         <v>2020</v>
       </c>
@@ -9980,7 +9969,7 @@
       </c>
       <c r="D470" s="2"/>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="3">
         <v>2020</v>
       </c>
@@ -9992,7 +9981,7 @@
       </c>
       <c r="D471" s="2"/>
     </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="3">
         <v>2020</v>
       </c>
@@ -10004,7 +9993,7 @@
       </c>
       <c r="D472" s="2"/>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="3">
         <v>2020</v>
       </c>
@@ -10016,7 +10005,7 @@
       </c>
       <c r="D473" s="2"/>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="3">
         <v>2020</v>
       </c>
@@ -10028,7 +10017,7 @@
       </c>
       <c r="D474" s="2"/>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="3">
         <v>2020</v>
       </c>
@@ -10040,7 +10029,7 @@
       </c>
       <c r="D475" s="2"/>
     </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="3">
         <v>2020</v>
       </c>
@@ -10052,7 +10041,7 @@
       </c>
       <c r="D476" s="2"/>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="3">
         <v>2020</v>
       </c>
@@ -10064,7 +10053,7 @@
       </c>
       <c r="D477" s="2"/>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="3">
         <v>2020</v>
       </c>
@@ -10076,7 +10065,7 @@
       </c>
       <c r="D478" s="2"/>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="5">
         <v>2020</v>
       </c>
@@ -10090,7 +10079,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="5">
         <v>2020</v>
       </c>
@@ -10104,7 +10093,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="5">
         <v>2020</v>
       </c>
@@ -10118,7 +10107,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="5">
         <v>2020</v>
       </c>
@@ -10132,7 +10121,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="5">
         <v>2020</v>
       </c>
@@ -10146,7 +10135,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="5">
         <v>2020</v>
       </c>
@@ -10160,7 +10149,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="5">
         <v>2020</v>
       </c>
@@ -10174,7 +10163,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="5">
         <v>2020</v>
       </c>
@@ -10188,7 +10177,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="5">
         <v>2020</v>
       </c>
@@ -10202,7 +10191,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="5">
         <v>2020</v>
       </c>
@@ -10216,7 +10205,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="5">
         <v>2020</v>
       </c>
@@ -10230,7 +10219,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="5">
         <v>2020</v>
       </c>
@@ -10244,7 +10233,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="5">
         <v>2020</v>
       </c>
@@ -10258,7 +10247,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="5">
         <v>2020</v>
       </c>
@@ -10272,7 +10261,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="5">
         <v>2020</v>
       </c>
@@ -10286,7 +10275,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="5">
         <v>2020</v>
       </c>
@@ -10300,7 +10289,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="5">
         <v>2020</v>
       </c>
@@ -10314,7 +10303,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="5">
         <v>2020</v>
       </c>
@@ -10328,7 +10317,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="5">
         <v>2020</v>
       </c>
@@ -10342,7 +10331,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="5">
         <v>2020</v>
       </c>
@@ -10356,7 +10345,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="3">
         <v>2020</v>
       </c>
@@ -10368,7 +10357,7 @@
       </c>
       <c r="D499" s="2"/>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="3">
         <v>2020</v>
       </c>
@@ -10380,7 +10369,7 @@
       </c>
       <c r="D500" s="2"/>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="3">
         <v>2020</v>
       </c>
@@ -10392,7 +10381,7 @@
       </c>
       <c r="D501" s="2"/>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="3">
         <v>2020</v>
       </c>
@@ -10404,7 +10393,7 @@
       </c>
       <c r="D502" s="2"/>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="3">
         <v>2020</v>
       </c>
@@ -10416,7 +10405,7 @@
       </c>
       <c r="D503" s="2"/>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="3">
         <v>2020</v>
       </c>
@@ -10428,7 +10417,7 @@
       </c>
       <c r="D504" s="2"/>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="3">
         <v>2020</v>
       </c>
@@ -10440,7 +10429,7 @@
       </c>
       <c r="D505" s="2"/>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="3">
         <v>2020</v>
       </c>
@@ -10452,7 +10441,7 @@
       </c>
       <c r="D506" s="2"/>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="3">
         <v>2020</v>
       </c>
@@ -10464,7 +10453,7 @@
       </c>
       <c r="D507" s="2"/>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="5">
         <v>2020</v>
       </c>
@@ -10476,7 +10465,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="5">
         <v>2020</v>
       </c>
@@ -10488,7 +10477,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="5">
         <v>2020</v>
       </c>
@@ -10500,7 +10489,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="5">
         <v>2020</v>
       </c>
@@ -10512,7 +10501,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="5">
         <v>2020</v>
       </c>
@@ -10524,7 +10513,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="5">
         <v>2020</v>
       </c>
@@ -10536,7 +10525,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="5">
         <v>2020</v>
       </c>
@@ -10550,7 +10539,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="5">
         <v>2020</v>
       </c>
@@ -10564,7 +10553,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="5">
         <v>2020</v>
       </c>
@@ -10578,7 +10567,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="5">
         <v>2020</v>
       </c>
@@ -10592,7 +10581,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="5">
         <v>2020</v>
       </c>
@@ -10604,7 +10593,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="5">
         <v>2020</v>
       </c>
@@ -10616,7 +10605,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="5">
         <v>2020</v>
       </c>
@@ -10628,7 +10617,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="5">
         <v>2020</v>
       </c>
@@ -10640,7 +10629,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="5">
         <v>2020</v>
       </c>
@@ -10652,7 +10641,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="5">
         <v>2020</v>
       </c>
@@ -10664,7 +10653,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="5">
         <v>2020</v>
       </c>
@@ -10676,7 +10665,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="5">
         <v>2020</v>
       </c>
@@ -10690,7 +10679,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="5">
         <v>2020</v>
       </c>
@@ -10704,7 +10693,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="5">
         <v>2020</v>
       </c>
@@ -10718,7 +10707,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="5">
         <v>2021</v>
       </c>
@@ -10732,7 +10721,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="5">
         <v>2021</v>
       </c>
@@ -10746,7 +10735,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="5">
         <v>2021</v>
       </c>
@@ -10760,7 +10749,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="5">
         <v>2021</v>
       </c>
@@ -10774,7 +10763,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="5">
         <v>2021</v>
       </c>
@@ -10788,7 +10777,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="5">
         <v>2021</v>
       </c>
@@ -10802,7 +10791,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="5">
         <v>2021</v>
       </c>
@@ -10816,7 +10805,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="5">
         <v>2021</v>
       </c>
@@ -10830,7 +10819,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="5">
         <v>2021</v>
       </c>
@@ -10844,7 +10833,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="5">
         <v>2021</v>
       </c>
@@ -10858,7 +10847,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="5">
         <v>2021</v>
       </c>
@@ -10872,7 +10861,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="5">
         <v>2021</v>
       </c>
@@ -10886,7 +10875,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="5">
         <v>2021</v>
       </c>
@@ -10900,7 +10889,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="5">
         <v>2021</v>
       </c>
@@ -10914,7 +10903,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="5">
         <v>2021</v>
       </c>
@@ -10928,7 +10917,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="5">
         <v>2021</v>
       </c>
@@ -10942,7 +10931,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="5">
         <v>2021</v>
       </c>
@@ -10956,7 +10945,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="5">
         <v>2021</v>
       </c>
@@ -10970,7 +10959,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="5">
         <v>2021</v>
       </c>
@@ -10984,7 +10973,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="5">
         <v>2021</v>
       </c>
@@ -10998,7 +10987,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="5">
         <v>2021</v>
       </c>
@@ -11012,7 +11001,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="5">
         <v>2021</v>
       </c>
@@ -11026,7 +11015,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="5">
         <v>2021</v>
       </c>
@@ -11040,7 +11029,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="5">
         <v>2021</v>
       </c>
@@ -11054,7 +11043,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="5">
         <v>2021</v>
       </c>
@@ -11068,7 +11057,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="5">
         <v>2021</v>
       </c>
@@ -11082,7 +11071,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="5">
         <v>2021</v>
       </c>
@@ -11096,7 +11085,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="5">
         <v>2021</v>
       </c>
@@ -11110,7 +11099,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="5">
         <v>2021</v>
       </c>
@@ -11124,7 +11113,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="5">
         <v>2021</v>
       </c>
@@ -11138,7 +11127,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="5">
         <v>2021</v>
       </c>
@@ -11152,7 +11141,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="5">
         <v>2021</v>
       </c>
@@ -11166,7 +11155,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="5">
         <v>2021</v>
       </c>
@@ -11180,7 +11169,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="5">
         <v>2021</v>
       </c>
@@ -11194,7 +11183,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="5">
         <v>2021</v>
       </c>
@@ -11208,7 +11197,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="5">
         <v>2021</v>
       </c>
@@ -11222,7 +11211,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="5">
         <v>2021</v>
       </c>
@@ -11236,7 +11225,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="5">
         <v>2021</v>
       </c>
@@ -11250,7 +11239,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="5">
         <v>2021</v>
       </c>
@@ -11264,7 +11253,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="5">
         <v>2021</v>
       </c>
@@ -11278,7 +11267,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="5">
         <v>2021</v>
       </c>
@@ -11292,7 +11281,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="5">
         <v>2021</v>
       </c>
@@ -11306,7 +11295,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="5">
         <v>2021</v>
       </c>
@@ -11320,7 +11309,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="5">
         <v>2021</v>
       </c>
@@ -11334,7 +11323,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="5">
         <v>2021</v>
       </c>
@@ -11348,7 +11337,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="5">
         <v>2021</v>
       </c>
@@ -11362,7 +11351,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="5">
         <v>2021</v>
       </c>
@@ -11376,7 +11365,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="5">
         <v>2021</v>
       </c>
@@ -11390,7 +11379,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="5">
         <v>2021</v>
       </c>
@@ -11404,7 +11393,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="5">
         <v>2021</v>
       </c>
@@ -11418,7 +11407,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="5">
         <v>2021</v>
       </c>
@@ -11432,7 +11421,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="5">
         <v>2021</v>
       </c>
@@ -11446,7 +11435,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="5">
         <v>2021</v>
       </c>
@@ -11460,7 +11449,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="5">
         <v>2021</v>
       </c>
@@ -11474,7 +11463,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="5">
         <v>2021</v>
       </c>
@@ -11488,7 +11477,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="5">
         <v>2021</v>
       </c>
@@ -11502,7 +11491,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="5">
         <v>2021</v>
       </c>
@@ -11516,7 +11505,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="5">
         <v>2021</v>
       </c>
@@ -11530,7 +11519,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="5">
         <v>2021</v>
       </c>
@@ -11544,7 +11533,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="5">
         <v>2021</v>
       </c>
@@ -11558,7 +11547,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="5">
         <v>2021</v>
       </c>
@@ -11572,7 +11561,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="5">
         <v>2021</v>
       </c>
@@ -11586,7 +11575,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="5">
         <v>2021</v>
       </c>
@@ -11600,7 +11589,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="5">
         <v>2021</v>
       </c>
@@ -11614,7 +11603,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="5">
         <v>2021</v>
       </c>
@@ -11628,7 +11617,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="5">
         <v>2021</v>
       </c>
@@ -11642,7 +11631,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="5">
         <v>2021</v>
       </c>
@@ -11656,7 +11645,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="5">
         <v>2021</v>
       </c>
@@ -11670,7 +11659,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="5">
         <v>2021</v>
       </c>
@@ -11684,7 +11673,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="5">
         <v>2021</v>
       </c>
@@ -11698,7 +11687,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="5">
         <v>2021</v>
       </c>
@@ -11712,7 +11701,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="5">
         <v>2021</v>
       </c>
@@ -11726,7 +11715,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="5">
         <v>2021</v>
       </c>
@@ -11740,7 +11729,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="5">
         <v>2021</v>
       </c>
@@ -11754,7 +11743,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="5">
         <v>2021</v>
       </c>
@@ -11768,7 +11757,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="5">
         <v>2021</v>
       </c>
@@ -11782,7 +11771,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="5">
         <v>2021</v>
       </c>
@@ -11796,7 +11785,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="5">
         <v>2021</v>
       </c>
@@ -11810,7 +11799,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="5">
         <v>2021</v>
       </c>
@@ -11824,7 +11813,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="5">
         <v>2021</v>
       </c>
@@ -11838,7 +11827,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="5">
         <v>2025</v>
       </c>
@@ -11850,7 +11839,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="5">
         <v>2025</v>
       </c>
@@ -11862,7 +11851,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="5">
         <v>2025</v>
       </c>
@@ -11874,7 +11863,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="5">
         <v>2025</v>
       </c>
@@ -11886,7 +11875,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="5">
         <v>2025</v>
       </c>
@@ -11898,7 +11887,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="5">
         <v>2025</v>
       </c>
@@ -11910,7 +11899,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="5">
         <v>2025</v>
       </c>
@@ -11922,7 +11911,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="5">
         <v>2025</v>
       </c>
@@ -11934,7 +11923,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="5">
         <v>2025</v>
       </c>
@@ -11948,7 +11937,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" s="3">
         <v>2025</v>
       </c>
@@ -11962,7 +11951,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" s="5">
         <v>2025</v>
       </c>
@@ -11976,7 +11965,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" s="5">
         <v>2025</v>
       </c>
@@ -11990,7 +11979,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" s="5">
         <v>2025</v>
       </c>
@@ -12004,7 +11993,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" s="5">
         <v>2025</v>
       </c>
@@ -12018,7 +12007,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" s="5">
         <v>2025</v>
       </c>
@@ -12032,7 +12021,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" s="5">
         <v>2025</v>
       </c>
@@ -12046,7 +12035,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" s="5">
         <v>2025</v>
       </c>
@@ -12060,7 +12049,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" s="5">
         <v>2025</v>
       </c>
@@ -12074,7 +12063,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="5">
         <v>2025</v>
       </c>
@@ -12088,7 +12077,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="5">
         <v>2025</v>
       </c>
@@ -12102,7 +12091,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="5">
         <v>2025</v>
       </c>
@@ -12116,7 +12105,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="5">
         <v>2025</v>
       </c>
@@ -12130,7 +12119,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" s="5">
         <v>2025</v>
       </c>
@@ -12144,7 +12133,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="5">
         <v>2025</v>
       </c>
@@ -12158,7 +12147,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" s="5">
         <v>2025</v>
       </c>
@@ -12172,7 +12161,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="5">
         <v>2025</v>
       </c>
@@ -12186,7 +12175,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" s="5">
         <v>2025</v>
       </c>
@@ -12200,7 +12189,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" s="5">
         <v>2025</v>
       </c>
@@ -12214,7 +12203,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" s="5">
         <v>2025</v>
       </c>
@@ -12228,7 +12217,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" s="5">
         <v>2025</v>
       </c>
@@ -12242,7 +12231,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" s="5">
         <v>2025</v>
       </c>
@@ -12256,7 +12245,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" s="5">
         <v>2025</v>
       </c>
@@ -12270,7 +12259,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" s="5">
         <v>2025</v>
       </c>
@@ -12284,7 +12273,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" s="5">
         <v>2025</v>
       </c>
@@ -12298,7 +12287,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" s="5">
         <v>2025</v>
       </c>
@@ -12312,7 +12301,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" s="5">
         <v>2025</v>
       </c>
@@ -12326,7 +12315,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" s="5">
         <v>2025</v>
       </c>
@@ -12340,7 +12329,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" s="5">
         <v>2025</v>
       </c>
@@ -12354,7 +12343,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="5">
         <v>2025</v>
       </c>
@@ -12368,7 +12357,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" s="5">
         <v>2025</v>
       </c>
@@ -12382,7 +12371,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="5">
         <v>2025</v>
       </c>
@@ -12396,7 +12385,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" s="5">
         <v>2025</v>
       </c>
@@ -12410,7 +12399,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" s="5">
         <v>2025</v>
       </c>
@@ -12424,7 +12413,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" s="5">
         <v>2025</v>
       </c>
@@ -12438,77 +12427,77 @@
         <v>693</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" s="5">
         <v>2025</v>
       </c>
-      <c r="B652" s="14" t="s">
+      <c r="B652" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="C652" s="15" t="s">
+      <c r="C652" s="4" t="s">
         <v>622</v>
       </c>
       <c r="D652" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" s="5">
         <v>2025</v>
       </c>
-      <c r="B653" s="14" t="s">
+      <c r="B653" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="C653" s="15" t="s">
+      <c r="C653" s="4" t="s">
         <v>623</v>
       </c>
       <c r="D653" s="2" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" s="5">
         <v>2025</v>
       </c>
-      <c r="B654" s="14" t="s">
+      <c r="B654" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="C654" s="15" t="s">
+      <c r="C654" s="4" t="s">
         <v>624</v>
       </c>
       <c r="D654" s="2" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" s="5">
         <v>2025</v>
       </c>
-      <c r="B655" s="14" t="s">
+      <c r="B655" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="C655" s="15" t="s">
+      <c r="C655" s="4" t="s">
         <v>625</v>
       </c>
       <c r="D655" s="2" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" s="5">
         <v>2025</v>
       </c>
-      <c r="B656" s="14" t="s">
+      <c r="B656" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="C656" s="15" t="s">
+      <c r="C656" s="4" t="s">
         <v>626</v>
       </c>
       <c r="D656" s="2" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" s="3">
         <v>2025</v>
       </c>
@@ -12520,7 +12509,7 @@
       </c>
       <c r="D657" s="2"/>
     </row>
-    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" s="3">
         <v>2025</v>
       </c>
@@ -12532,7 +12521,7 @@
       </c>
       <c r="D658" s="2"/>
     </row>
-    <row r="659" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" s="5">
         <v>2025</v>
       </c>
@@ -12546,7 +12535,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" s="5">
         <v>2025</v>
       </c>
@@ -12560,7 +12549,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="661" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" s="5">
         <v>2025</v>
       </c>
@@ -12574,7 +12563,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" s="5">
         <v>2025</v>
       </c>
@@ -12588,7 +12577,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" s="5">
         <v>2025</v>
       </c>
@@ -12602,7 +12591,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" s="5">
         <v>2025</v>
       </c>
@@ -12616,7 +12605,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" s="5">
         <v>2025</v>
       </c>
@@ -12630,7 +12619,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" s="5">
         <v>2025</v>
       </c>
@@ -12644,7 +12633,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" s="5">
         <v>2025</v>
       </c>
@@ -12658,7 +12647,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="668" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" s="5">
         <v>2025</v>
       </c>
@@ -12672,7 +12661,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="669" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" s="5">
         <v>2025</v>
       </c>
@@ -12686,7 +12675,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="670" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" s="5">
         <v>2025</v>
       </c>
@@ -12700,7 +12689,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="671" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" s="5">
         <v>2025</v>
       </c>
@@ -12714,7 +12703,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" s="5">
         <v>2025</v>
       </c>
@@ -12728,7 +12717,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" s="5">
         <v>2025</v>
       </c>
@@ -12742,7 +12731,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" s="5">
         <v>2025</v>
       </c>
@@ -12756,7 +12745,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" s="5">
         <v>2025</v>
       </c>
@@ -12770,7 +12759,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="676" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" s="5">
         <v>2025</v>
       </c>
@@ -12784,7 +12773,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" s="5">
         <v>2025</v>
       </c>
@@ -12798,7 +12787,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" s="3">
         <v>2025</v>
       </c>
@@ -12810,7 +12799,7 @@
       </c>
       <c r="D678" s="2"/>
     </row>
-    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" s="3">
         <v>2025</v>
       </c>
@@ -12822,7 +12811,7 @@
       </c>
       <c r="D679" s="2"/>
     </row>
-    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" s="5">
         <v>2025</v>
       </c>
@@ -12836,7 +12825,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" s="5">
         <v>2025</v>
       </c>
@@ -12850,7 +12839,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" s="5">
         <v>2025</v>
       </c>
@@ -12864,7 +12853,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" s="5">
         <v>2025</v>
       </c>
@@ -12878,7 +12867,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" s="5">
         <v>2025</v>
       </c>
@@ -12892,7 +12881,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" s="5">
         <v>2025</v>
       </c>
@@ -12906,7 +12895,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" s="5">
         <v>2025</v>
       </c>
@@ -12920,7 +12909,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="687" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" s="5">
         <v>2025</v>
       </c>
@@ -12934,7 +12923,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" s="5">
         <v>2025</v>
       </c>
@@ -12948,7 +12937,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="689" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" s="5">
         <v>2025</v>
       </c>
@@ -12962,7 +12951,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="690" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" s="5">
         <v>2025</v>
       </c>
@@ -12976,7 +12965,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" s="5">
         <v>2025</v>
       </c>
@@ -12990,7 +12979,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" s="5">
         <v>2025</v>
       </c>
@@ -13004,7 +12993,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" s="5">
         <v>2025</v>
       </c>
@@ -13018,7 +13007,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" s="5">
         <v>2025</v>
       </c>
@@ -13032,7 +13021,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" s="5">
         <v>2025</v>
       </c>
@@ -13046,7 +13035,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="696" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" s="5">
         <v>2025</v>
       </c>
@@ -13060,7 +13049,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" s="5">
         <v>2025</v>
       </c>
@@ -13074,7 +13063,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" s="5">
         <v>2025</v>
       </c>
@@ -13088,7 +13077,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" s="3">
         <v>2025</v>
       </c>
@@ -13100,7 +13089,7 @@
       </c>
       <c r="D699" s="2"/>
     </row>
-    <row r="700" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" s="3">
         <v>2025</v>
       </c>
@@ -13112,7 +13101,7 @@
       </c>
       <c r="D700" s="2"/>
     </row>
-    <row r="701" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" s="5">
         <v>2025</v>
       </c>
@@ -13126,7 +13115,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" s="5">
         <v>2025</v>
       </c>
@@ -13140,7 +13129,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" s="5">
         <v>2025</v>
       </c>
@@ -13154,7 +13143,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" s="5">
         <v>2025</v>
       </c>
@@ -13168,7 +13157,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" s="5">
         <v>2025</v>
       </c>
@@ -13182,7 +13171,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="706" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" s="5">
         <v>2025</v>
       </c>
@@ -13196,7 +13185,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="707" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" s="5">
         <v>2025</v>
       </c>
@@ -13210,7 +13199,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="708" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" s="5">
         <v>2025</v>
       </c>
@@ -13224,7 +13213,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="709" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" s="5">
         <v>2025</v>
       </c>
@@ -13238,7 +13227,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" s="5">
         <v>2025</v>
       </c>
@@ -13252,7 +13241,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" s="5">
         <v>2025</v>
       </c>
@@ -13266,7 +13255,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" s="5">
         <v>2025</v>
       </c>
@@ -13280,7 +13269,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" s="5">
         <v>2025</v>
       </c>
@@ -13294,7 +13283,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" s="5">
         <v>2025</v>
       </c>
@@ -13308,7 +13297,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" s="5">
         <v>2025</v>
       </c>
@@ -13322,7 +13311,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="716" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" s="5">
         <v>2025</v>
       </c>
@@ -13336,7 +13325,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" s="5">
         <v>2025</v>
       </c>
@@ -13350,7 +13339,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" s="5">
         <v>2025</v>
       </c>
@@ -13364,7 +13353,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="719" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" s="5">
         <v>2025</v>
       </c>
@@ -13378,7 +13367,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="720" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" s="3">
         <v>2025</v>
       </c>
@@ -13390,7 +13379,7 @@
       </c>
       <c r="D720" s="2"/>
     </row>
-    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" s="3">
         <v>2025</v>
       </c>
@@ -13402,7 +13391,7 @@
       </c>
       <c r="D721" s="2"/>
     </row>
-    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" s="5">
         <v>2025</v>
       </c>
@@ -13416,7 +13405,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" s="5">
         <v>2025</v>
       </c>
@@ -13430,7 +13419,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="724" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" s="5">
         <v>2025</v>
       </c>
@@ -13444,7 +13433,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="725" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" s="5">
         <v>2025</v>
       </c>
@@ -13458,7 +13447,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" s="5">
         <v>2025</v>
       </c>
@@ -13472,7 +13461,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="727" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" s="5">
         <v>2025</v>
       </c>
@@ -13486,7 +13475,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="728" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" s="5">
         <v>2025</v>
       </c>
@@ -13500,7 +13489,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" s="5">
         <v>2025</v>
       </c>
@@ -13514,7 +13503,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" s="5">
         <v>2025</v>
       </c>
@@ -13528,7 +13517,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" s="5">
         <v>2025</v>
       </c>
@@ -13542,7 +13531,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" s="5">
         <v>2025</v>
       </c>
@@ -13556,7 +13545,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="733" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" s="5">
         <v>2025</v>
       </c>
@@ -13570,7 +13559,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" s="5">
         <v>2025</v>
       </c>
@@ -13584,7 +13573,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="735" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" s="5">
         <v>2025</v>
       </c>
@@ -13598,7 +13587,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" s="5">
         <v>2025</v>
       </c>
@@ -13612,7 +13601,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="737" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" s="5">
         <v>2025</v>
       </c>
@@ -13626,7 +13615,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="738" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" s="5">
         <v>2025</v>
       </c>
@@ -13640,7 +13629,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="739" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" s="5">
         <v>2025</v>
       </c>
@@ -13654,7 +13643,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" s="5">
         <v>2025</v>
       </c>
@@ -13668,7 +13657,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="741" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" s="3">
         <v>2025</v>
       </c>
@@ -13680,7 +13669,7 @@
       </c>
       <c r="D741" s="2"/>
     </row>
-    <row r="742" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" s="3">
         <v>2025</v>
       </c>
@@ -13692,7 +13681,7 @@
       </c>
       <c r="D742" s="2"/>
     </row>
-    <row r="743" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" s="5">
         <v>2025</v>
       </c>
@@ -13706,7 +13695,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="744" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" s="5">
         <v>2025</v>
       </c>
@@ -13720,7 +13709,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="745" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" s="5">
         <v>2025</v>
       </c>
@@ -13734,7 +13723,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="746" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" s="5">
         <v>2025</v>
       </c>
@@ -13748,7 +13737,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="747" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" s="5">
         <v>2025</v>
       </c>
@@ -13762,7 +13751,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" s="5">
         <v>2025</v>
       </c>
@@ -13776,7 +13765,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="749" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" s="5">
         <v>2025</v>
       </c>
@@ -13790,7 +13779,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="750" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" s="5">
         <v>2025</v>
       </c>
@@ -13804,7 +13793,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="751" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" s="5">
         <v>2025</v>
       </c>
@@ -13818,7 +13807,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" s="5">
         <v>2025</v>
       </c>
@@ -13832,7 +13821,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="753" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" s="5">
         <v>2025</v>
       </c>
@@ -13846,7 +13835,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="754" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" s="5">
         <v>2025</v>
       </c>
@@ -13860,7 +13849,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="755" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" s="5">
         <v>2025</v>
       </c>
@@ -13874,7 +13863,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="756" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" s="5">
         <v>2025</v>
       </c>
@@ -13888,7 +13877,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" s="5">
         <v>2025</v>
       </c>
@@ -13902,7 +13891,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="758" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" s="5">
         <v>2025</v>
       </c>
@@ -13916,7 +13905,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="759" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" s="5">
         <v>2025</v>
       </c>
@@ -13930,7 +13919,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="760" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" s="5">
         <v>2025</v>
       </c>
@@ -13944,7 +13933,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="761" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" s="5">
         <v>2025</v>
       </c>
@@ -13958,7 +13947,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="762" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" s="3">
         <v>2025</v>
       </c>
@@ -13970,7 +13959,7 @@
       </c>
       <c r="D762" s="2"/>
     </row>
-    <row r="763" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" s="3">
         <v>2025</v>
       </c>
@@ -13982,7 +13971,7 @@
       </c>
       <c r="D763" s="2"/>
     </row>
-    <row r="764" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" s="5">
         <v>2025</v>
       </c>
@@ -13996,7 +13985,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="765" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" s="5">
         <v>2025</v>
       </c>
@@ -14010,7 +13999,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="766" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" s="5">
         <v>2025</v>
       </c>
@@ -14024,7 +14013,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="767" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" s="5">
         <v>2025</v>
       </c>
@@ -14038,7 +14027,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="768" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" s="5">
         <v>2025</v>
       </c>
@@ -14052,7 +14041,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" s="5">
         <v>2025</v>
       </c>
@@ -14066,7 +14055,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="770" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" s="5">
         <v>2025</v>
       </c>
@@ -14080,7 +14069,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="771" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" s="5">
         <v>2025</v>
       </c>
@@ -14094,7 +14083,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="772" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" s="5">
         <v>2025</v>
       </c>
@@ -14108,7 +14097,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="773" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" s="5">
         <v>2025</v>
       </c>
@@ -14122,7 +14111,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="774" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" s="5">
         <v>2025</v>
       </c>
@@ -14136,7 +14125,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="775" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" s="5">
         <v>2025</v>
       </c>
@@ -14150,7 +14139,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="776" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" s="5">
         <v>2025</v>
       </c>
@@ -14164,7 +14153,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" s="5">
         <v>2025</v>
       </c>
@@ -14178,7 +14167,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="778" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" s="5">
         <v>2025</v>
       </c>
@@ -14192,7 +14181,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="779" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" s="5">
         <v>2025</v>
       </c>
@@ -14206,7 +14195,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="780" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" s="5">
         <v>2025</v>
       </c>
@@ -14220,7 +14209,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="781" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" s="5">
         <v>2025</v>
       </c>
@@ -14234,7 +14223,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="782" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" s="5">
         <v>2025</v>
       </c>
@@ -14248,7 +14237,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="783" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" s="3">
         <v>2025</v>
       </c>
@@ -14260,7 +14249,7 @@
       </c>
       <c r="D783" s="2"/>
     </row>
-    <row r="784" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" s="3">
         <v>2025</v>
       </c>
@@ -14272,7 +14261,7 @@
       </c>
       <c r="D784" s="2"/>
     </row>
-    <row r="785" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" s="3">
         <v>2025</v>
       </c>
@@ -14286,7 +14275,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" s="3">
         <v>2025</v>
       </c>
@@ -14300,7 +14289,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="787" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" s="3">
         <v>2025</v>
       </c>
@@ -14314,7 +14303,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" s="3">
         <v>2025</v>
       </c>
@@ -14328,7 +14317,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" s="3">
         <v>2025</v>
       </c>
@@ -14342,7 +14331,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" s="3">
         <v>2025</v>
       </c>
@@ -14356,7 +14345,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" s="3">
         <v>2025</v>
       </c>
@@ -14370,7 +14359,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" s="3">
         <v>2025</v>
       </c>
@@ -14384,7 +14373,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="793" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" s="3">
         <v>2025</v>
       </c>
@@ -14398,7 +14387,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" s="3">
         <v>2025</v>
       </c>
@@ -14412,7 +14401,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="795" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" s="3">
         <v>2025</v>
       </c>
@@ -14426,7 +14415,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="796" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" s="3">
         <v>2025</v>
       </c>
@@ -14440,7 +14429,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="797" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" s="3">
         <v>2025</v>
       </c>
@@ -14454,7 +14443,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="798" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" s="3">
         <v>2025</v>
       </c>
@@ -14468,7 +14457,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="799" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" s="3">
         <v>2025</v>
       </c>
@@ -14482,7 +14471,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="800" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" s="3">
         <v>2025</v>
       </c>
@@ -14496,7 +14485,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="801" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" s="3">
         <v>2025</v>
       </c>
@@ -14510,7 +14499,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="802" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" s="3">
         <v>2025</v>
       </c>
@@ -14524,7 +14513,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="803" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" s="3">
         <v>2025</v>
       </c>
@@ -14538,7 +14527,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="804" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" s="3">
         <v>2025</v>
       </c>
@@ -14550,7 +14539,7 @@
       </c>
       <c r="D804" s="2"/>
     </row>
-    <row r="805" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" s="3">
         <v>2025</v>
       </c>
@@ -14562,7 +14551,7 @@
       </c>
       <c r="D805" s="2"/>
     </row>
-    <row r="806" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" s="5">
         <v>2025</v>
       </c>
@@ -14576,7 +14565,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="807" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" s="5">
         <v>2025</v>
       </c>
@@ -14590,7 +14579,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="808" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" s="5">
         <v>2025</v>
       </c>
@@ -14604,7 +14593,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="809" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" s="5">
         <v>2025</v>
       </c>
@@ -14618,7 +14607,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="810" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810" s="5">
         <v>2025</v>
       </c>
@@ -14632,7 +14621,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="811" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" s="5">
         <v>2025</v>
       </c>
@@ -14646,7 +14635,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="812" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" s="5">
         <v>2025</v>
       </c>
@@ -14660,7 +14649,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="813" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813" s="5">
         <v>2025</v>
       </c>
@@ -14674,7 +14663,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="814" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" s="5">
         <v>2025</v>
       </c>
@@ -14688,7 +14677,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="815" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" s="5">
         <v>2025</v>
       </c>
@@ -14702,7 +14691,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="816" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" s="5">
         <v>2025</v>
       </c>
@@ -14716,7 +14705,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="817" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817" s="5">
         <v>2025</v>
       </c>
@@ -14730,7 +14719,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="818" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818" s="5">
         <v>2025</v>
       </c>
@@ -14744,7 +14733,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="819" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819" s="5">
         <v>2025</v>
       </c>
@@ -14758,7 +14747,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="820" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" s="5">
         <v>2025</v>
       </c>
@@ -14772,7 +14761,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="821" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" s="5">
         <v>2025</v>
       </c>
@@ -14786,7 +14775,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="822" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" s="5">
         <v>2025</v>
       </c>
@@ -14800,7 +14789,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="823" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" s="5">
         <v>2025</v>
       </c>
@@ -14814,7 +14803,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="824" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" s="5">
         <v>2025</v>
       </c>
@@ -14828,7 +14817,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="825" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825" s="3">
         <v>2025</v>
       </c>
@@ -14840,7 +14829,7 @@
       </c>
       <c r="D825" s="2"/>
     </row>
-    <row r="826" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826" s="3">
         <v>2025</v>
       </c>
@@ -14852,7 +14841,7 @@
       </c>
       <c r="D826" s="2"/>
     </row>
-    <row r="827" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827" s="5">
         <v>2025</v>
       </c>
@@ -14866,7 +14855,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="828" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" s="5">
         <v>2025</v>
       </c>
@@ -14880,7 +14869,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="829" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829" s="5">
         <v>2025</v>
       </c>
@@ -14894,7 +14883,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="830" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830" s="5">
         <v>2025</v>
       </c>
@@ -14908,7 +14897,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="831" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831" s="5">
         <v>2025</v>
       </c>
@@ -14922,7 +14911,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="832" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832" s="5">
         <v>2025</v>
       </c>
@@ -14936,7 +14925,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="833" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" s="5">
         <v>2025</v>
       </c>
@@ -14950,7 +14939,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="834" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834" s="5">
         <v>2025</v>
       </c>
@@ -14964,7 +14953,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="835" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835" s="5">
         <v>2025</v>
       </c>
@@ -14978,7 +14967,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="836" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836" s="5">
         <v>2025</v>
       </c>
@@ -14992,7 +14981,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="837" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" s="5">
         <v>2025</v>
       </c>
@@ -15006,7 +14995,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="838" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838" s="5">
         <v>2025</v>
       </c>
@@ -15020,7 +15009,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="839" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839" s="5">
         <v>2025</v>
       </c>
@@ -15034,7 +15023,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="840" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" s="5">
         <v>2025</v>
       </c>
@@ -15048,7 +15037,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="841" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841" s="5">
         <v>2025</v>
       </c>
@@ -15062,7 +15051,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="842" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842" s="5">
         <v>2025</v>
       </c>
@@ -15076,7 +15065,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="843" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843" s="5">
         <v>2025</v>
       </c>
@@ -15090,7 +15079,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="844" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844" s="5">
         <v>2025</v>
       </c>
@@ -15104,7 +15093,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="845" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845" s="5">
         <v>2025</v>
       </c>
@@ -15118,7 +15107,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="846" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846" s="3">
         <v>2025</v>
       </c>
@@ -15130,7 +15119,7 @@
       </c>
       <c r="D846" s="2"/>
     </row>
-    <row r="847" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847" s="3">
         <v>2025</v>
       </c>
@@ -15142,7 +15131,7 @@
       </c>
       <c r="D847" s="2"/>
     </row>
-    <row r="848" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848" s="5">
         <v>2025</v>
       </c>
@@ -15156,7 +15145,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="849" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849" s="3">
         <v>2025</v>
       </c>
@@ -15168,7 +15157,7 @@
       </c>
       <c r="D849" s="6"/>
     </row>
-    <row r="850" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850" s="3">
         <v>2025</v>
       </c>
@@ -15180,7 +15169,7 @@
       </c>
       <c r="D850" s="6"/>
     </row>
-    <row r="851" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A851" s="3">
         <v>2025</v>
       </c>
@@ -15192,7 +15181,7 @@
       </c>
       <c r="D851" s="6"/>
     </row>
-    <row r="852" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852" s="3">
         <v>2025</v>
       </c>
@@ -15204,7 +15193,7 @@
       </c>
       <c r="D852" s="6"/>
     </row>
-    <row r="853" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853" s="3">
         <v>2025</v>
       </c>
@@ -15216,7 +15205,7 @@
       </c>
       <c r="D853" s="6"/>
     </row>
-    <row r="854" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854" s="3">
         <v>2025</v>
       </c>
@@ -15228,7 +15217,7 @@
       </c>
       <c r="D854" s="6"/>
     </row>
-    <row r="855" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855" s="3">
         <v>2025</v>
       </c>
@@ -15240,7 +15229,7 @@
       </c>
       <c r="D855" s="6"/>
     </row>
-    <row r="856" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856" s="3">
         <v>2025</v>
       </c>
@@ -15252,7 +15241,7 @@
       </c>
       <c r="D856" s="6"/>
     </row>
-    <row r="857" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857" s="3">
         <v>2025</v>
       </c>
@@ -15264,7 +15253,7 @@
       </c>
       <c r="D857" s="6"/>
     </row>
-    <row r="858" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858" s="3">
         <v>2025</v>
       </c>
@@ -15276,7 +15265,7 @@
       </c>
       <c r="D858" s="6"/>
     </row>
-    <row r="859" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859" s="3">
         <v>2025</v>
       </c>
@@ -15288,7 +15277,7 @@
       </c>
       <c r="D859" s="6"/>
     </row>
-    <row r="860" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860" s="3">
         <v>2025</v>
       </c>
@@ -15300,7 +15289,7 @@
       </c>
       <c r="D860" s="6"/>
     </row>
-    <row r="861" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A861" s="3">
         <v>2025</v>
       </c>
@@ -15312,7 +15301,7 @@
       </c>
       <c r="D861" s="6"/>
     </row>
-    <row r="862" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862" s="3">
         <v>2025</v>
       </c>
@@ -15324,7 +15313,7 @@
       </c>
       <c r="D862" s="6"/>
     </row>
-    <row r="863" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863" s="3">
         <v>2025</v>
       </c>
@@ -15336,7 +15325,7 @@
       </c>
       <c r="D863" s="6"/>
     </row>
-    <row r="864" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A864" s="3">
         <v>2025</v>
       </c>
@@ -15348,7 +15337,7 @@
       </c>
       <c r="D864" s="6"/>
     </row>
-    <row r="865" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865" s="3">
         <v>2025</v>
       </c>
@@ -15360,7 +15349,7 @@
       </c>
       <c r="D865" s="6"/>
     </row>
-    <row r="866" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866" s="3">
         <v>2025</v>
       </c>
@@ -15372,7 +15361,7 @@
       </c>
       <c r="D866" s="6"/>
     </row>
-    <row r="867" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A867" s="3">
         <v>2025</v>
       </c>
@@ -15384,7 +15373,7 @@
       </c>
       <c r="D867" s="2"/>
     </row>
-    <row r="868" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A868" s="3">
         <v>2025</v>
       </c>
@@ -15396,7 +15385,7 @@
       </c>
       <c r="D868" s="2"/>
     </row>
-    <row r="869" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A869" s="3">
         <v>2025</v>
       </c>
@@ -15408,7 +15397,7 @@
       </c>
       <c r="D869" s="6"/>
     </row>
-    <row r="870" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A870" s="3">
         <v>2025</v>
       </c>
@@ -15420,7 +15409,7 @@
       </c>
       <c r="D870" s="6"/>
     </row>
-    <row r="871" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A871" s="3">
         <v>2025</v>
       </c>
@@ -15432,7 +15421,7 @@
       </c>
       <c r="D871" s="6"/>
     </row>
-    <row r="872" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A872" s="3">
         <v>2025</v>
       </c>
@@ -15444,7 +15433,7 @@
       </c>
       <c r="D872" s="6"/>
     </row>
-    <row r="873" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A873" s="3">
         <v>2025</v>
       </c>
@@ -15456,7 +15445,7 @@
       </c>
       <c r="D873" s="6"/>
     </row>
-    <row r="874" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A874" s="3">
         <v>2025</v>
       </c>
@@ -15468,7 +15457,7 @@
       </c>
       <c r="D874" s="6"/>
     </row>
-    <row r="875" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A875" s="3">
         <v>2025</v>
       </c>
@@ -15480,7 +15469,7 @@
       </c>
       <c r="D875" s="6"/>
     </row>
-    <row r="876" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A876" s="3">
         <v>2025</v>
       </c>
@@ -15492,7 +15481,7 @@
       </c>
       <c r="D876" s="6"/>
     </row>
-    <row r="877" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A877" s="3">
         <v>2025</v>
       </c>
@@ -15504,7 +15493,7 @@
       </c>
       <c r="D877" s="6"/>
     </row>
-    <row r="878" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A878" s="3">
         <v>2025</v>
       </c>
@@ -15516,7 +15505,7 @@
       </c>
       <c r="D878" s="6"/>
     </row>
-    <row r="879" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A879" s="3">
         <v>2025</v>
       </c>
@@ -15528,7 +15517,7 @@
       </c>
       <c r="D879" s="6"/>
     </row>
-    <row r="880" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A880" s="3">
         <v>2025</v>
       </c>
@@ -15540,7 +15529,7 @@
       </c>
       <c r="D880" s="6"/>
     </row>
-    <row r="881" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A881" s="3">
         <v>2025</v>
       </c>
@@ -15552,7 +15541,7 @@
       </c>
       <c r="D881" s="6"/>
     </row>
-    <row r="882" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A882" s="3">
         <v>2025</v>
       </c>
@@ -15564,7 +15553,7 @@
       </c>
       <c r="D882" s="6"/>
     </row>
-    <row r="883" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A883" s="3">
         <v>2025</v>
       </c>
@@ -15576,7 +15565,7 @@
       </c>
       <c r="D883" s="6"/>
     </row>
-    <row r="884" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A884" s="3">
         <v>2025</v>
       </c>
@@ -15588,7 +15577,7 @@
       </c>
       <c r="D884" s="6"/>
     </row>
-    <row r="885" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A885" s="3">
         <v>2025</v>
       </c>
@@ -15600,7 +15589,7 @@
       </c>
       <c r="D885" s="6"/>
     </row>
-    <row r="886" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A886" s="3">
         <v>2025</v>
       </c>
@@ -15612,7 +15601,7 @@
       </c>
       <c r="D886" s="6"/>
     </row>
-    <row r="887" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A887" s="3">
         <v>2025</v>
       </c>
@@ -15624,7 +15613,7 @@
       </c>
       <c r="D887" s="6"/>
     </row>
-    <row r="888" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A888" s="3">
         <v>2025</v>
       </c>
@@ -15636,7 +15625,7 @@
       </c>
       <c r="D888" s="2"/>
     </row>
-    <row r="889" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A889" s="3">
         <v>2025</v>
       </c>
@@ -15648,7 +15637,7 @@
       </c>
       <c r="D889" s="2"/>
     </row>
-    <row r="890" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A890" s="5">
         <v>2025</v>
       </c>
@@ -15662,7 +15651,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="891" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A891" s="5">
         <v>2025</v>
       </c>
@@ -15676,7 +15665,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="892" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A892" s="5">
         <v>2025</v>
       </c>
@@ -15688,7 +15677,7 @@
       </c>
       <c r="D892" s="6"/>
     </row>
-    <row r="893" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A893" s="5">
         <v>2025</v>
       </c>
@@ -15702,7 +15691,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="894" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A894" s="5">
         <v>2025</v>
       </c>
@@ -15716,7 +15705,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="895" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A895" s="5">
         <v>2025</v>
       </c>
@@ -15730,7 +15719,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="896" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A896" s="5">
         <v>2025</v>
       </c>
@@ -15744,7 +15733,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="897" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A897" s="5">
         <v>2025</v>
       </c>
@@ -15758,7 +15747,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="898" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A898" s="5">
         <v>2025</v>
       </c>
@@ -15772,7 +15761,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="899" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A899" s="5">
         <v>2025</v>
       </c>
@@ -15786,7 +15775,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="900" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A900" s="5">
         <v>2025</v>
       </c>
@@ -15800,7 +15789,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="901" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A901" s="5">
         <v>2025</v>
       </c>
@@ -15814,7 +15803,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="902" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A902" s="5">
         <v>2025</v>
       </c>
@@ -15828,7 +15817,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="903" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A903" s="5">
         <v>2025</v>
       </c>
@@ -15842,7 +15831,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="904" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A904" s="5">
         <v>2025</v>
       </c>
@@ -15856,7 +15845,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="905" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A905" s="5">
         <v>2025</v>
       </c>
@@ -15870,7 +15859,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="906" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A906" s="5">
         <v>2025</v>
       </c>
@@ -15884,7 +15873,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="907" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A907" s="5">
         <v>2025</v>
       </c>
@@ -15898,7 +15887,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="908" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A908" s="5">
         <v>2025</v>
       </c>
@@ -15912,7 +15901,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="909" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A909" s="5">
         <v>2025</v>
       </c>
@@ -15924,7 +15913,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="910" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A910" s="5">
         <v>2025</v>
       </c>
@@ -15936,7 +15925,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="911" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A911" s="5">
         <v>2025</v>
       </c>
@@ -15950,7 +15939,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="912" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A912" s="5">
         <v>2025</v>
       </c>
@@ -15964,7 +15953,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="913" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A913" s="5">
         <v>2025</v>
       </c>
@@ -15978,7 +15967,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="914" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A914" s="5">
         <v>2025</v>
       </c>
@@ -15992,7 +15981,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="915" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A915" s="5">
         <v>2025</v>
       </c>
@@ -16006,7 +15995,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="916" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A916" s="5">
         <v>2025</v>
       </c>
@@ -16020,7 +16009,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="917" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A917" s="5">
         <v>2025</v>
       </c>
@@ -16034,7 +16023,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="918" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A918" s="5">
         <v>2025</v>
       </c>
@@ -16048,7 +16037,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="919" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A919" s="3">
         <v>2025</v>
       </c>
@@ -16062,7 +16051,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="920" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A920" s="3">
         <v>2025</v>
       </c>
@@ -16076,7 +16065,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="921" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A921" s="3">
         <v>2025</v>
       </c>
@@ -16090,7 +16079,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="922" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A922" s="3">
         <v>2025</v>
       </c>
@@ -16104,7 +16093,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="923" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A923" s="3">
         <v>2025</v>
       </c>
@@ -16118,7 +16107,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="924" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A924" s="3">
         <v>2025</v>
       </c>
@@ -16132,7 +16121,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="925" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A925" s="3">
         <v>2025</v>
       </c>
@@ -16146,7 +16135,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="926" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A926" s="3">
         <v>2025</v>
       </c>
@@ -16160,7 +16149,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="927" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A927" s="3">
         <v>2025</v>
       </c>
@@ -16174,7 +16163,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="928" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A928" s="3">
         <v>2025</v>
       </c>
@@ -16188,7 +16177,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="929" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A929" s="3">
         <v>2025</v>
       </c>
@@ -16202,7 +16191,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="930" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A930" s="3">
         <v>2025</v>
       </c>
@@ -16216,7 +16205,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="931" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A931" s="3">
         <v>2025</v>
       </c>
@@ -16230,7 +16219,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="932" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A932" s="3">
         <v>2025</v>
       </c>
@@ -16244,7 +16233,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="933" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A933" s="3">
         <v>2025</v>
       </c>
@@ -16258,7 +16247,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="934" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A934" s="3">
         <v>2025</v>
       </c>
@@ -16270,7 +16259,7 @@
       </c>
       <c r="D934" s="6"/>
     </row>
-    <row r="935" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A935" s="5">
         <v>2025</v>
       </c>
@@ -16284,7 +16273,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="936" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A936" s="5">
         <v>2025</v>
       </c>
@@ -16298,7 +16287,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="937" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A937" s="5">
         <v>2025</v>
       </c>
@@ -16312,7 +16301,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="938" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A938" s="5">
         <v>2025</v>
       </c>
@@ -16326,7 +16315,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="939" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A939" s="5">
         <v>2025</v>
       </c>
@@ -16340,7 +16329,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="940" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A940" s="5">
         <v>2025</v>
       </c>
@@ -16354,7 +16343,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="941" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A941" s="5">
         <v>2025</v>
       </c>
@@ -16368,7 +16357,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="942" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A942" s="5">
         <v>2025</v>
       </c>
@@ -16382,7 +16371,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="943" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A943" s="5">
         <v>2025</v>
       </c>
@@ -16396,7 +16385,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="944" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A944" s="5">
         <v>2025</v>
       </c>
@@ -16410,7 +16399,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="945" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A945" s="5">
         <v>2025</v>
       </c>
@@ -16424,7 +16413,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="946" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A946" s="5">
         <v>2025</v>
       </c>
@@ -16438,7 +16427,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="947" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A947" s="5">
         <v>2025</v>
       </c>
@@ -16452,7 +16441,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="948" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A948" s="5">
         <v>2025</v>
       </c>
@@ -16466,7 +16455,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="949" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A949" s="5">
         <v>2025</v>
       </c>
@@ -16480,7 +16469,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="950" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A950" s="3">
         <v>2025</v>
       </c>
@@ -16494,7 +16483,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="951" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A951" s="5">
         <v>2025</v>
       </c>
@@ -16506,7 +16495,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="952" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A952" s="5">
         <v>2025</v>
       </c>
@@ -16518,7 +16507,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="953" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A953" s="3">
         <v>2025</v>
       </c>
@@ -16530,7 +16519,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="954" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A954" s="5">
         <v>2025</v>
       </c>
@@ -16542,7 +16531,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="955" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A955" s="5">
         <v>2025</v>
       </c>
@@ -16554,7 +16543,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="956" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A956" s="5">
         <v>2025</v>
       </c>
@@ -16566,7 +16555,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="957" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A957" s="5">
         <v>2025</v>
       </c>
@@ -16578,7 +16567,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="958" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A958" s="5">
         <v>2024</v>
       </c>
@@ -16592,7 +16581,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="959" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A959" s="5">
         <v>2024</v>
       </c>
@@ -16606,7 +16595,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="960" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A960" s="5">
         <v>2024</v>
       </c>
@@ -16620,7 +16609,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="961" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A961" s="5">
         <v>2024</v>
       </c>
@@ -16634,7 +16623,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="962" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A962" s="5">
         <v>2024</v>
       </c>
@@ -16648,7 +16637,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="963" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A963" s="5">
         <v>2024</v>
       </c>
@@ -16662,7 +16651,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="964" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A964" s="5">
         <v>2024</v>
       </c>
@@ -16674,7 +16663,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="965" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A965" s="5">
         <v>2024</v>
       </c>
@@ -16686,7 +16675,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="966" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A966" s="5">
         <v>2024</v>
       </c>
@@ -16698,7 +16687,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="967" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A967" s="5">
         <v>2024</v>
       </c>
@@ -16710,7 +16699,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="968" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A968" s="5">
         <v>2024</v>
       </c>
@@ -16722,7 +16711,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="969" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A969" s="5">
         <v>2024</v>
       </c>
@@ -16734,7 +16723,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="970" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A970" s="5">
         <v>2024</v>
       </c>
@@ -16746,7 +16735,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="971" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A971" s="5">
         <v>2024</v>
       </c>
@@ -16758,7 +16747,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="972" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A972" s="5">
         <v>2024</v>
       </c>
@@ -16770,7 +16759,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="973" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A973" s="5">
         <v>2024</v>
       </c>
@@ -16782,7 +16771,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A974" s="5">
         <v>2024</v>
       </c>
@@ -16796,7 +16785,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A975" s="5">
         <v>2024</v>
       </c>
@@ -16810,7 +16799,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A976" s="5">
         <v>2024</v>
       </c>
@@ -16824,7 +16813,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A977" s="5">
         <v>2024</v>
       </c>
@@ -16838,7 +16827,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A978" s="5">
         <v>2024</v>
       </c>
@@ -16852,7 +16841,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="979" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A979" s="5">
         <v>2024</v>
       </c>
@@ -16866,7 +16855,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="980" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A980" s="5">
         <v>2024</v>
       </c>
@@ -16880,7 +16869,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="981" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A981" s="5">
         <v>2024</v>
       </c>
@@ -16894,7 +16883,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="982" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A982" s="5">
         <v>2024</v>
       </c>
@@ -16908,7 +16897,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A983" s="5">
         <v>2024</v>
       </c>
@@ -16922,7 +16911,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A984" s="5">
         <v>2024</v>
       </c>
@@ -16936,7 +16925,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A985" s="5">
         <v>2024</v>
       </c>
@@ -16950,7 +16939,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A986" s="5">
         <v>2024</v>
       </c>
@@ -16960,12 +16949,12 @@
       <c r="C986" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D986" s="14" t="s">
+      <c r="D986" s="2" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A987" s="16">
+    <row r="987" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A987" s="3">
         <v>2024</v>
       </c>
       <c r="B987" s="2" t="s">
@@ -16978,7 +16967,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="988" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A988" s="5">
         <v>2024</v>
       </c>
@@ -16988,14 +16977,14 @@
       <c r="C988" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D988" s="14" t="s">
+      <c r="D988" s="2" t="s">
         <v>670</v>
       </c>
       <c r="E988" s="2" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="989" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A989" s="5">
         <v>2024</v>
       </c>
@@ -17005,12 +16994,12 @@
       <c r="C989" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D989" s="14" t="s">
+      <c r="D989" s="2" t="s">
         <v>671</v>
       </c>
       <c r="E989" s="2"/>
     </row>
-    <row r="990" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A990" s="5">
         <v>2024</v>
       </c>
@@ -17020,12 +17009,12 @@
       <c r="C990" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D990" s="14" t="s">
+      <c r="D990" s="2" t="s">
         <v>672</v>
       </c>
       <c r="E990" s="2"/>
     </row>
-    <row r="991" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A991" s="5">
         <v>2024</v>
       </c>
@@ -17035,12 +17024,12 @@
       <c r="C991" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D991" s="14" t="s">
+      <c r="D991" s="2" t="s">
         <v>673</v>
       </c>
       <c r="E991" s="2"/>
     </row>
-    <row r="992" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A992" s="5">
         <v>2024</v>
       </c>
@@ -17050,12 +17039,12 @@
       <c r="C992" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D992" s="14" t="s">
+      <c r="D992" s="2" t="s">
         <v>674</v>
       </c>
       <c r="E992" s="2"/>
     </row>
-    <row r="993" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A993" s="5">
         <v>2024</v>
       </c>
@@ -17065,12 +17054,12 @@
       <c r="C993" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D993" s="14" t="s">
+      <c r="D993" s="2" t="s">
         <v>675</v>
       </c>
       <c r="E993" s="2"/>
     </row>
-    <row r="994" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A994" s="5">
         <v>2024</v>
       </c>
@@ -17080,12 +17069,12 @@
       <c r="C994" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D994" s="14" t="s">
+      <c r="D994" s="2" t="s">
         <v>676</v>
       </c>
       <c r="E994" s="2"/>
     </row>
-    <row r="995" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A995" s="5">
         <v>2024</v>
       </c>
@@ -17095,12 +17084,12 @@
       <c r="C995" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D995" s="14" t="s">
+      <c r="D995" s="2" t="s">
         <v>677</v>
       </c>
       <c r="E995" s="2"/>
     </row>
-    <row r="996" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A996" s="5">
         <v>2024</v>
       </c>
@@ -17110,11 +17099,11 @@
       <c r="C996" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D996" s="14" t="s">
+      <c r="D996" s="2" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="997" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A997" s="5">
         <v>2024</v>
       </c>
@@ -17124,11 +17113,11 @@
       <c r="C997" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D997" s="14" t="s">
+      <c r="D997" s="2" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="998" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A998" s="5">
         <v>2024</v>
       </c>
@@ -17138,11 +17127,11 @@
       <c r="C998" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D998" s="14" t="s">
+      <c r="D998" s="2" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="999" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A999" s="5">
         <v>2024</v>
       </c>
@@ -17152,11 +17141,11 @@
       <c r="C999" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D999" s="14" t="s">
+      <c r="D999" s="2" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="1000" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="5">
         <v>2024</v>
       </c>
@@ -17166,11 +17155,11 @@
       <c r="C1000" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D1000" s="14" t="s">
+      <c r="D1000" s="2" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="1001" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="5">
         <v>2024</v>
       </c>
@@ -17180,11 +17169,11 @@
       <c r="C1001" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D1001" s="14" t="s">
+      <c r="D1001" s="2" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="1002" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1002" s="5">
         <v>2024</v>
       </c>
@@ -17194,11 +17183,11 @@
       <c r="C1002" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D1002" s="14" t="s">
+      <c r="D1002" s="2" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="1003" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1003" s="5">
         <v>2024</v>
       </c>
@@ -17208,11 +17197,11 @@
       <c r="C1003" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D1003" s="14" t="s">
+      <c r="D1003" s="2" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="1004" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1004" s="5">
         <v>2024</v>
       </c>
@@ -17222,11 +17211,11 @@
       <c r="C1004" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D1004" s="14" t="s">
+      <c r="D1004" s="2" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="1005" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1005" s="5">
         <v>2024</v>
       </c>
@@ -17236,11 +17225,11 @@
       <c r="C1005" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D1005" s="14" t="s">
+      <c r="D1005" s="2" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="1006" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1006" s="5">
         <v>2024</v>
       </c>
@@ -17250,11 +17239,11 @@
       <c r="C1006" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D1006" s="14" t="s">
+      <c r="D1006" s="2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="1007" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1007" s="5">
         <v>2024</v>
       </c>
@@ -17264,11 +17253,11 @@
       <c r="C1007" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D1007" s="14" t="s">
+      <c r="D1007" s="2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="1008" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1008" s="5">
         <v>2024</v>
       </c>
@@ -17278,11 +17267,11 @@
       <c r="C1008" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D1008" s="14" t="s">
+      <c r="D1008" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="1009" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1009" s="5">
         <v>2024</v>
       </c>
@@ -17292,11 +17281,11 @@
       <c r="C1009" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D1009" s="14" t="s">
+      <c r="D1009" s="2" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="1010" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1010" s="5">
         <v>2024</v>
       </c>
@@ -17306,11 +17295,11 @@
       <c r="C1010" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D1010" s="14" t="s">
+      <c r="D1010" s="2" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="1011" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1011" s="5">
         <v>2024</v>
       </c>
@@ -17320,109 +17309,109 @@
       <c r="C1011" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D1011" s="14" t="s">
+      <c r="D1011" s="2" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="1012" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1012" s="5">
         <v>2024</v>
       </c>
       <c r="B1012" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C1012" s="14" t="s">
+      <c r="C1012" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="D1012" s="14" t="s">
+      <c r="D1012" s="2" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="1013" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1013" s="5">
         <v>2024</v>
       </c>
       <c r="B1013" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C1013" s="14" t="s">
+      <c r="C1013" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="D1013" s="14" t="s">
+      <c r="D1013" s="2" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="1014" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1014" s="5">
         <v>2024</v>
       </c>
-      <c r="B1014" s="14" t="s">
+      <c r="B1014" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="C1014" s="15" t="s">
+      <c r="C1014" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="D1014" s="14" t="s">
+      <c r="D1014" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="1015" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1015" s="5">
         <v>2024</v>
       </c>
-      <c r="B1015" s="14" t="s">
+      <c r="B1015" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="C1015" s="15" t="s">
+      <c r="C1015" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="D1015" s="14" t="s">
+      <c r="D1015" s="2" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="1016" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1016" s="5">
         <v>2024</v>
       </c>
-      <c r="B1016" s="14" t="s">
+      <c r="B1016" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="C1016" s="15" t="s">
+      <c r="C1016" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="D1016" s="14" t="s">
+      <c r="D1016" s="2" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="1017" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1017" s="5">
         <v>2024</v>
       </c>
-      <c r="B1017" s="14" t="s">
+      <c r="B1017" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="C1017" s="15" t="s">
+      <c r="C1017" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="D1017" s="14" t="s">
+      <c r="D1017" s="2" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="1018" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1018" s="5">
         <v>2024</v>
       </c>
-      <c r="B1018" s="14" t="s">
+      <c r="B1018" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="C1018" s="15" t="s">
+      <c r="C1018" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="D1018" s="14" t="s">
+      <c r="D1018" s="2" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="1019" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1019" s="5">
         <v>2024</v>
       </c>
@@ -17432,14 +17421,14 @@
       <c r="C1019" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="D1019" s="14" t="s">
+      <c r="D1019" s="2" t="s">
         <v>971</v>
       </c>
       <c r="E1019" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="1020" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1020" s="5">
         <v>2024</v>
       </c>
@@ -17449,14 +17438,14 @@
       <c r="C1020" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="D1020" s="14" t="s">
+      <c r="D1020" s="2" t="s">
         <v>972</v>
       </c>
       <c r="E1020" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="1021" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1021" s="5">
         <v>2024</v>
       </c>
@@ -17466,14 +17455,14 @@
       <c r="C1021" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="D1021" s="14" t="s">
+      <c r="D1021" s="2" t="s">
         <v>973</v>
       </c>
       <c r="E1021" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="1022" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1022" s="5">
         <v>2024</v>
       </c>
@@ -17483,68 +17472,68 @@
       <c r="C1022" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="D1022" s="14" t="s">
+      <c r="D1022" s="2" t="s">
         <v>974</v>
       </c>
       <c r="E1022" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="1023" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1023" s="3">
         <v>2024</v>
       </c>
-      <c r="B1023" s="14"/>
-      <c r="C1023" s="15"/>
-      <c r="D1023" s="14"/>
-    </row>
-    <row r="1024" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1023" s="2"/>
+      <c r="C1023" s="4"/>
+      <c r="D1023" s="2"/>
+    </row>
+    <row r="1024" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1024" s="3">
         <v>2024</v>
       </c>
-      <c r="B1024" s="14"/>
-      <c r="C1024" s="15"/>
-      <c r="D1024" s="14"/>
-    </row>
-    <row r="1025" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1024" s="2"/>
+      <c r="C1024" s="4"/>
+      <c r="D1024" s="2"/>
+    </row>
+    <row r="1025" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1025" s="3">
         <v>2024</v>
       </c>
-      <c r="B1025" s="14"/>
-      <c r="C1025" s="15"/>
-      <c r="D1025" s="14"/>
-    </row>
-    <row r="1026" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1025" s="2"/>
+      <c r="C1025" s="4"/>
+      <c r="D1025" s="2"/>
+    </row>
+    <row r="1026" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1026" s="3">
         <v>2024</v>
       </c>
-      <c r="B1026" s="14"/>
-      <c r="C1026" s="15"/>
-      <c r="D1026" s="14"/>
-    </row>
-    <row r="1027" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1026" s="2"/>
+      <c r="C1026" s="4"/>
+      <c r="D1026" s="2"/>
+    </row>
+    <row r="1027" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1027" s="3">
         <v>2024</v>
       </c>
-      <c r="B1027" s="14"/>
-      <c r="C1027" s="15"/>
-      <c r="D1027" s="14"/>
-    </row>
-    <row r="1028" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1027" s="2"/>
+      <c r="C1027" s="4"/>
+      <c r="D1027" s="2"/>
+    </row>
+    <row r="1028" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1028" s="3">
         <v>2024</v>
       </c>
-      <c r="B1028" s="14"/>
-      <c r="C1028" s="15"/>
-      <c r="D1028" s="14"/>
-    </row>
-    <row r="1029" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1028" s="2"/>
+      <c r="C1028" s="4"/>
+      <c r="D1028" s="2"/>
+    </row>
+    <row r="1029" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1029" s="3">
         <v>2024</v>
       </c>
-      <c r="B1029" s="14"/>
-      <c r="C1029" s="15"/>
-      <c r="D1029" s="14"/>
+      <c r="B1029" s="2"/>
+      <c r="C1029" s="4"/>
+      <c r="D1029" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17557,18 +17546,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D94E77-2E03-4AB6-BE23-514B96125455}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>2018</v>
       </c>
@@ -17579,7 +17569,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -17590,7 +17580,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -17601,7 +17591,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -17612,7 +17602,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -17623,7 +17613,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -17634,7 +17624,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -17645,7 +17635,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -17656,7 +17646,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -17667,7 +17657,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -17686,18 +17676,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268BF321-94A1-45D8-A027-D9D5E55CE4EA}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -17705,7 +17696,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -17713,7 +17704,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -17721,7 +17712,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -17729,7 +17720,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -17737,7 +17728,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -17745,7 +17736,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -17753,7 +17744,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -17761,7 +17752,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -17769,7 +17760,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -17777,7 +17768,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -17785,7 +17776,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -17793,7 +17784,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -17801,7 +17792,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
